--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\gradtag\SalishGradTag.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD986D3F-A491-481D-A070-895061067111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04642028-5A5E-4524-865B-05E846155801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{067C688B-C076-4CA9-A153-9F35F2984BAE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Action #</t>
   </si>
@@ -53,19 +53,13 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>Shuffle</t>
-  </si>
-  <si>
     <t>Seed</t>
   </si>
   <si>
     <t>Commands</t>
   </si>
   <si>
-    <t>Sent</t>
+    <t>IG Sent</t>
   </si>
 </sst>
 </file>
@@ -107,7 +101,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -130,7 +128,9 @@
     <tableColumn id="4" xr3:uid="{3A418CF8-59A1-4A2F-95BE-A32263EAEDE9}" name="Person 2"/>
     <tableColumn id="5" xr3:uid="{8D54DE67-C333-4447-9BCF-C7947AC99220}" name="Time"/>
     <tableColumn id="6" xr3:uid="{998624BC-1CEF-4F45-BAE9-05990C0C6965}" name="Seed"/>
-    <tableColumn id="7" xr3:uid="{2C7689FB-B8D9-4328-A56A-8BCE654D4FCE}" name="Sent"/>
+    <tableColumn id="7" xr3:uid="{2C7689FB-B8D9-4328-A56A-8BCE654D4FCE}" name="IG Sent" dataDxfId="0">
+      <calculatedColumnFormula>FALSE</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -453,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A249FE2B-2D3B-4322-ACC7-3E6F153C317B}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -467,6 +467,7 @@
     <col min="4" max="4" width="11.58203125" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.58203125" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -486,29 +487,97 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="G2" t="b">
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\gradtag\SalishGradTag.github.io\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayash\SalishGradTag.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04642028-5A5E-4524-865B-05E846155801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAAA321-B94D-4860-9449-15AC2040D6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{067C688B-C076-4CA9-A153-9F35F2984BAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{067C688B-C076-4CA9-A153-9F35F2984BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Action #</t>
   </si>
@@ -53,20 +53,38 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Seed</t>
-  </si>
-  <si>
     <t>Commands</t>
   </si>
   <si>
     <t>IG Sent</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Shuffle</t>
+  </si>
+  <si>
+    <t>Yash Jain</t>
+  </si>
+  <si>
+    <t>Logan Singh</t>
+  </si>
+  <si>
+    <t>Harangad Sidhu</t>
+  </si>
+  <si>
+    <t>Unix</t>
+  </si>
+  <si>
+    <t>Justin Tran</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,13 +113,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -127,8 +150,10 @@
     <tableColumn id="3" xr3:uid="{0E87B79B-13C0-447B-B275-358530BD5389}" name="Person 1"/>
     <tableColumn id="4" xr3:uid="{3A418CF8-59A1-4A2F-95BE-A32263EAEDE9}" name="Person 2"/>
     <tableColumn id="5" xr3:uid="{8D54DE67-C333-4447-9BCF-C7947AC99220}" name="Time"/>
-    <tableColumn id="6" xr3:uid="{998624BC-1CEF-4F45-BAE9-05990C0C6965}" name="Seed"/>
-    <tableColumn id="7" xr3:uid="{2C7689FB-B8D9-4328-A56A-8BCE654D4FCE}" name="IG Sent" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{998624BC-1CEF-4F45-BAE9-05990C0C6965}" name="Unix" dataDxfId="0">
+      <calculatedColumnFormula>(E2-DATE(1970,1,1))*86400</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{2C7689FB-B8D9-4328-A56A-8BCE654D4FCE}" name="IG Sent" dataDxfId="1">
       <calculatedColumnFormula>FALSE</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -453,24 +478,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A249FE2B-2D3B-4322-ACC7-3E6F153C317B}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.9140625" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="11.58203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.58203125" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,97 +512,82 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="G2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45656</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F17" si="0">(E2-DATE(1970,1,1))*86400</f>
+        <v>1735516800</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45657</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1735603200</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45292</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1704067200</v>
+      </c>
+      <c r="M4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayash\SalishGradTag.github.io\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAAA321-B94D-4860-9449-15AC2040D6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A906CE47-8ED1-4A57-885B-6B3D5DAF0C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{067C688B-C076-4CA9-A153-9F35F2984BAE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{067C688B-C076-4CA9-A153-9F35F2984BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Action #</t>
   </si>
@@ -65,19 +65,7 @@
     <t>Shuffle</t>
   </si>
   <si>
-    <t>Yash Jain</t>
-  </si>
-  <si>
-    <t>Logan Singh</t>
-  </si>
-  <si>
-    <t>Harangad Sidhu</t>
-  </si>
-  <si>
     <t>Unix</t>
-  </si>
-  <si>
-    <t>Justin Tran</t>
   </si>
 </sst>
 </file>
@@ -150,10 +138,10 @@
     <tableColumn id="3" xr3:uid="{0E87B79B-13C0-447B-B275-358530BD5389}" name="Person 1"/>
     <tableColumn id="4" xr3:uid="{3A418CF8-59A1-4A2F-95BE-A32263EAEDE9}" name="Person 2"/>
     <tableColumn id="5" xr3:uid="{8D54DE67-C333-4447-9BCF-C7947AC99220}" name="Time"/>
-    <tableColumn id="6" xr3:uid="{998624BC-1CEF-4F45-BAE9-05990C0C6965}" name="Unix" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{998624BC-1CEF-4F45-BAE9-05990C0C6965}" name="Unix" dataDxfId="1">
       <calculatedColumnFormula>(E2-DATE(1970,1,1))*86400</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2C7689FB-B8D9-4328-A56A-8BCE654D4FCE}" name="IG Sent" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{2C7689FB-B8D9-4328-A56A-8BCE654D4FCE}" name="IG Sent" dataDxfId="0">
       <calculatedColumnFormula>FALSE</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -481,21 +469,21 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,80 +500,33 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2">
-        <v>45656</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F17" si="0">(E2-DATE(1970,1,1))*86400</f>
-        <v>1735516800</v>
-      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
       <c r="M2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2">
-        <v>45657</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>1735603200</v>
-      </c>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
       <c r="M3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2">
-        <v>45292</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>1704067200</v>
-      </c>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
       <c r="M4" t="s">
         <v>8</v>
       </c>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C607653-2697-4FB3-8571-EEE2E0C251BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D070ADF-989D-4AE3-B5F5-048845FAAD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="5">
-        <v>6942069</v>
+        <v>42069</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="7">

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D070ADF-989D-4AE3-B5F5-048845FAAD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC907233-FDE9-4C48-B748-1CFF26E2B04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Action #</t>
   </si>
@@ -56,10 +56,34 @@
     <t>Unix</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Shuffle</t>
+  </si>
+  <si>
+    <t>Zaima Salman</t>
+  </si>
+  <si>
+    <t>Nicholas Kelly</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Jayde Forster</t>
+  </si>
+  <si>
+    <t>Rich Kiel Caro</t>
+  </si>
+  <si>
+    <t>Alex Skuce</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Woosung Lee</t>
+  </si>
+  <si>
+    <t>Aron Yu</t>
   </si>
 </sst>
 </file>
@@ -111,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -126,9 +150,6 @@
     </xf>
     <xf numFmtId="18" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -163,8 +184,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G20" totalsRowShown="0">
-  <autoFilter ref="A1:G20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G19" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
@@ -466,10 +486,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -511,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5">
         <v>42069</v>
@@ -523,144 +543,168 @@
       <c r="F2" s="8">
         <v>0.61527777777777781</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="13">
         <f>((E2+F2)-DATE(1970,1,1))*86400</f>
         <v>1740321959.9999998</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9" t="s">
-        <v>7</v>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7">
+        <v>45712</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="G3" s="13">
+        <f>((E3+F3)-DATE(1970,1,1))*86400</f>
+        <v>1740392519.9999998</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7">
+        <v>45712</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="G4" s="13">
+        <f t="shared" ref="G4:G5" si="0">((E4+F4)-DATE(1970,1,1))*86400</f>
+        <v>1740393000</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
       <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7">
+        <v>45712</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="G5" s="13">
+        <f t="shared" si="0"/>
+        <v>1740395160.0000002</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9" t="s">
-        <v>7</v>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7">
+        <v>45712</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="G6" s="13">
+        <f>((E6+F6)-DATE(1970,1,1))*86400</f>
+        <v>1740356820.0000002</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="5:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="5:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="5:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="5:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC907233-FDE9-4C48-B748-1CFF26E2B04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED948F4-86C0-49E4-A2E5-BC063B0DC0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -634,11 +634,11 @@
         <v>45712</v>
       </c>
       <c r="F6" s="11">
-        <v>1.8749999999999999E-2</v>
+        <v>0.51875000000000004</v>
       </c>
       <c r="G6" s="13">
         <f>((E6+F6)-DATE(1970,1,1))*86400</f>
-        <v>1740356820.0000002</v>
+        <v>1740400020.0000002</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED948F4-86C0-49E4-A2E5-BC063B0DC0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183D4A9B-6F87-466B-8AC1-C07CD2ED5F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Action #</t>
   </si>
@@ -84,6 +84,24 @@
   </si>
   <si>
     <t>Aron Yu</t>
+  </si>
+  <si>
+    <t>Elliot Jackson</t>
+  </si>
+  <si>
+    <t>Jess LaPierre</t>
+  </si>
+  <si>
+    <t>Morgan Jackson</t>
+  </si>
+  <si>
+    <t>Jeevan Dhaliwal</t>
+  </si>
+  <si>
+    <t>Francesco Cioffi</t>
+  </si>
+  <si>
+    <t>Kayla Norris</t>
   </si>
 </sst>
 </file>
@@ -170,7 +188,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -184,7 +206,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G19" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G30" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
@@ -192,7 +214,9 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Para2"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Time"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Unix"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Unix" dataDxfId="0">
+      <calculatedColumnFormula>((E2+F2)-DATE(1970,1,1))*86400</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -486,10 +510,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -499,7 +523,7 @@
     <col min="3" max="3" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" style="3" customWidth="1"/>
     <col min="7" max="7" width="20.1796875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -544,7 +568,7 @@
         <v>0.61527777777777781</v>
       </c>
       <c r="G2" s="13">
-        <f>((E2+F2)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G2:G30" si="0">((E2+F2)-DATE(1970,1,1))*86400</f>
         <v>1740321959.9999998</v>
       </c>
     </row>
@@ -565,7 +589,7 @@
         <v>0.43194444444444446</v>
       </c>
       <c r="G3" s="13">
-        <f>((E3+F3)-DATE(1970,1,1))*86400</f>
+        <f t="shared" si="0"/>
         <v>1740392519.9999998</v>
       </c>
     </row>
@@ -589,7 +613,7 @@
         <v>0.4375</v>
       </c>
       <c r="G4" s="13">
-        <f t="shared" ref="G4:G5" si="0">((E4+F4)-DATE(1970,1,1))*86400</f>
+        <f t="shared" si="0"/>
         <v>1740393000</v>
       </c>
     </row>
@@ -618,7 +642,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -637,29 +661,105 @@
         <v>0.51875000000000004</v>
       </c>
       <c r="G6" s="13">
-        <f>((E6+F6)-DATE(1970,1,1))*86400</f>
+        <f t="shared" si="0"/>
         <v>1740400020.0000002</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7">
+        <v>45712</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="G7" s="13">
+        <f t="shared" si="0"/>
+        <v>1740431040.0000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7">
+        <v>45713</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.46875</v>
+      </c>
+      <c r="G8" s="13">
+        <f t="shared" si="0"/>
+        <v>1740482100</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="7">
+        <v>45713</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" si="0"/>
+        <v>1740489600</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7">
+        <v>45713</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="0"/>
+        <v>1740478919.9999998</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E11" s="12"/>
@@ -705,6 +805,39 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="G30" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183D4A9B-6F87-466B-8AC1-C07CD2ED5F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C12D459-4BB3-48F0-BA00-3D2AF93AEE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Action #</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Kayla Norris</t>
+  </si>
+  <si>
+    <t>Mateya Baumer</t>
+  </si>
+  <si>
+    <t>Jacob Dotto</t>
   </si>
 </sst>
 </file>
@@ -513,7 +519,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -568,7 +574,7 @@
         <v>0.61527777777777781</v>
       </c>
       <c r="G2" s="13">
-        <f t="shared" ref="G2:G30" si="0">((E2+F2)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G2:G8" si="0">((E2+F2)-DATE(1970,1,1))*86400</f>
         <v>1740321959.9999998</v>
       </c>
     </row>
@@ -697,10 +703,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E8" s="7">
         <v>45713</v>
@@ -713,7 +719,7 @@
         <v>1740482100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -721,20 +727,20 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="7">
         <v>45713</v>
       </c>
       <c r="F9" s="11">
-        <v>0.55555555555555558</v>
+        <v>0.46875</v>
       </c>
       <c r="G9" s="13">
-        <f t="shared" si="0"/>
-        <v>1740489600</v>
+        <f t="shared" ref="G9:G11" si="1">((E9+F9)-DATE(1970,1,1))*86400</f>
+        <v>1740482100</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -745,26 +751,45 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="7">
         <v>45713</v>
       </c>
-      <c r="F10" s="8">
-        <v>0.43194444444444446</v>
+      <c r="F10" s="11">
+        <v>0.55555555555555558</v>
       </c>
       <c r="G10" s="13">
-        <f t="shared" si="0"/>
-        <v>1740478919.9999998</v>
+        <f t="shared" si="1"/>
+        <v>1740489600</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7">
+        <v>45713</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.71458333333333335</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="1"/>
+        <v>1740503340</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E12" s="12"/>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C12D459-4BB3-48F0-BA00-3D2AF93AEE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5350B6-DF83-4531-87DD-33DB0949D3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Action #</t>
   </si>
@@ -108,6 +108,21 @@
   </si>
   <si>
     <t>Jacob Dotto</t>
+  </si>
+  <si>
+    <t>Lauren MacNeil</t>
+  </si>
+  <si>
+    <t>Ryan Edwards</t>
+  </si>
+  <si>
+    <t>Ruby Clunas</t>
+  </si>
+  <si>
+    <t>Hudson Wilson</t>
+  </si>
+  <si>
+    <t>Aderinsola Solabomi</t>
   </si>
 </sst>
 </file>
@@ -140,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,11 +170,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -189,6 +213,20 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,7 +557,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -671,26 +709,26 @@
         <v>1740400020.0000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7" spans="1:7" s="15" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="16">
         <v>45712</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="19">
         <v>0.87777777777777777</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="18">
         <f t="shared" si="0"/>
         <v>1740431040.0000002</v>
       </c>
@@ -712,11 +750,11 @@
         <v>45713</v>
       </c>
       <c r="F8" s="11">
-        <v>0.46875</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="G8" s="13">
         <f t="shared" si="0"/>
-        <v>1740482100</v>
+        <v>1740480600.0000002</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -736,11 +774,11 @@
         <v>45713</v>
       </c>
       <c r="F9" s="11">
-        <v>0.46875</v>
+        <v>0.46319444444444446</v>
       </c>
       <c r="G9" s="13">
-        <f t="shared" ref="G9:G11" si="1">((E9+F9)-DATE(1970,1,1))*86400</f>
-        <v>1740482100</v>
+        <f t="shared" ref="G9:G14" si="1">((E9+F9)-DATE(1970,1,1))*86400</f>
+        <v>1740481619.9999998</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -767,52 +805,109 @@
         <v>1740489600</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    <row r="11" spans="1:7" s="15" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="16">
         <v>45713</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="17">
         <v>0.71458333333333335</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="18">
         <f t="shared" si="1"/>
         <v>1740503340</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="7">
+        <v>45714</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" si="1"/>
+        <v>1740568019.9999998</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7">
+        <v>45714</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.46875</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" si="1"/>
+        <v>1740568500</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="7">
+        <v>45714</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="G14" s="13">
+        <f t="shared" si="1"/>
+        <v>1740572640.0000002</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="12"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E16" s="12"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
     </row>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5350B6-DF83-4531-87DD-33DB0949D3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BD523E-A4DA-4ECD-A6C4-360C5BFD1337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Action #</t>
   </si>
@@ -123,6 +123,30 @@
   </si>
   <si>
     <t>Aderinsola Solabomi</t>
+  </si>
+  <si>
+    <t>Cora Walshe</t>
+  </si>
+  <si>
+    <t>Dylan Jones</t>
+  </si>
+  <si>
+    <t>Arjun Randhawa</t>
+  </si>
+  <si>
+    <t>Connor Clifford</t>
+  </si>
+  <si>
+    <t>Meerub Riaz</t>
+  </si>
+  <si>
+    <t>Kiana Kelly</t>
+  </si>
+  <si>
+    <t>Adiv Singh</t>
+  </si>
+  <si>
+    <t>Riya Bhangu</t>
   </si>
 </sst>
 </file>
@@ -155,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -179,11 +203,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -227,6 +280,33 @@
     </xf>
     <xf numFmtId="19" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -250,7 +330,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G30" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G31" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
@@ -554,10 +634,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -777,7 +857,7 @@
         <v>0.46319444444444446</v>
       </c>
       <c r="G9" s="13">
-        <f t="shared" ref="G9:G14" si="1">((E9+F9)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G9:G18" si="1">((E9+F9)-DATE(1970,1,1))*86400</f>
         <v>1740481619.9999998</v>
       </c>
     </row>
@@ -877,87 +957,170 @@
         <v>1740568500</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="14" spans="1:7" s="21" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="20">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="22">
         <v>45714</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="23">
         <v>0.51666666666666672</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="24">
         <f t="shared" si="1"/>
         <v>1740572640.0000002</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="7"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="7">
+        <v>45715</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G15" s="26">
+        <f t="shared" si="1"/>
+        <v>1740654000.0000002</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E16" s="7"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="5:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="5:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="5:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="7">
+        <v>45715</v>
+      </c>
+      <c r="F16" s="23">
+        <v>0.46875</v>
+      </c>
+      <c r="G16" s="24">
+        <f t="shared" si="1"/>
+        <v>1740654900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="7">
+        <v>45715</v>
+      </c>
+      <c r="F17" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="24">
+        <f>((E17+F17)-DATE(1970,1,1))*86400</f>
+        <v>1740657600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="28" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="27">
+        <v>16</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="7">
+        <v>45715</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G18" s="13">
+        <f t="shared" si="1"/>
+        <v>1740664800.0000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G31" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BD523E-A4DA-4ECD-A6C4-360C5BFD1337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3D0AE7-6660-42C5-843B-9F4699F4E5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>Action #</t>
   </si>
@@ -147,14 +147,51 @@
   </si>
   <si>
     <t>Riya Bhangu</t>
+  </si>
+  <si>
+    <t>Connor Sokacz</t>
+  </si>
+  <si>
+    <t>Amani Shamoon</t>
+  </si>
+  <si>
+    <t>Declan Irving</t>
+  </si>
+  <si>
+    <t>Evan Stubbings</t>
+  </si>
+  <si>
+    <t>Nevaeh Nair</t>
+  </si>
+  <si>
+    <t>Brian Ha</t>
+  </si>
+  <si>
+    <t>Scott Larsen</t>
+  </si>
+  <si>
+    <t>Kali Thompson</t>
+  </si>
+  <si>
+    <t>Maxim Perreault</t>
+  </si>
+  <si>
+    <t>Ulises Romero</t>
+  </si>
+  <si>
+    <t>Krishalee Leeme</t>
+  </si>
+  <si>
+    <t>Kai Douangchanh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm:ss\ \t\t"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -179,7 +216,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -223,20 +260,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -298,14 +326,10 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -636,8 +660,8 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -857,7 +881,7 @@
         <v>0.46319444444444446</v>
       </c>
       <c r="G9" s="13">
-        <f t="shared" ref="G9:G18" si="1">((E9+F9)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G9:G20" si="1">((E9+F9)-DATE(1970,1,1))*86400</f>
         <v>1740481619.9999998</v>
       </c>
     </row>
@@ -1053,56 +1077,197 @@
         <v>1740657600</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="28" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="27">
+    <row r="18" spans="1:7" s="21" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="20">
         <v>16</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="27" t="s">
+      <c r="B18" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="22">
         <v>45715</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="23">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="24">
         <f t="shared" si="1"/>
         <v>1740664800.0000002</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="27">
+        <v>45716</v>
+      </c>
+      <c r="F19" s="28">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="G19" s="13">
+        <f t="shared" ref="G19:G24" si="2">((E19+F19)-DATE(1970,1,1))*86400</f>
+        <v>1740739859.9999998</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="27">
+        <v>45716</v>
+      </c>
+      <c r="F20" s="28">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="G20" s="13">
+        <f t="shared" ref="G20:G25" si="3">((E20+F20)-DATE(1970,1,1))*86400</f>
+        <v>1740739859.9999998</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G21" s="12"/>
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="27">
+        <v>45716</v>
+      </c>
+      <c r="F21" s="28">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="G21" s="13">
+        <f t="shared" si="3"/>
+        <v>1740739920</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G22" s="12"/>
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="27">
+        <v>45716</v>
+      </c>
+      <c r="F22" s="28">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="G22" s="13">
+        <f t="shared" si="3"/>
+        <v>1740742320.0000002</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G23" s="12"/>
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="27">
+        <v>45716</v>
+      </c>
+      <c r="F23" s="28">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="G23" s="13">
+        <f t="shared" si="3"/>
+        <v>1740750180</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G24" s="12"/>
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="27">
+        <v>45716</v>
+      </c>
+      <c r="F24" s="28">
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="G24" s="13">
+        <f t="shared" si="3"/>
+        <v>1740752580.0000002</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G25" s="12"/>
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="27">
+        <v>45716</v>
+      </c>
+      <c r="F25" s="28">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="G25" s="13">
+        <f t="shared" si="3"/>
+        <v>1740739920</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G26" s="12"/>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3D0AE7-6660-42C5-843B-9F4699F4E5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD702A4A-F741-4A35-8284-6F0E231DBD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>Action #</t>
   </si>
@@ -59,37 +59,43 @@
     <t>Shuffle</t>
   </si>
   <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Alex Skuce</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Nicholas Kelly</t>
+  </si>
+  <si>
     <t>Zaima Salman</t>
   </si>
   <si>
-    <t>Nicholas Kelly</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
     <t>Jayde Forster</t>
   </si>
   <si>
     <t>Rich Kiel Caro</t>
   </si>
   <si>
-    <t>Alex Skuce</t>
-  </si>
-  <si>
-    <t>Point</t>
+    <t>Aron Yu</t>
   </si>
   <si>
     <t>Woosung Lee</t>
   </si>
   <si>
-    <t>Aron Yu</t>
+    <t>Jess LaPierre</t>
   </si>
   <si>
     <t>Elliot Jackson</t>
   </si>
   <si>
-    <t>Jess LaPierre</t>
+    <t>Mateya Baumer</t>
+  </si>
+  <si>
+    <t>Jacob Dotto</t>
   </si>
   <si>
     <t>Morgan Jackson</t>
@@ -98,18 +104,12 @@
     <t>Jeevan Dhaliwal</t>
   </si>
   <si>
+    <t>Kayla Norris</t>
+  </si>
+  <si>
     <t>Francesco Cioffi</t>
   </si>
   <si>
-    <t>Kayla Norris</t>
-  </si>
-  <si>
-    <t>Mateya Baumer</t>
-  </si>
-  <si>
-    <t>Jacob Dotto</t>
-  </si>
-  <si>
     <t>Lauren MacNeil</t>
   </si>
   <si>
@@ -137,25 +137,37 @@
     <t>Connor Clifford</t>
   </si>
   <si>
+    <t>Riya Bhangu</t>
+  </si>
+  <si>
+    <t>Adiv Singh</t>
+  </si>
+  <si>
+    <t>Kiana Kelly</t>
+  </si>
+  <si>
     <t>Meerub Riaz</t>
   </si>
   <si>
-    <t>Kiana Kelly</t>
-  </si>
-  <si>
-    <t>Adiv Singh</t>
-  </si>
-  <si>
-    <t>Riya Bhangu</t>
+    <t>Krishalee Leeme</t>
+  </si>
+  <si>
+    <t>Amani Shamoon</t>
+  </si>
+  <si>
+    <t>Declan Irving</t>
+  </si>
+  <si>
+    <t>Kai Douangchanh</t>
   </si>
   <si>
     <t>Connor Sokacz</t>
   </si>
   <si>
-    <t>Amani Shamoon</t>
-  </si>
-  <si>
-    <t>Declan Irving</t>
+    <t>Scott Larsen</t>
+  </si>
+  <si>
+    <t>Kali Thompson</t>
   </si>
   <si>
     <t>Evan Stubbings</t>
@@ -167,22 +179,34 @@
     <t>Brian Ha</t>
   </si>
   <si>
-    <t>Scott Larsen</t>
-  </si>
-  <si>
-    <t>Kali Thompson</t>
-  </si>
-  <si>
     <t>Maxim Perreault</t>
   </si>
   <si>
     <t>Ulises Romero</t>
   </si>
   <si>
-    <t>Krishalee Leeme</t>
-  </si>
-  <si>
-    <t>Kai Douangchanh</t>
+    <t>Amirah Kajla</t>
+  </si>
+  <si>
+    <t>Kennedy Grayson</t>
+  </si>
+  <si>
+    <t>Jaeden Potter</t>
+  </si>
+  <si>
+    <t>Samuel Smith</t>
+  </si>
+  <si>
+    <t>Nixon Pech</t>
+  </si>
+  <si>
+    <t>Yohann Balogun</t>
+  </si>
+  <si>
+    <t>Wilson McLean</t>
+  </si>
+  <si>
+    <t>Ethan Kelly</t>
   </si>
 </sst>
 </file>
@@ -191,9 +215,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm:ss\ \t\t"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +231,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,7 +246,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -236,7 +266,27 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -249,98 +299,116 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="18" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="19" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="19" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -354,7 +422,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G31" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G33" totalsRowShown="0">
+  <autoFilter ref="A1:G33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
@@ -362,9 +431,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Para2"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Time"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Unix" dataDxfId="0">
-      <calculatedColumnFormula>((E2+F2)-DATE(1970,1,1))*86400</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Unix"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -658,21 +725,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -698,98 +765,98 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="5">
         <v>42069</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="7">
+      <c r="E2" s="17">
         <v>45711</v>
       </c>
-      <c r="F2" s="8">
-        <v>0.61527777777777781</v>
-      </c>
-      <c r="G2" s="13">
-        <f t="shared" ref="G2:G8" si="0">((E2+F2)-DATE(1970,1,1))*86400</f>
-        <v>1740321959.9999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="F2" s="28">
+        <v>1.6152777777777778</v>
+      </c>
+      <c r="G2" s="6">
+        <f t="shared" ref="G2:G27" si="0">((E2+F2)-DATE(1970,1,1))*86400</f>
+        <v>1740408359.9999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7">
+        <v>9</v>
+      </c>
+      <c r="E3" s="17">
         <v>45712</v>
       </c>
-      <c r="F3" s="8">
-        <v>0.43194444444444446</v>
-      </c>
-      <c r="G3" s="13">
-        <f t="shared" si="0"/>
-        <v>1740392519.9999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="28">
+        <v>1.4319444444444445</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="0"/>
+        <v>1740478919.9999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="17">
         <v>45712</v>
       </c>
-      <c r="F4" s="11">
-        <v>0.4375</v>
-      </c>
-      <c r="G4" s="13">
-        <f t="shared" si="0"/>
-        <v>1740393000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="F4" s="28">
+        <v>1.4375</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="0"/>
+        <v>1740479400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="17">
         <v>45712</v>
       </c>
-      <c r="F5" s="11">
-        <v>0.46250000000000002</v>
-      </c>
-      <c r="G5" s="13">
-        <f t="shared" si="0"/>
-        <v>1740395160.0000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="28">
+        <v>1.4624999999999999</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="0"/>
+        <v>1740481560.0000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -797,47 +864,47 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="E6" s="17">
         <v>45712</v>
       </c>
-      <c r="F6" s="11">
-        <v>0.51875000000000004</v>
-      </c>
-      <c r="G6" s="13">
-        <f t="shared" si="0"/>
-        <v>1740400020.0000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="15" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="14">
+      <c r="F6" s="28">
+        <v>1.51875</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>1740486420.0000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="E7" s="33">
         <v>45712</v>
       </c>
-      <c r="F7" s="19">
-        <v>0.87777777777777777</v>
-      </c>
-      <c r="G7" s="18">
-        <f t="shared" si="0"/>
-        <v>1740431040.0000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F7" s="29">
+        <v>1.8777777777777778</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="0"/>
+        <v>1740517440.0000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -845,47 +912,47 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="7">
+        <v>20</v>
+      </c>
+      <c r="E8" s="17">
         <v>45713</v>
       </c>
-      <c r="F8" s="11">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="G8" s="13">
-        <f t="shared" si="0"/>
-        <v>1740480600.0000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="F8" s="28">
+        <v>1.4513888888888888</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
+        <v>1740567000.0000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="7">
+        <v>22</v>
+      </c>
+      <c r="E9" s="17">
         <v>45713</v>
       </c>
-      <c r="F9" s="11">
-        <v>0.46319444444444446</v>
-      </c>
-      <c r="G9" s="13">
-        <f t="shared" ref="G9:G20" si="1">((E9+F9)-DATE(1970,1,1))*86400</f>
-        <v>1740481619.9999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="28">
+        <v>1.4631944444444445</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>1740568019.9999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -893,48 +960,48 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="7">
+        <v>23</v>
+      </c>
+      <c r="E10" s="17">
         <v>45713</v>
       </c>
-      <c r="F10" s="11">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="G10" s="13">
-        <f t="shared" si="1"/>
-        <v>1740489600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="15" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="14">
-        <v>10</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="16">
+      <c r="F10" s="28">
+        <v>1.5555555555555556</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="0"/>
+        <v>1740576000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="33">
         <v>45713</v>
       </c>
-      <c r="F11" s="17">
-        <v>0.71458333333333335</v>
-      </c>
-      <c r="G11" s="18">
-        <f t="shared" si="1"/>
-        <v>1740503340</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="F11" s="29">
+        <v>1.7145833333333333</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="0"/>
+        <v>1740589740</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -946,20 +1013,20 @@
       <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="17">
         <v>45714</v>
       </c>
-      <c r="F12" s="8">
-        <v>0.46319444444444446</v>
-      </c>
-      <c r="G12" s="13">
-        <f t="shared" si="1"/>
-        <v>1740568019.9999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>13</v>
+      <c r="F12" s="28">
+        <v>1.4631944444444445</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
+        <v>1740654419.9999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -970,44 +1037,44 @@
       <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="17">
         <v>45714</v>
       </c>
-      <c r="F13" s="8">
-        <v>0.46875</v>
-      </c>
-      <c r="G13" s="13">
-        <f t="shared" si="1"/>
-        <v>1740568500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="21" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20">
-        <v>12</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="20" t="s">
+      <c r="F13" s="28">
+        <v>1.46875</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="0"/>
+        <v>1740654900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="36">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="34">
         <v>45714</v>
       </c>
-      <c r="F14" s="23">
-        <v>0.51666666666666672</v>
-      </c>
-      <c r="G14" s="24">
-        <f t="shared" si="1"/>
-        <v>1740572640.0000002</v>
+      <c r="F14" s="30">
+        <v>1.5166666666666666</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" si="0"/>
+        <v>1740659040.0000002</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="7">
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -1018,20 +1085,20 @@
       <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="17">
         <v>45715</v>
       </c>
-      <c r="F15" s="25">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G15" s="26">
-        <f t="shared" si="1"/>
-        <v>1740654000.0000002</v>
+      <c r="F15" s="31">
+        <v>1.4583333333333333</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="0"/>
+        <v>1740740400.0000002</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="5">
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -1042,92 +1109,92 @@
       <c r="D16" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="17">
         <v>45715</v>
       </c>
-      <c r="F16" s="23">
-        <v>0.46875</v>
-      </c>
-      <c r="G16" s="24">
-        <f t="shared" si="1"/>
-        <v>1740654900</v>
+      <c r="F16" s="30">
+        <v>1.46875</v>
+      </c>
+      <c r="G16" s="15">
+        <f t="shared" si="0"/>
+        <v>1740741300</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="7">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="17">
+        <v>45715</v>
+      </c>
+      <c r="F17" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="G17" s="15">
+        <f t="shared" si="0"/>
+        <v>1740744000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="36">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="E18" s="34">
         <v>45715</v>
       </c>
-      <c r="F17" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="24">
-        <f>((E17+F17)-DATE(1970,1,1))*86400</f>
-        <v>1740657600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="21" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="20">
-        <v>16</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="22">
-        <v>45715</v>
-      </c>
-      <c r="F18" s="23">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="G18" s="24">
-        <f t="shared" si="1"/>
-        <v>1740664800.0000002</v>
+      <c r="F18" s="30">
+        <v>1.5833333333333335</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" si="0"/>
+        <v>1740751200.0000002</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="7">
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="17">
+        <v>45716</v>
+      </c>
+      <c r="F19" s="28">
+        <v>1.4520833333333334</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="0"/>
+        <v>1740826259.9999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
         <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="27">
-        <v>45716</v>
-      </c>
-      <c r="F19" s="28">
-        <v>0.45208333333333334</v>
-      </c>
-      <c r="G19" s="13">
-        <f t="shared" ref="G19:G24" si="2">((E19+F19)-DATE(1970,1,1))*86400</f>
-        <v>1740739859.9999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -1138,154 +1205,264 @@
       <c r="D20" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="17">
         <v>45716</v>
       </c>
       <c r="F20" s="28">
-        <v>0.45208333333333334</v>
-      </c>
-      <c r="G20" s="13">
-        <f t="shared" ref="G20:G25" si="3">((E20+F20)-DATE(1970,1,1))*86400</f>
-        <v>1740739859.9999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>18</v>
+        <v>1.4520833333333334</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="0"/>
+        <v>1740826259.9999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="17">
+        <v>45716</v>
+      </c>
+      <c r="F21" s="28">
+        <v>1.4527777777777777</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="0"/>
+        <v>1740826320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="17">
+        <v>45716</v>
+      </c>
+      <c r="F22" s="28">
+        <v>1.4805555555555556</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="0"/>
+        <v>1740828720.0000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="17">
+        <v>45716</v>
+      </c>
+      <c r="F23" s="28">
+        <v>1.5715277777777779</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="0"/>
+        <v>1740836580</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="17">
+        <v>45716</v>
+      </c>
+      <c r="F24" s="28">
+        <v>1.5993055555555555</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="0"/>
+        <v>1740838980.0000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="22">
+        <v>24</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="27">
+      <c r="E25" s="25">
         <v>45716</v>
       </c>
-      <c r="F21" s="28">
-        <v>0.45277777777777778</v>
-      </c>
-      <c r="G21" s="13">
-        <f t="shared" si="3"/>
-        <v>1740739920</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="27">
-        <v>45716</v>
-      </c>
-      <c r="F22" s="28">
-        <v>0.48055555555555557</v>
-      </c>
-      <c r="G22" s="13">
-        <f t="shared" si="3"/>
-        <v>1740742320.0000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="27">
-        <v>45716</v>
-      </c>
-      <c r="F23" s="28">
-        <v>0.57152777777777775</v>
-      </c>
-      <c r="G23" s="13">
-        <f t="shared" si="3"/>
-        <v>1740750180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="F25" s="32">
+        <v>1.4527777777777777</v>
+      </c>
+      <c r="G25" s="26">
+        <f t="shared" si="0"/>
+        <v>1740826320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="35"/>
+      <c r="E26" s="19">
+        <v>45719</v>
+      </c>
+      <c r="F26" s="27">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="G26" s="26">
+        <f t="shared" si="0"/>
+        <v>1741044599.9999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="19">
+        <v>45719</v>
+      </c>
+      <c r="F27" s="27">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G27" s="26">
+        <f t="shared" si="0"/>
+        <v>1741001399.9999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="36">
+        <v>25</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="38">
+        <v>45719</v>
+      </c>
+      <c r="F28" s="39">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G28" s="26">
+        <f t="shared" ref="G28:G30" si="1">((E28+F28)-DATE(1970,1,1))*86400</f>
+        <v>1741005000.0000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="27">
-        <v>45716</v>
-      </c>
-      <c r="F24" s="28">
-        <v>0.59930555555555554</v>
-      </c>
-      <c r="G24" s="13">
-        <f t="shared" si="3"/>
-        <v>1740752580.0000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="27">
-        <v>45716</v>
-      </c>
-      <c r="F25" s="28">
-        <v>0.45277777777777778</v>
-      </c>
-      <c r="G25" s="13">
-        <f t="shared" si="3"/>
-        <v>1740739920</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G31" s="12"/>
+      <c r="E29" s="19">
+        <v>45720</v>
+      </c>
+      <c r="F29" s="27">
+        <v>0.85</v>
+      </c>
+      <c r="G29" s="26">
+        <f t="shared" si="1"/>
+        <v>1741119839.9999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="18">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="19">
+        <v>45720</v>
+      </c>
+      <c r="F30" s="27">
+        <v>0.70694444444444449</v>
+      </c>
+      <c r="G30" s="26">
+        <f t="shared" si="1"/>
+        <v>1741107479.9999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F31" s="27"/>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G33" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD702A4A-F741-4A35-8284-6F0E231DBD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0F5123-DFF5-4297-AF53-617010703462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t>Action #</t>
   </si>
@@ -207,6 +207,18 @@
   </si>
   <si>
     <t>Ethan Kelly</t>
+  </si>
+  <si>
+    <t>Shaya Venktes</t>
+  </si>
+  <si>
+    <t>Alex Zhou</t>
+  </si>
+  <si>
+    <t>Sarmed Bek</t>
+  </si>
+  <si>
+    <t>Jasmine Robertson-Zhou</t>
   </si>
 </sst>
 </file>
@@ -215,7 +227,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm:ss\ \t\t"/>
-    <numFmt numFmtId="166" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -246,7 +258,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -265,17 +277,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -283,17 +286,8 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -303,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -332,78 +326,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,8 +386,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G33" totalsRowShown="0">
-  <autoFilter ref="A1:G33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G35" totalsRowShown="0">
+  <autoFilter ref="A1:G35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
@@ -725,34 +689,35 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -769,17 +734,17 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="5">
         <v>42069</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="17">
+      <c r="E2" s="10">
         <v>45711</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="16">
         <v>1.6152777777777778</v>
       </c>
       <c r="G2" s="6">
@@ -791,16 +756,16 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="10">
         <v>45712</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="16">
         <v>1.4319444444444445</v>
       </c>
       <c r="G3" s="6">
@@ -812,7 +777,7 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -821,10 +786,10 @@
       <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="10">
         <v>45712</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="16">
         <v>1.4375</v>
       </c>
       <c r="G4" s="6">
@@ -836,7 +801,7 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -845,10 +810,10 @@
       <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="10">
         <v>45712</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="16">
         <v>1.4624999999999999</v>
       </c>
       <c r="G5" s="6">
@@ -860,19 +825,19 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="10">
         <v>45712</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="16">
         <v>1.51875</v>
       </c>
       <c r="G6" s="6">
@@ -880,26 +845,26 @@
         <v>1740486420.0000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="14">
         <v>45712</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="17">
         <v>1.8777777777777778</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="15">
         <f t="shared" si="0"/>
         <v>1740517440.0000002</v>
       </c>
@@ -908,19 +873,19 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="10">
         <v>45713</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="16">
         <v>1.4513888888888888</v>
       </c>
       <c r="G8" s="6">
@@ -932,19 +897,19 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="10">
         <v>45713</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="16">
         <v>1.4631944444444445</v>
       </c>
       <c r="G9" s="6">
@@ -956,19 +921,19 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="10">
         <v>45713</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="16">
         <v>1.5555555555555556</v>
       </c>
       <c r="G10" s="6">
@@ -976,26 +941,26 @@
         <v>1740576000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="11" t="s">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="14">
         <v>45713</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="17">
         <v>1.7145833333333333</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="15">
         <f t="shared" si="0"/>
         <v>1740589740</v>
       </c>
@@ -1004,19 +969,19 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="10">
         <v>45714</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="16">
         <v>1.4631944444444445</v>
       </c>
       <c r="G12" s="6">
@@ -1028,19 +993,19 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="10">
         <v>45714</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="16">
         <v>1.46875</v>
       </c>
       <c r="G13" s="6">
@@ -1048,23 +1013,23 @@
         <v>1740654900</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="36">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="14">
         <v>45714</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="17">
         <v>1.5166666666666666</v>
       </c>
       <c r="G14" s="15">
@@ -1076,22 +1041,22 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="10">
         <v>45715</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="16">
         <v>1.4583333333333333</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="6">
         <f t="shared" si="0"/>
         <v>1740740400.0000002</v>
       </c>
@@ -1100,22 +1065,22 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="10">
         <v>45715</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="16">
         <v>1.46875</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="6">
         <f t="shared" si="0"/>
         <v>1740741300</v>
       </c>
@@ -1124,43 +1089,43 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="10">
         <v>45715</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="16">
         <v>1.5</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="6">
         <f t="shared" si="0"/>
         <v>1740744000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="36">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="19">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="14">
         <v>45715</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="17">
         <v>1.5833333333333335</v>
       </c>
       <c r="G18" s="15">
@@ -1172,19 +1137,19 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="10">
         <v>45716</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="16">
         <v>1.4520833333333334</v>
       </c>
       <c r="G19" s="6">
@@ -1196,19 +1161,19 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="10">
         <v>45716</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="16">
         <v>1.4520833333333334</v>
       </c>
       <c r="G20" s="6">
@@ -1220,19 +1185,19 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="10">
         <v>45716</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="16">
         <v>1.4527777777777777</v>
       </c>
       <c r="G21" s="6">
@@ -1244,19 +1209,19 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="10">
         <v>45716</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="16">
         <v>1.4805555555555556</v>
       </c>
       <c r="G22" s="6">
@@ -1268,19 +1233,19 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="10">
         <v>45716</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="16">
         <v>1.5715277777777779</v>
       </c>
       <c r="G23" s="6">
@@ -1292,19 +1257,19 @@
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="10">
         <v>45716</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="16">
         <v>1.5993055555555555</v>
       </c>
       <c r="G24" s="6">
@@ -1312,48 +1277,47 @@
         <v>1740838980.0000002</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="22">
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="24" t="s">
+      <c r="B25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="14">
         <v>45716</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="17">
         <v>1.4527777777777777</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="15">
         <f t="shared" si="0"/>
         <v>1740826320</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="19">
+      <c r="E26" s="24">
         <v>45719</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="25">
         <v>0.97916666666666663</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="6">
         <f t="shared" si="0"/>
         <v>1741044599.9999998</v>
       </c>
@@ -1362,107 +1326,193 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="24">
         <v>45719</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="25">
         <v>0.47916666666666669</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="6">
         <f t="shared" si="0"/>
         <v>1741001399.9999998</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="36">
-        <v>25</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="37" t="s">
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="24">
         <v>45719</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="25">
         <v>0.52083333333333337</v>
       </c>
-      <c r="G28" s="26">
-        <f t="shared" ref="G28:G30" si="1">((E28+F28)-DATE(1970,1,1))*86400</f>
+      <c r="G28" s="6">
+        <f t="shared" ref="G28:G34" si="1">((E28+F28)-DATE(1970,1,1))*86400</f>
         <v>1741005000.0000002</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="7">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="18" t="s">
+    <row r="29" spans="1:7" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="20">
+        <v>31</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="21">
+        <v>45719</v>
+      </c>
+      <c r="F29" s="22">
+        <v>0.66527777777777775</v>
+      </c>
+      <c r="G29" s="15">
+        <f t="shared" si="1"/>
+        <v>1741017480</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>28</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="24">
+        <v>45720</v>
+      </c>
+      <c r="F30" s="25">
+        <v>0.4375</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="1"/>
+        <v>1741084200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E31" s="24">
         <v>45720</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F31" s="25">
         <v>0.85</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G31" s="6">
         <f t="shared" si="1"/>
         <v>1741119839.9999998</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="18">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="18" t="s">
+    <row r="32" spans="1:7" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11">
+        <v>30</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E32" s="21">
         <v>45720</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F32" s="22">
         <v>0.70694444444444449</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G32" s="15">
         <f t="shared" si="1"/>
         <v>1741107479.9999998</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F31" s="27"/>
-      <c r="G31" s="26"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G33" s="6"/>
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23">
+        <v>31</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="24">
+        <v>45721</v>
+      </c>
+      <c r="F33" s="25">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="G33" s="29">
+        <f t="shared" si="1"/>
+        <v>1741188780.0000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="18">
+        <v>32</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="23">
+        <v>112358</v>
+      </c>
+      <c r="E34" s="24">
+        <v>45721</v>
+      </c>
+      <c r="F34" s="25">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G34" s="29">
+        <f t="shared" si="1"/>
+        <v>1741207680.0000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G35" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0F5123-DFF5-4297-AF53-617010703462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BDA956-4966-4711-9089-2D1899BD681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
   <si>
     <t>Action #</t>
   </si>
@@ -219,6 +219,51 @@
   </si>
   <si>
     <t>Jasmine Robertson-Zhou</t>
+  </si>
+  <si>
+    <t>Gurjas Dhanda</t>
+  </si>
+  <si>
+    <t>Milla Noriega</t>
+  </si>
+  <si>
+    <t>Ryan Cheng</t>
+  </si>
+  <si>
+    <t>EJ Galang</t>
+  </si>
+  <si>
+    <t>Makayla Papp</t>
+  </si>
+  <si>
+    <t>Joshua Daum</t>
+  </si>
+  <si>
+    <t>Armaani Kaila</t>
+  </si>
+  <si>
+    <t>Destiny Manzano</t>
+  </si>
+  <si>
+    <t>Bella Fuller</t>
+  </si>
+  <si>
+    <t>Tommy Vuong</t>
+  </si>
+  <si>
+    <t>Madeline Kim</t>
+  </si>
+  <si>
+    <t>Jaideep Nandha</t>
+  </si>
+  <si>
+    <t>Sophie Baker</t>
+  </si>
+  <si>
+    <t>Harnagad Sidhu</t>
+  </si>
+  <si>
+    <t>Xavier Smith</t>
   </si>
 </sst>
 </file>
@@ -229,7 +274,7 @@
     <numFmt numFmtId="164" formatCode="h:mm:ss\ \t\t"/>
     <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +294,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -258,7 +309,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -293,11 +344,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -327,9 +396,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -365,7 +431,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -386,8 +477,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G35" totalsRowShown="0">
-  <autoFilter ref="A1:G35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G44" totalsRowShown="0">
+  <autoFilter ref="A1:G44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
@@ -689,35 +780,36 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="18"/>
+    <col min="1" max="1" width="8.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6328125" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -734,7 +826,7 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="5">
@@ -744,19 +836,19 @@
       <c r="E2" s="10">
         <v>45711</v>
       </c>
-      <c r="F2" s="16">
-        <v>1.6152777777777778</v>
+      <c r="F2" s="15">
+        <v>0.61527777777777781</v>
       </c>
       <c r="G2" s="6">
-        <f t="shared" ref="G2:G27" si="0">((E2+F2)-DATE(1970,1,1))*86400</f>
-        <v>1740408359.9999998</v>
+        <f t="shared" ref="G2:G28" si="0">((E2+F2)-DATE(1970,1,1))*86400</f>
+        <v>1740321959.9999998</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -765,19 +857,19 @@
       <c r="E3" s="10">
         <v>45712</v>
       </c>
-      <c r="F3" s="16">
-        <v>1.4319444444444445</v>
+      <c r="F3" s="15">
+        <v>0.43194444444444446</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" si="0"/>
-        <v>1740478919.9999998</v>
+        <v>1740392519.9999998</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -789,19 +881,19 @@
       <c r="E4" s="10">
         <v>45712</v>
       </c>
-      <c r="F4" s="16">
-        <v>1.4375</v>
+      <c r="F4" s="15">
+        <v>0.4375</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="0"/>
-        <v>1740479400</v>
+        <v>1740393000</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -813,706 +905,940 @@
       <c r="E5" s="10">
         <v>45712</v>
       </c>
-      <c r="F5" s="16">
-        <v>1.4624999999999999</v>
+      <c r="F5" s="15">
+        <v>0.46250000000000002</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="0"/>
-        <v>1740481560.0000002</v>
+        <v>1740395160.0000002</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="10">
         <v>45712</v>
       </c>
-      <c r="F6" s="16">
-        <v>1.51875</v>
+      <c r="F6" s="15">
+        <v>0.51875000000000004</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
-        <v>1740486420.0000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
+        <v>1740400020.0000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>45712</v>
       </c>
-      <c r="F7" s="17">
-        <v>1.8777777777777778</v>
-      </c>
-      <c r="G7" s="15">
-        <f t="shared" si="0"/>
-        <v>1740517440.0000002</v>
+      <c r="F7" s="16">
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="0"/>
+        <v>1740431040.0000002</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="10">
         <v>45713</v>
       </c>
-      <c r="F8" s="16">
-        <v>1.4513888888888888</v>
+      <c r="F8" s="15">
+        <v>0.4513888888888889</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="0"/>
-        <v>1740567000.0000002</v>
+        <v>1740480600.0000002</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="10">
         <v>45713</v>
       </c>
-      <c r="F9" s="16">
-        <v>1.4631944444444445</v>
+      <c r="F9" s="15">
+        <v>0.46319444444444446</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="0"/>
-        <v>1740568019.9999998</v>
+        <v>1740481619.9999998</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="10">
         <v>45713</v>
       </c>
-      <c r="F10" s="16">
-        <v>1.5555555555555556</v>
+      <c r="F10" s="15">
+        <v>0.55555555555555558</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="0"/>
-        <v>1740576000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="13" t="s">
+        <v>1740489600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>45713</v>
       </c>
-      <c r="F11" s="17">
-        <v>1.7145833333333333</v>
-      </c>
-      <c r="G11" s="15">
-        <f t="shared" si="0"/>
-        <v>1740589740</v>
+      <c r="F11" s="16">
+        <v>0.71458333333333335</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="0"/>
+        <v>1740503340</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>26</v>
+        <v>64</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="E12" s="10">
         <v>45714</v>
       </c>
-      <c r="F12" s="16">
-        <v>1.4631944444444445</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="0"/>
-        <v>1740654419.9999998</v>
+      <c r="F12" s="15">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="0"/>
+        <v>1740566040.0000002</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="18" t="s">
         <v>25</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="E13" s="10">
         <v>45714</v>
       </c>
-      <c r="F13" s="16">
-        <v>1.46875</v>
+      <c r="F13" s="15">
+        <v>0.46319444444444446</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="0"/>
-        <v>1740654900</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="19">
+        <v>1740568019.9999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="B14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="10">
         <v>45714</v>
       </c>
-      <c r="F14" s="17">
-        <v>1.5166666666666666</v>
-      </c>
-      <c r="G14" s="15">
-        <f t="shared" si="0"/>
-        <v>1740659040.0000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="15">
+        <v>0.46875</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="0"/>
+        <v>1740568500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="10">
-        <v>45715</v>
+      <c r="B15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="13">
+        <v>45714</v>
       </c>
       <c r="F15" s="16">
-        <v>1.4583333333333333</v>
-      </c>
-      <c r="G15" s="6">
-        <f t="shared" si="0"/>
-        <v>1740740400.0000002</v>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="G15" s="14">
+        <f t="shared" si="0"/>
+        <v>1740572640.0000002</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="E16" s="10">
         <v>45715</v>
       </c>
-      <c r="F16" s="16">
-        <v>1.46875</v>
+      <c r="F16" s="15">
+        <v>0.45833333333333331</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="0"/>
-        <v>1740741300</v>
+        <v>1740654000.0000002</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="E17" s="10">
         <v>45715</v>
       </c>
-      <c r="F17" s="16">
-        <v>1.5</v>
+      <c r="F17" s="15">
+        <v>0.46875</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="0"/>
-        <v>1740744000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="19">
+        <v>1740654900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="14">
+      <c r="B18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="10">
         <v>45715</v>
       </c>
-      <c r="F18" s="17">
-        <v>1.5833333333333335</v>
-      </c>
-      <c r="G18" s="15">
-        <f t="shared" si="0"/>
-        <v>1740751200.0000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="0"/>
+        <v>1740657600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="10">
-        <v>45716</v>
+      <c r="B19" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="13">
+        <v>45715</v>
       </c>
       <c r="F19" s="16">
-        <v>1.4520833333333334</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" si="0"/>
-        <v>1740826259.9999998</v>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" si="0"/>
+        <v>1740664800.0000002</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="E20" s="10">
         <v>45716</v>
       </c>
-      <c r="F20" s="16">
-        <v>1.4520833333333334</v>
+      <c r="F20" s="15">
+        <v>0.45208333333333334</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="0"/>
-        <v>1740826259.9999998</v>
+        <v>1740739859.9999998</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="E21" s="10">
         <v>45716</v>
       </c>
-      <c r="F21" s="16">
-        <v>1.4527777777777777</v>
+      <c r="F21" s="15">
+        <v>0.45208333333333334</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="0"/>
-        <v>1740826320</v>
+        <v>1740739859.9999998</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="E22" s="10">
         <v>45716</v>
       </c>
-      <c r="F22" s="16">
-        <v>1.4805555555555556</v>
+      <c r="F22" s="15">
+        <v>0.45277777777777778</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="0"/>
-        <v>1740828720.0000002</v>
+        <v>1740739920</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="E23" s="10">
         <v>45716</v>
       </c>
-      <c r="F23" s="16">
-        <v>1.5715277777777779</v>
+      <c r="F23" s="15">
+        <v>0.48055555555555557</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="0"/>
-        <v>1740836580</v>
+        <v>1740742320.0000002</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="E24" s="10">
         <v>45716</v>
       </c>
-      <c r="F24" s="16">
-        <v>1.5993055555555555</v>
+      <c r="F24" s="15">
+        <v>0.57152777777777775</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="0"/>
-        <v>1740838980.0000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11">
+        <v>1740750180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="10">
+        <v>45716</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="0"/>
+        <v>1740752580.0000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="37" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="36">
+        <v>25</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D26" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E26" s="39">
         <v>45716</v>
       </c>
-      <c r="F25" s="17">
-        <v>1.4527777777777777</v>
-      </c>
-      <c r="G25" s="15">
-        <f t="shared" si="0"/>
-        <v>1740826320</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="24">
-        <v>45719</v>
-      </c>
-      <c r="F26" s="25">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="G26" s="6">
-        <f t="shared" si="0"/>
-        <v>1741044599.9999998</v>
+      <c r="F26" s="40">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="G26" s="41">
+        <f t="shared" si="0"/>
+        <v>1740739920</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>10</v>
+      <c r="B27" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="24">
+        <v>53</v>
+      </c>
+      <c r="E27" s="23">
         <v>45719</v>
       </c>
-      <c r="F27" s="25">
-        <v>0.47916666666666669</v>
+      <c r="F27" s="24">
+        <v>0.97916666666666663</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="0"/>
-        <v>1741001399.9999998</v>
+        <v>1741044599.9999998</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="23" t="s">
+      <c r="B28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="23">
+        <v>45719</v>
+      </c>
+      <c r="F28" s="24">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="0"/>
+        <v>1741001399.9999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E29" s="23">
         <v>45719</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F29" s="24">
         <v>0.52083333333333337</v>
       </c>
-      <c r="G28" s="6">
-        <f t="shared" ref="G28:G34" si="1">((E28+F28)-DATE(1970,1,1))*86400</f>
+      <c r="G29" s="6">
+        <f t="shared" ref="G29:G43" si="1">((E29+F29)-DATE(1970,1,1))*86400</f>
         <v>1741005000.0000002</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20">
-        <v>31</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="20" t="s">
+    <row r="30" spans="1:7" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E30" s="20">
         <v>45719</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F30" s="21">
         <v>0.66527777777777775</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G30" s="14">
         <f t="shared" si="1"/>
         <v>1741017480</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
-        <v>28</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="23" t="s">
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E31" s="23">
         <v>45720</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F31" s="24">
         <v>0.4375</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G31" s="6">
         <f t="shared" si="1"/>
         <v>1741084200</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
-        <v>29</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="23" t="s">
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D32" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E32" s="23">
         <v>45720</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F32" s="24">
         <v>0.85</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G32" s="6">
         <f t="shared" si="1"/>
         <v>1741119839.9999998</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="11">
-        <v>30</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="20" t="s">
+    <row r="33" spans="1:7" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D33" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E33" s="20">
         <v>45720</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F33" s="21">
         <v>0.70694444444444449</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G33" s="14">
         <f t="shared" si="1"/>
         <v>1741107479.9999998</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="23">
-        <v>31</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="23" t="s">
+    <row r="34" spans="1:7" s="28" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D34" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E34" s="33">
         <v>45721</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F34" s="34">
         <v>0.6479166666666667</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G34" s="35">
         <f t="shared" si="1"/>
         <v>1741188780.0000002</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="18">
-        <v>32</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="23">
-        <v>112358</v>
-      </c>
-      <c r="E34" s="24">
-        <v>45721</v>
-      </c>
-      <c r="F34" s="25">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="G34" s="29">
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="33">
+        <v>45722</v>
+      </c>
+      <c r="F35" s="34">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="G35" s="35">
         <f t="shared" si="1"/>
-        <v>1741207680.0000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G35" s="6"/>
+        <v>1741258020.0000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="23">
+        <v>45722</v>
+      </c>
+      <c r="F36" s="24">
+        <v>0.46041666666666664</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="1"/>
+        <v>1741258980.0000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="23">
+        <v>45722</v>
+      </c>
+      <c r="F37" s="24">
+        <v>0.46111111111111114</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="1"/>
+        <v>1741259039.9999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="23">
+        <v>45722</v>
+      </c>
+      <c r="F38" s="24">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="1"/>
+        <v>1741260840</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="23">
+        <v>45722</v>
+      </c>
+      <c r="F39" s="24">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="1"/>
+        <v>1741260720.0000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="23">
+        <v>45722</v>
+      </c>
+      <c r="F40" s="24">
+        <v>0.51458333333333328</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" ref="G40" si="2">((E40+F40)-DATE(1970,1,1))*86400</f>
+        <v>1741263659.9999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="23">
+        <v>45722</v>
+      </c>
+      <c r="F41" s="24">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="1"/>
+        <v>1741264259.9999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="23">
+        <v>45722</v>
+      </c>
+      <c r="F42" s="24">
+        <v>0.61875000000000002</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="1"/>
+        <v>1741272660.0000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="23">
+        <v>45722</v>
+      </c>
+      <c r="F43" s="24">
+        <v>0.68819444444444444</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="1"/>
+        <v>1741278660.0000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="18"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F45" s="24"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F46" s="24"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F47" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BDA956-4966-4711-9089-2D1899BD681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BE51C3-45C8-4275-9226-67A14965B6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="99">
   <si>
     <t>Action #</t>
   </si>
@@ -215,9 +215,6 @@
     <t>Alex Zhou</t>
   </si>
   <si>
-    <t>Sarmed Bek</t>
-  </si>
-  <si>
     <t>Jasmine Robertson-Zhou</t>
   </si>
   <si>
@@ -264,6 +261,75 @@
   </si>
   <si>
     <t>Xavier Smith</t>
+  </si>
+  <si>
+    <t>Ashli Cox</t>
+  </si>
+  <si>
+    <t>Marissa Lecian</t>
+  </si>
+  <si>
+    <t>Owen Bolenback</t>
+  </si>
+  <si>
+    <t>Tenel Enns</t>
+  </si>
+  <si>
+    <t>Carter Oakley</t>
+  </si>
+  <si>
+    <t>Avery Walshe</t>
+  </si>
+  <si>
+    <t>Alexei Lobaznyuk</t>
+  </si>
+  <si>
+    <t>Ciara Chapman</t>
+  </si>
+  <si>
+    <t>Hannah Dela Torre</t>
+  </si>
+  <si>
+    <t>Grace Simmons</t>
+  </si>
+  <si>
+    <t>Jaisha Malik</t>
+  </si>
+  <si>
+    <t>Makaylah Brathwaite</t>
+  </si>
+  <si>
+    <t>Hannah Fielder</t>
+  </si>
+  <si>
+    <t>Paula Jerusalem</t>
+  </si>
+  <si>
+    <t>Jide Lindsay</t>
+  </si>
+  <si>
+    <t>Alice Chen</t>
+  </si>
+  <si>
+    <t>Josie Soti</t>
+  </si>
+  <si>
+    <t>Alicia Paris</t>
+  </si>
+  <si>
+    <t>Sophia Fraser</t>
+  </si>
+  <si>
+    <t>Miguel Flores Salceda</t>
+  </si>
+  <si>
+    <t>Justin Tran</t>
+  </si>
+  <si>
+    <t>Ivanilson Lopes</t>
+  </si>
+  <si>
+    <t>Minh Triet Le</t>
   </si>
 </sst>
 </file>
@@ -366,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -415,9 +481,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -441,9 +504,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -477,8 +537,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G44" totalsRowShown="0">
-  <autoFilter ref="A1:G44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G61" totalsRowShown="0">
+  <autoFilter ref="A1:G61" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
@@ -780,21 +840,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="82" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.26953125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" style="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.6328125" style="17" customWidth="1"/>
     <col min="9" max="16384" width="8.7265625" style="17"/>
   </cols>
@@ -941,13 +1001,13 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="13">
@@ -1037,13 +1097,13 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="13">
@@ -1061,14 +1121,14 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>64</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>65</v>
       </c>
       <c r="E12" s="10">
         <v>45714</v>
@@ -1133,13 +1193,13 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="13">
@@ -1229,13 +1289,13 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="26" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="13">
@@ -1393,26 +1453,26 @@
         <v>1740752580.0000002</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="37" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="36">
+    <row r="26" spans="1:7" s="35" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="38" t="s">
+      <c r="B26" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="37">
         <v>45716</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="38">
         <v>0.45277777777777778</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26" s="39">
         <f t="shared" si="0"/>
         <v>1740739920</v>
       </c>
@@ -1427,10 +1487,10 @@
       <c r="C27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="22">
         <v>45719</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="23">
         <v>0.97916666666666663</v>
       </c>
       <c r="G27" s="6">
@@ -1451,10 +1511,10 @@
       <c r="D28" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="22">
         <v>45719</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="23">
         <v>0.47916666666666669</v>
       </c>
       <c r="G28" s="6">
@@ -1469,45 +1529,45 @@
       <c r="B29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>50</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="22">
         <v>45719</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="23">
         <v>0.52083333333333337</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" ref="G29:G43" si="1">((E29+F29)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G29:G61" si="1">((E29+F29)-DATE(1970,1,1))*86400</f>
         <v>1741005000.0000002</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="20">
-        <v>45719</v>
-      </c>
-      <c r="F30" s="21">
-        <v>0.66527777777777775</v>
-      </c>
-      <c r="G30" s="14">
-        <f t="shared" si="1"/>
-        <v>1741017480</v>
+      <c r="B30" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="22">
+        <v>45720</v>
+      </c>
+      <c r="F30" s="23">
+        <v>0.4375</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="1"/>
+        <v>1741084200</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1517,141 +1577,141 @@
       <c r="B31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="22" t="s">
-        <v>58</v>
+      <c r="C31" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="23">
+        <v>43</v>
+      </c>
+      <c r="E31" s="22">
         <v>45720</v>
       </c>
-      <c r="F31" s="24">
-        <v>0.4375</v>
+      <c r="F31" s="23">
+        <v>0.85</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" si="1"/>
-        <v>1741084200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1741119839.9999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="23">
+      <c r="B32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="19">
         <v>45720</v>
       </c>
-      <c r="F32" s="24">
-        <v>0.85</v>
-      </c>
-      <c r="G32" s="6">
-        <f t="shared" si="1"/>
-        <v>1741119839.9999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F32" s="20">
+        <v>0.70694444444444449</v>
+      </c>
+      <c r="G32" s="14">
+        <f t="shared" si="1"/>
+        <v>1741107479.9999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="20">
-        <v>45720</v>
-      </c>
-      <c r="F33" s="21">
-        <v>0.70694444444444449</v>
-      </c>
-      <c r="G33" s="14">
-        <f t="shared" si="1"/>
-        <v>1741107479.9999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="28" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="32">
+        <v>45721</v>
+      </c>
+      <c r="F33" s="33">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="G33" s="34">
+        <f t="shared" si="1"/>
+        <v>1741188780.0000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="33">
-        <v>45721</v>
-      </c>
-      <c r="F34" s="34">
-        <v>0.6479166666666667</v>
-      </c>
-      <c r="G34" s="35">
-        <f t="shared" si="1"/>
-        <v>1741188780.0000002</v>
+      <c r="B34" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="32">
+        <v>45722</v>
+      </c>
+      <c r="F34" s="33">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="G34" s="34">
+        <f t="shared" si="1"/>
+        <v>1741258020.0000002</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="33">
+      <c r="B35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="22">
         <v>45722</v>
       </c>
-      <c r="F35" s="34">
-        <v>0.44930555555555557</v>
-      </c>
-      <c r="G35" s="35">
-        <f t="shared" si="1"/>
-        <v>1741258020.0000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F35" s="23">
+        <v>0.46041666666666664</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="1"/>
+        <v>1741258980.0000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="22" t="s">
-        <v>30</v>
+      <c r="C36" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="22">
         <v>45722</v>
       </c>
-      <c r="F36" s="24">
-        <v>0.46041666666666664</v>
+      <c r="F36" s="23">
+        <v>0.46111111111111114</v>
       </c>
       <c r="G36" s="6">
         <f t="shared" si="1"/>
-        <v>1741258980.0000002</v>
+        <v>1741259039.9999998</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -1661,69 +1721,69 @@
       <c r="B37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>68</v>
+      <c r="C37" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="23">
+        <v>69</v>
+      </c>
+      <c r="E37" s="22">
         <v>45722</v>
       </c>
-      <c r="F37" s="24">
-        <v>0.46111111111111114</v>
+      <c r="F37" s="23">
+        <v>0.48194444444444445</v>
       </c>
       <c r="G37" s="6">
         <f t="shared" si="1"/>
-        <v>1741259039.9999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1741260840</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="17" t="s">
+      <c r="C38" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="23">
+      <c r="D38" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="22">
         <v>45722</v>
       </c>
-      <c r="F38" s="24">
-        <v>0.48194444444444445</v>
+      <c r="F38" s="23">
+        <v>0.48055555555555557</v>
       </c>
       <c r="G38" s="6">
         <f t="shared" si="1"/>
-        <v>1741260840</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1741260720.0000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>38</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="23">
+      <c r="C39" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="22">
         <v>45722</v>
       </c>
-      <c r="F39" s="24">
-        <v>0.48055555555555557</v>
+      <c r="F39" s="23">
+        <v>0.51458333333333328</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="1"/>
-        <v>1741260720.0000002</v>
+        <f t="shared" ref="G39" si="2">((E39+F39)-DATE(1970,1,1))*86400</f>
+        <v>1741263659.9999998</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -1733,21 +1793,21 @@
       <c r="B40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="22" t="s">
-        <v>68</v>
+      <c r="C40" s="21" t="s">
+        <v>65</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="23">
+        <v>66</v>
+      </c>
+      <c r="E40" s="22">
         <v>45722</v>
       </c>
-      <c r="F40" s="24">
-        <v>0.51458333333333328</v>
+      <c r="F40" s="23">
+        <v>0.52152777777777781</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" ref="G40" si="2">((E40+F40)-DATE(1970,1,1))*86400</f>
-        <v>1741263659.9999998</v>
+        <f t="shared" si="1"/>
+        <v>1741264259.9999998</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -1757,88 +1817,496 @@
       <c r="B41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="23">
+      <c r="C41" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="22">
         <v>45722</v>
       </c>
-      <c r="F41" s="24">
-        <v>0.52152777777777781</v>
+      <c r="F41" s="23">
+        <v>0.61875000000000002</v>
       </c>
       <c r="G41" s="6">
         <f t="shared" si="1"/>
-        <v>1741264259.9999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="7">
+        <v>1741272660.0000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C42" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="23">
+      <c r="D42" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="22">
         <v>45722</v>
       </c>
-      <c r="F42" s="24">
-        <v>0.61875000000000002</v>
+      <c r="F42" s="23">
+        <v>0.68819444444444444</v>
       </c>
       <c r="G42" s="6">
         <f t="shared" si="1"/>
-        <v>1741272660.0000002</v>
+        <v>1741278660.0000002</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="17" t="s">
+      <c r="B43" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="32">
+        <v>45723</v>
+      </c>
+      <c r="F43" s="33">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="G43" s="34">
+        <f t="shared" si="1"/>
+        <v>1741343159.9999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="22">
+        <v>45723</v>
+      </c>
+      <c r="F44" s="23">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="1"/>
+        <v>1741340459.9999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="22">
+        <v>45723</v>
+      </c>
+      <c r="F45" s="23">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" si="1"/>
+        <v>1741347120.0000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="22">
+        <v>45723</v>
+      </c>
+      <c r="F46" s="23">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="1"/>
+        <v>1741347120.0000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="22">
+        <v>45723</v>
+      </c>
+      <c r="F47" s="23">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" si="1"/>
+        <v>1741311180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="22">
+        <v>45723</v>
+      </c>
+      <c r="F48" s="23">
+        <v>0.15277777777777779</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" si="1"/>
+        <v>1741318800.0000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="22">
+        <v>45723</v>
+      </c>
+      <c r="F49" s="23">
+        <v>0.54652777777777772</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="1"/>
+        <v>1741352820</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="22">
+        <v>45723</v>
+      </c>
+      <c r="F50" s="23">
+        <v>0.54652777777777772</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" si="1"/>
+        <v>1741352820</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="22">
+        <v>45723</v>
+      </c>
+      <c r="F51" s="23">
+        <v>0.54097222222222219</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" si="1"/>
+        <v>1741352340.0000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="22">
+        <v>45723</v>
+      </c>
+      <c r="F52" s="23">
+        <v>0.51597222222222228</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" si="1"/>
+        <v>1741350180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="22">
+        <v>45723</v>
+      </c>
+      <c r="F53" s="23">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="1"/>
+        <v>1741348980</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="22">
+        <v>45723</v>
+      </c>
+      <c r="F54" s="23">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="G54" s="6">
+        <f t="shared" si="1"/>
+        <v>1741336379.9999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="E43" s="23">
-        <v>45722</v>
-      </c>
-      <c r="F43" s="24">
-        <v>0.68819444444444444</v>
-      </c>
-      <c r="G43" s="6">
-        <f t="shared" si="1"/>
-        <v>1741278660.0000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="18"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="14"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F45" s="24"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F46" s="24"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F47" s="24"/>
+      <c r="B55" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="22">
+        <v>45723</v>
+      </c>
+      <c r="F55" s="23">
+        <v>0.55138888888888893</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" si="1"/>
+        <v>1741353240</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="22">
+        <v>45723</v>
+      </c>
+      <c r="F56" s="23">
+        <v>0.80833333333333335</v>
+      </c>
+      <c r="G56" s="6">
+        <f t="shared" si="1"/>
+        <v>1741375440</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="22">
+        <v>45723</v>
+      </c>
+      <c r="F57" s="23">
+        <v>0.46944444444444444</v>
+      </c>
+      <c r="G57" s="6">
+        <f t="shared" si="1"/>
+        <v>1741346160.0000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" s="22">
+        <v>45723</v>
+      </c>
+      <c r="F58" s="23">
+        <v>0.52291666666666703</v>
+      </c>
+      <c r="G58" s="6">
+        <f t="shared" si="1"/>
+        <v>1741350780.0000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="22">
+        <v>45723</v>
+      </c>
+      <c r="F59" s="23">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="G59" s="6">
+        <f t="shared" si="1"/>
+        <v>1741350659.9999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" s="22">
+        <v>45723</v>
+      </c>
+      <c r="F60" s="23">
+        <v>0.49166666666666664</v>
+      </c>
+      <c r="G60" s="6">
+        <f t="shared" si="1"/>
+        <v>1741348080.0000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="21">
+        <v>69420</v>
+      </c>
+      <c r="E61" s="22">
+        <v>45725</v>
+      </c>
+      <c r="F61" s="23">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="G61" s="6">
+        <f t="shared" si="1"/>
+        <v>1741561200.0000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G62" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BE51C3-45C8-4275-9226-67A14965B6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDA48D0-10B8-4513-9A9A-2081E7625EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="109">
   <si>
     <t>Action #</t>
   </si>
@@ -330,6 +330,36 @@
   </si>
   <si>
     <t>Minh Triet Le</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag </t>
+  </si>
+  <si>
+    <t>Eliot Rogers</t>
+  </si>
+  <si>
+    <t>Alex Wates</t>
+  </si>
+  <si>
+    <t>Ethan Darby</t>
+  </si>
+  <si>
+    <t>Haley Jones</t>
+  </si>
+  <si>
+    <t>Rylee Mason</t>
+  </si>
+  <si>
+    <t>Alexis Pascual</t>
+  </si>
+  <si>
+    <t>Colton Plank</t>
+  </si>
+  <si>
+    <t>Markus Laureano</t>
+  </si>
+  <si>
+    <t>Damon Warwick</t>
   </si>
 </sst>
 </file>
@@ -537,8 +567,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G61" totalsRowShown="0">
-  <autoFilter ref="A1:G61" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G66" totalsRowShown="0">
+  <autoFilter ref="A1:G66" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
@@ -840,10 +870,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="82" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="82" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2301,12 +2331,123 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="G61" s="6">
-        <f t="shared" si="1"/>
+        <f>((E61+F61)-DATE(1970,1,1))*86400</f>
         <v>1741561200.0000002</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G62" s="6"/>
+      <c r="A62" s="21">
+        <v>61</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62" s="22">
+        <v>45723</v>
+      </c>
+      <c r="F62" s="24">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="G62" s="6">
+        <f t="shared" ref="G62:G66" si="3">((E62+F62)-DATE(1970,1,1))*86400</f>
+        <v>1741353480.0000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="21">
+        <v>62</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E63" s="22">
+        <v>45723</v>
+      </c>
+      <c r="F63" s="24">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="G63" s="6">
+        <f t="shared" si="3"/>
+        <v>1741353480.0000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" s="22">
+        <v>45726</v>
+      </c>
+      <c r="F64" s="24">
+        <v>0.39861111111111114</v>
+      </c>
+      <c r="G64" s="6">
+        <f t="shared" si="3"/>
+        <v>1741599239.9999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="7">
+        <v>64</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E65" s="22">
+        <v>45726</v>
+      </c>
+      <c r="F65" s="24">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="G65" s="6">
+        <f t="shared" si="3"/>
+        <v>1741598580</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C66" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" s="22">
+        <v>45726</v>
+      </c>
+      <c r="F66" s="24">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="G66" s="6">
+        <f t="shared" si="3"/>
+        <v>1741598820.0000002</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDA48D0-10B8-4513-9A9A-2081E7625EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4ED780-B614-4E14-987F-D381F740AA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="114">
   <si>
     <t>Action #</t>
   </si>
@@ -323,12 +323,6 @@
     <t>Miguel Flores Salceda</t>
   </si>
   <si>
-    <t>Justin Tran</t>
-  </si>
-  <si>
-    <t>Ivanilson Lopes</t>
-  </si>
-  <si>
     <t>Minh Triet Le</t>
   </si>
   <si>
@@ -360,6 +354,27 @@
   </si>
   <si>
     <t>Damon Warwick</t>
+  </si>
+  <si>
+    <t>Jared Mackie</t>
+  </si>
+  <si>
+    <t>Quinn Doiron</t>
+  </si>
+  <si>
+    <t>Olivia Osborne</t>
+  </si>
+  <si>
+    <t>Himmit Virk</t>
+  </si>
+  <si>
+    <t>Eric Mitchell</t>
+  </si>
+  <si>
+    <t>Harry Wheaton</t>
+  </si>
+  <si>
+    <t>Nate Hyland</t>
   </si>
 </sst>
 </file>
@@ -462,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -549,6 +564,7 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,8 +583,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G66" totalsRowShown="0">
-  <autoFilter ref="A1:G66" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G70" totalsRowShown="0">
+  <autoFilter ref="A1:G70" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
@@ -870,10 +886,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="82" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="82" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1572,7 +1588,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" ref="G29:G61" si="1">((E29+F29)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G29:G58" si="1">((E29+F29)-DATE(1970,1,1))*86400</f>
         <v>1741005000.0000002</v>
       </c>
     </row>
@@ -1962,491 +1978,596 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E46" s="22">
         <v>45723</v>
       </c>
       <c r="F46" s="23">
-        <v>0.48055555555555557</v>
+        <v>0.15277777777777779</v>
       </c>
       <c r="G46" s="6">
         <f t="shared" si="1"/>
-        <v>1741347120.0000002</v>
+        <v>1741318800.0000002</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E47" s="22">
         <v>45723</v>
       </c>
       <c r="F47" s="23">
-        <v>6.458333333333334E-2</v>
+        <v>0.54652777777777772</v>
       </c>
       <c r="G47" s="6">
         <f t="shared" si="1"/>
-        <v>1741311180</v>
+        <v>1741352820</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E48" s="22">
         <v>45723</v>
       </c>
       <c r="F48" s="23">
-        <v>0.15277777777777779</v>
+        <v>0.54652777777777772</v>
       </c>
       <c r="G48" s="6">
         <f t="shared" si="1"/>
-        <v>1741318800.0000002</v>
+        <v>1741352820</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E49" s="22">
         <v>45723</v>
       </c>
       <c r="F49" s="23">
-        <v>0.54652777777777772</v>
+        <v>0.54097222222222219</v>
       </c>
       <c r="G49" s="6">
         <f t="shared" si="1"/>
-        <v>1741352820</v>
+        <v>1741352340.0000002</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="E50" s="22">
         <v>45723</v>
       </c>
       <c r="F50" s="23">
-        <v>0.54652777777777772</v>
+        <v>0.51597222222222228</v>
       </c>
       <c r="G50" s="6">
         <f t="shared" si="1"/>
-        <v>1741352820</v>
+        <v>1741350180</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="21" t="s">
-        <v>30</v>
+      <c r="C51" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E51" s="22">
         <v>45723</v>
       </c>
       <c r="F51" s="23">
-        <v>0.54097222222222219</v>
+        <v>0.50208333333333333</v>
       </c>
       <c r="G51" s="6">
         <f t="shared" si="1"/>
-        <v>1741352340.0000002</v>
+        <v>1741348980</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="21" t="s">
-        <v>86</v>
+      <c r="C52" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E52" s="22">
         <v>45723</v>
       </c>
       <c r="F52" s="23">
-        <v>0.51597222222222228</v>
+        <v>0.35625000000000001</v>
       </c>
       <c r="G52" s="6">
         <f t="shared" si="1"/>
-        <v>1741350180</v>
+        <v>1741336379.9999998</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="7">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="17" t="s">
-        <v>89</v>
+      <c r="C53" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E53" s="22">
         <v>45723</v>
       </c>
       <c r="F53" s="23">
-        <v>0.50208333333333333</v>
+        <v>0.55138888888888893</v>
       </c>
       <c r="G53" s="6">
         <f t="shared" si="1"/>
-        <v>1741348980</v>
+        <v>1741353240</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
+        <v>55</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="17" t="s">
         <v>53</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>91</v>
       </c>
       <c r="E54" s="22">
         <v>45723</v>
       </c>
       <c r="F54" s="23">
-        <v>0.35625000000000001</v>
+        <v>0.80833333333333335</v>
       </c>
       <c r="G54" s="6">
         <f t="shared" si="1"/>
-        <v>1741336379.9999998</v>
+        <v>1741375440</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E55" s="22">
         <v>45723</v>
       </c>
       <c r="F55" s="23">
-        <v>0.55138888888888893</v>
+        <v>0.46944444444444444</v>
       </c>
       <c r="G55" s="6">
         <f t="shared" si="1"/>
-        <v>1741353240</v>
+        <v>1741346160.0000002</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>53</v>
+        <v>94</v>
+      </c>
+      <c r="D56" t="s">
+        <v>93</v>
       </c>
       <c r="E56" s="22">
         <v>45723</v>
       </c>
       <c r="F56" s="23">
-        <v>0.80833333333333335</v>
+        <v>0.52291666666666703</v>
       </c>
       <c r="G56" s="6">
         <f t="shared" si="1"/>
-        <v>1741375440</v>
+        <v>1741350780.0000002</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="7">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>95</v>
+      <c r="C57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" t="s">
+        <v>66</v>
       </c>
       <c r="E57" s="22">
         <v>45723</v>
       </c>
       <c r="F57" s="23">
-        <v>0.46944444444444444</v>
+        <v>0.52152777777777781</v>
       </c>
       <c r="G57" s="6">
         <f t="shared" si="1"/>
-        <v>1741346160.0000002</v>
+        <v>1741350659.9999998</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="21" t="s">
-        <v>94</v>
+      <c r="C58" t="s">
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E58" s="22">
         <v>45723</v>
       </c>
       <c r="F58" s="23">
-        <v>0.52291666666666703</v>
+        <v>0.49166666666666664</v>
       </c>
       <c r="G58" s="6">
         <f t="shared" si="1"/>
-        <v>1741350780.0000002</v>
+        <v>1741348080.0000002</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="7">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" t="s">
-        <v>66</v>
+        <v>7</v>
+      </c>
+      <c r="C59" s="21">
+        <v>69420</v>
       </c>
       <c r="E59" s="22">
-        <v>45723</v>
+        <v>45725</v>
       </c>
       <c r="F59" s="23">
-        <v>0.52152777777777781</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="G59" s="6">
-        <f t="shared" si="1"/>
-        <v>1741350659.9999998</v>
+        <f>((E59+F59)-DATE(1970,1,1))*86400</f>
+        <v>1741561200.0000002</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="5">
-        <v>59</v>
+      <c r="A60" s="21">
+        <v>61</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="17" t="s">
         <v>98</v>
       </c>
       <c r="E60" s="22">
         <v>45723</v>
       </c>
-      <c r="F60" s="23">
-        <v>0.49166666666666664</v>
+      <c r="F60" s="40">
+        <v>0.5541666666666667</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" si="1"/>
-        <v>1741348080.0000002</v>
+        <f t="shared" ref="G60:G70" si="3">((E60+F60)-DATE(1970,1,1))*86400</f>
+        <v>1741353480.0000002</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="7">
-        <v>60</v>
+      <c r="A61" s="21">
+        <v>62</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="21">
-        <v>69420</v>
+        <v>10</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>100</v>
       </c>
       <c r="E61" s="22">
-        <v>45725</v>
-      </c>
-      <c r="F61" s="23">
-        <v>0.95833333333333337</v>
+        <v>45723</v>
+      </c>
+      <c r="F61" s="40">
+        <v>0.5541666666666667</v>
       </c>
       <c r="G61" s="6">
-        <f>((E61+F61)-DATE(1970,1,1))*86400</f>
-        <v>1741561200.0000002</v>
+        <f t="shared" si="3"/>
+        <v>1741353480.0000002</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="21">
-        <v>61</v>
+      <c r="A62" s="5">
+        <v>63</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="D62" t="s">
+        <v>102</v>
       </c>
       <c r="E62" s="22">
-        <v>45723</v>
-      </c>
-      <c r="F62" s="24">
-        <v>0.5541666666666667</v>
+        <v>45726</v>
+      </c>
+      <c r="F62" s="40">
+        <v>0.39861111111111114</v>
       </c>
       <c r="G62" s="6">
-        <f t="shared" ref="G62:G66" si="3">((E62+F62)-DATE(1970,1,1))*86400</f>
-        <v>1741353480.0000002</v>
+        <f t="shared" si="3"/>
+        <v>1741599239.9999998</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="21">
-        <v>62</v>
+      <c r="A63" s="7">
+        <v>64</v>
       </c>
       <c r="B63" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="21" t="s">
-        <v>101</v>
+      <c r="C63" t="s">
+        <v>103</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E63" s="22">
-        <v>45723</v>
-      </c>
-      <c r="F63" s="24">
-        <v>0.5541666666666667</v>
+        <v>45726</v>
+      </c>
+      <c r="F63" s="40">
+        <v>0.39097222222222222</v>
       </c>
       <c r="G63" s="6">
         <f t="shared" si="3"/>
-        <v>1741353480.0000002</v>
+        <v>1741598580</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="21" t="s">
-        <v>103</v>
+      <c r="C64" t="s">
+        <v>105</v>
       </c>
       <c r="D64" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" s="22">
         <v>45726</v>
       </c>
-      <c r="F64" s="24">
-        <v>0.39861111111111114</v>
+      <c r="F64" s="40">
+        <v>0.39374999999999999</v>
       </c>
       <c r="G64" s="6">
         <f t="shared" si="3"/>
-        <v>1741599239.9999998</v>
+        <v>1741598820.0000002</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="7">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C65" t="s">
-        <v>105</v>
+      <c r="C65" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E65" s="22">
-        <v>45726</v>
-      </c>
-      <c r="F65" s="24">
-        <v>0.39097222222222222</v>
+        <v>45723</v>
+      </c>
+      <c r="F65" s="40">
+        <v>0.60347222222222219</v>
       </c>
       <c r="G65" s="6">
         <f t="shared" si="3"/>
-        <v>1741598580</v>
+        <v>1741357740.0000002</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C66" t="s">
-        <v>107</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="A66" s="5">
+        <v>67</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="21" t="s">
         <v>108</v>
       </c>
+      <c r="D66" s="17" t="s">
+        <v>109</v>
+      </c>
       <c r="E66" s="22">
-        <v>45726</v>
-      </c>
-      <c r="F66" s="24">
-        <v>0.39374999999999999</v>
+        <v>45727</v>
+      </c>
+      <c r="F66" s="40">
+        <v>0.5</v>
       </c>
       <c r="G66" s="6">
         <f t="shared" si="3"/>
-        <v>1741598820.0000002</v>
+        <v>1741694400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="7">
+        <v>68</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="22">
+        <v>45727</v>
+      </c>
+      <c r="F67" s="40">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="G67" s="6">
+        <f t="shared" si="3"/>
+        <v>1741702439.9999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="7">
+        <v>69</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" s="22">
+        <v>45723</v>
+      </c>
+      <c r="F68" s="40">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="G68" s="6">
+        <f t="shared" si="3"/>
+        <v>1741311180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
+        <v>70</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E69" s="22">
+        <v>45726</v>
+      </c>
+      <c r="F69" s="40">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="G69" s="6">
+        <f t="shared" si="3"/>
+        <v>1741574700.0000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
+        <v>71</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E70" s="22">
+        <v>45727</v>
+      </c>
+      <c r="F70" s="40">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="G70" s="6">
+        <f t="shared" si="3"/>
+        <v>1741688519.9999998</v>
       </c>
     </row>
   </sheetData>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4ED780-B614-4E14-987F-D381F740AA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9546CED7-4C76-4B5B-86CD-4BF7B514DB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="115">
   <si>
     <t>Action #</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>Nate Hyland</t>
+  </si>
+  <si>
+    <t>William Pham</t>
   </si>
 </sst>
 </file>
@@ -888,8 +891,8 @@
   </sheetPr>
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="82" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="82" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1588,7 +1591,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" ref="G29:G58" si="1">((E29+F29)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G29:G57" si="1">((E29+F29)-DATE(1970,1,1))*86400</f>
         <v>1741005000.0000002</v>
       </c>
     </row>
@@ -2241,86 +2244,86 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="7">
-        <v>58</v>
+      <c r="A57" s="5">
+        <v>59</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="E57" s="22">
         <v>45723</v>
       </c>
       <c r="F57" s="23">
-        <v>0.52152777777777781</v>
+        <v>0.49166666666666664</v>
       </c>
       <c r="G57" s="6">
         <f t="shared" si="1"/>
-        <v>1741350659.9999998</v>
+        <v>1741348080.0000002</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="5">
-        <v>59</v>
+      <c r="A58" s="7">
+        <v>60</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" t="s">
-        <v>96</v>
+        <v>7</v>
+      </c>
+      <c r="C58" s="21">
+        <v>69420</v>
       </c>
       <c r="E58" s="22">
+        <v>45725</v>
+      </c>
+      <c r="F58" s="23">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="G58" s="6">
+        <f>((E58+F58)-DATE(1970,1,1))*86400</f>
+        <v>1741561200.0000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="21">
+        <v>61</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" s="22">
         <v>45723</v>
       </c>
-      <c r="F58" s="23">
-        <v>0.49166666666666664</v>
-      </c>
-      <c r="G58" s="6">
-        <f t="shared" si="1"/>
-        <v>1741348080.0000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="7">
-        <v>60</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="21">
-        <v>69420</v>
-      </c>
-      <c r="E59" s="22">
-        <v>45725</v>
-      </c>
-      <c r="F59" s="23">
-        <v>0.95833333333333337</v>
+      <c r="F59" s="40">
+        <v>0.5541666666666667</v>
       </c>
       <c r="G59" s="6">
-        <f>((E59+F59)-DATE(1970,1,1))*86400</f>
-        <v>1741561200.0000002</v>
+        <f t="shared" ref="G59:G70" si="3">((E59+F59)-DATE(1970,1,1))*86400</f>
+        <v>1741353480.0000002</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="21">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E60" s="22">
         <v>45723</v>
@@ -2329,245 +2332,245 @@
         <v>0.5541666666666667</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" ref="G60:G70" si="3">((E60+F60)-DATE(1970,1,1))*86400</f>
+        <f t="shared" si="3"/>
         <v>1741353480.0000002</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="21">
-        <v>62</v>
+      <c r="A61" s="5">
+        <v>63</v>
       </c>
       <c r="B61" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="D61" t="s">
+        <v>102</v>
       </c>
       <c r="E61" s="22">
-        <v>45723</v>
+        <v>45726</v>
       </c>
       <c r="F61" s="40">
-        <v>0.5541666666666667</v>
+        <v>0.39861111111111114</v>
       </c>
       <c r="G61" s="6">
         <f t="shared" si="3"/>
-        <v>1741353480.0000002</v>
+        <v>1741599239.9999998</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="5">
-        <v>63</v>
+      <c r="A62" s="7">
+        <v>64</v>
       </c>
       <c r="B62" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D62" t="s">
-        <v>102</v>
+      <c r="C62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="E62" s="22">
         <v>45726</v>
       </c>
       <c r="F62" s="40">
-        <v>0.39861111111111114</v>
+        <v>0.39097222222222222</v>
       </c>
       <c r="G62" s="6">
         <f t="shared" si="3"/>
-        <v>1741599239.9999998</v>
+        <v>1741598580</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="7">
-        <v>64</v>
+      <c r="A63" s="5">
+        <v>65</v>
       </c>
       <c r="B63" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="D63" t="s">
+        <v>106</v>
       </c>
       <c r="E63" s="22">
         <v>45726</v>
       </c>
       <c r="F63" s="40">
-        <v>0.39097222222222222</v>
+        <v>0.39374999999999999</v>
       </c>
       <c r="G63" s="6">
         <f t="shared" si="3"/>
-        <v>1741598580</v>
+        <v>1741598820.0000002</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="5">
-        <v>65</v>
+      <c r="A64" s="7">
+        <v>66</v>
       </c>
       <c r="B64" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C64" t="s">
-        <v>105</v>
-      </c>
-      <c r="D64" t="s">
-        <v>106</v>
+      <c r="C64" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="E64" s="22">
-        <v>45726</v>
+        <v>45723</v>
       </c>
       <c r="F64" s="40">
-        <v>0.39374999999999999</v>
+        <v>0.60347222222222219</v>
       </c>
       <c r="G64" s="6">
         <f t="shared" si="3"/>
-        <v>1741598820.0000002</v>
+        <v>1741357740.0000002</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="7">
-        <v>66</v>
+      <c r="A65" s="5">
+        <v>67</v>
       </c>
       <c r="B65" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E65" s="22">
-        <v>45723</v>
+        <v>45727</v>
       </c>
       <c r="F65" s="40">
-        <v>0.60347222222222219</v>
+        <v>0.5</v>
       </c>
       <c r="G65" s="6">
         <f t="shared" si="3"/>
-        <v>1741357740.0000002</v>
+        <v>1741694400</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="5">
-        <v>67</v>
+      <c r="A66" s="7">
+        <v>68</v>
       </c>
       <c r="B66" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="E66" s="22">
         <v>45727</v>
       </c>
       <c r="F66" s="40">
-        <v>0.5</v>
+        <v>0.59305555555555556</v>
       </c>
       <c r="G66" s="6">
         <f t="shared" si="3"/>
-        <v>1741694400</v>
+        <v>1741702439.9999998</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="7">
-        <v>68</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="E67" s="22">
-        <v>45727</v>
+        <v>45723</v>
       </c>
       <c r="F67" s="40">
-        <v>0.59305555555555556</v>
+        <v>6.458333333333334E-2</v>
       </c>
       <c r="G67" s="6">
         <f t="shared" si="3"/>
-        <v>1741702439.9999998</v>
+        <v>1741311180</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="7">
-        <v>69</v>
+      <c r="A68" s="5">
+        <v>70</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="E68" s="22">
-        <v>45723</v>
+        <v>45726</v>
       </c>
       <c r="F68" s="40">
-        <v>6.458333333333334E-2</v>
+        <v>0.11458333333333333</v>
       </c>
       <c r="G68" s="6">
         <f t="shared" si="3"/>
-        <v>1741311180</v>
+        <v>1741574700.0000002</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B69" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E69" s="22">
-        <v>45726</v>
+        <v>45727</v>
       </c>
       <c r="F69" s="40">
-        <v>0.11458333333333333</v>
+        <v>0.43194444444444446</v>
       </c>
       <c r="G69" s="6">
         <f t="shared" si="3"/>
-        <v>1741574700.0000002</v>
+        <v>1741688519.9999998</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B70" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E70" s="22">
         <v>45727</v>
       </c>
-      <c r="F70" s="40">
-        <v>0.43194444444444446</v>
+      <c r="F70" s="24">
+        <v>0.47222222222222221</v>
       </c>
       <c r="G70" s="6">
         <f t="shared" si="3"/>
-        <v>1741688519.9999998</v>
+        <v>1741691999.9999998</v>
       </c>
     </row>
   </sheetData>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9546CED7-4C76-4B5B-86CD-4BF7B514DB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55C957C-6796-46FF-A2AB-3312F8A2A0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="126">
   <si>
     <t>Action #</t>
   </si>
@@ -378,6 +378,39 @@
   </si>
   <si>
     <t>William Pham</t>
+  </si>
+  <si>
+    <t>Keira Kelly</t>
+  </si>
+  <si>
+    <t>Tin Nguyen</t>
+  </si>
+  <si>
+    <t>Caydence Burrows</t>
+  </si>
+  <si>
+    <t>Oliver Laporte</t>
+  </si>
+  <si>
+    <t>Adam Bennett</t>
+  </si>
+  <si>
+    <t>Ryan So</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Noah Nhuk Som</t>
+  </si>
+  <si>
+    <t>Sarmed Bek</t>
+  </si>
+  <si>
+    <t>Negative Point</t>
+  </si>
+  <si>
+    <t>Arissa Chowdhury</t>
   </si>
 </sst>
 </file>
@@ -586,8 +619,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G70" totalsRowShown="0">
-  <autoFilter ref="A1:G70" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G78" totalsRowShown="0">
+  <autoFilter ref="A1:G78" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
@@ -889,10 +922,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="82" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2308,7 +2341,7 @@
         <v>0.5541666666666667</v>
       </c>
       <c r="G59" s="6">
-        <f t="shared" ref="G59:G70" si="3">((E59+F59)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G59:G76" si="3">((E59+F59)-DATE(1970,1,1))*86400</f>
         <v>1741353480.0000002</v>
       </c>
     </row>
@@ -2484,6 +2517,9 @@
       <c r="A67" s="7">
         <v>69</v>
       </c>
+      <c r="B67" s="17" t="s">
+        <v>10</v>
+      </c>
       <c r="C67" s="21" t="s">
         <v>28</v>
       </c>
@@ -2566,11 +2602,180 @@
         <v>45727</v>
       </c>
       <c r="F70" s="24">
-        <v>0.47222222222222221</v>
+        <v>0.5</v>
       </c>
       <c r="G70" s="6">
         <f t="shared" si="3"/>
-        <v>1741691999.9999998</v>
+        <v>1741694400</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="21">
+        <v>73</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E71" s="22">
+        <v>45728</v>
+      </c>
+      <c r="F71" s="24">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="G71" s="6">
+        <f t="shared" si="3"/>
+        <v>1741775100.0000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>74</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E72" s="22">
+        <v>45730</v>
+      </c>
+      <c r="F72" s="24">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="G72" s="6">
+        <f t="shared" si="3"/>
+        <v>1741940580.0000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="21">
+        <v>75</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" s="22">
+        <v>45729</v>
+      </c>
+      <c r="F73" s="24">
+        <v>0.29791666666666666</v>
+      </c>
+      <c r="G73" s="6">
+        <f t="shared" si="3"/>
+        <v>1741849740.0000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
+        <v>76</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E74" s="22">
+        <v>45735</v>
+      </c>
+      <c r="F74" s="24">
+        <v>0.19305555555555556</v>
+      </c>
+      <c r="G74" s="6">
+        <f t="shared" si="3"/>
+        <v>1742359080.0000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="21">
+        <v>77</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E75" s="22">
+        <v>45747</v>
+      </c>
+      <c r="F75" s="24">
+        <v>0.54652777777777772</v>
+      </c>
+      <c r="G75" s="6">
+        <f t="shared" si="3"/>
+        <v>1743426420</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>78</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D76" t="s">
+        <v>122</v>
+      </c>
+      <c r="E76" s="22">
+        <v>45748</v>
+      </c>
+      <c r="F76" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G76" s="6">
+        <f t="shared" si="3"/>
+        <v>1743508800</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="21">
+        <v>79</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G77" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="21">
+        <v>80</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55C957C-6796-46FF-A2AB-3312F8A2A0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51577E98-3FA4-432B-969E-712FB514B573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="132">
   <si>
     <t>Action #</t>
   </si>
@@ -411,6 +411,24 @@
   </si>
   <si>
     <t>Arissa Chowdhury</t>
+  </si>
+  <si>
+    <t>Liam Quan</t>
+  </si>
+  <si>
+    <t>Eshaan Bali</t>
+  </si>
+  <si>
+    <t>Navleen Purewal</t>
+  </si>
+  <si>
+    <t>Jesse McCreath</t>
+  </si>
+  <si>
+    <t>Orget Murati</t>
+  </si>
+  <si>
+    <t>Jakob Teichrieb</t>
   </si>
 </sst>
 </file>
@@ -513,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -601,6 +619,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,8 +638,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G78" totalsRowShown="0">
-  <autoFilter ref="A1:G78" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G82" totalsRowShown="0">
+  <autoFilter ref="A1:G82" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
@@ -922,10 +941,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="82" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="111" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2778,6 +2797,102 @@
         <v>122</v>
       </c>
     </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="21">
+        <v>81</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
+        <v>130</v>
+      </c>
+      <c r="E79" s="22">
+        <v>45749</v>
+      </c>
+      <c r="F79" s="24">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="G79" s="6">
+        <f t="shared" ref="G79:G82" si="4">((E79+F79)-DATE(1970,1,1))*86400</f>
+        <v>1743560399.9999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="21">
+        <v>81</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D80" t="s">
+        <v>129</v>
+      </c>
+      <c r="E80" s="41">
+        <v>45750</v>
+      </c>
+      <c r="F80" s="24">
+        <v>0.40416666666666667</v>
+      </c>
+      <c r="G80" s="6">
+        <f t="shared" si="4"/>
+        <v>1743673320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="21">
+        <v>82</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>67</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E81" s="22">
+        <v>45749</v>
+      </c>
+      <c r="F81" s="24">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="G81" s="6">
+        <f t="shared" si="4"/>
+        <v>1743589919.9999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="21">
+        <v>83</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E82" s="22">
+        <v>45751</v>
+      </c>
+      <c r="F82" s="24">
+        <v>0.60138888888888886</v>
+      </c>
+      <c r="G82" s="6">
+        <f t="shared" si="4"/>
+        <v>1743776760.0000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51577E98-3FA4-432B-969E-712FB514B573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86A03E3-F88A-4C7C-85EB-213DCDF4E330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="133">
   <si>
     <t>Action #</t>
   </si>
@@ -326,9 +326,6 @@
     <t>Minh Triet Le</t>
   </si>
   <si>
-    <t xml:space="preserve">Tag </t>
-  </si>
-  <si>
     <t>Eliot Rogers</t>
   </si>
   <si>
@@ -429,6 +426,12 @@
   </si>
   <si>
     <t>Jakob Teichrieb</t>
+  </si>
+  <si>
+    <t>Fatima Hassan</t>
+  </si>
+  <si>
+    <t>Sean Kerbrat</t>
   </si>
 </sst>
 </file>
@@ -638,8 +641,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G82" totalsRowShown="0">
-  <autoFilter ref="A1:G82" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G87" totalsRowShown="0">
+  <autoFilter ref="A1:G87" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
@@ -941,10 +944,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="111" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="111" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2345,23 +2348,23 @@
         <v>61</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="C59" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E59" s="22">
         <v>45723</v>
       </c>
       <c r="F59" s="40">
-        <v>0.5541666666666667</v>
+        <v>0.55347222222222225</v>
       </c>
       <c r="G59" s="6">
         <f t="shared" ref="G59:G76" si="3">((E59+F59)-DATE(1970,1,1))*86400</f>
-        <v>1741353480.0000002</v>
+        <v>1741353420</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -2372,10 +2375,10 @@
         <v>10</v>
       </c>
       <c r="C60" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="17" t="s">
         <v>99</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>100</v>
       </c>
       <c r="E60" s="22">
         <v>45723</v>
@@ -2396,10 +2399,10 @@
         <v>10</v>
       </c>
       <c r="C61" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" t="s">
         <v>101</v>
-      </c>
-      <c r="D61" t="s">
-        <v>102</v>
       </c>
       <c r="E61" s="22">
         <v>45726</v>
@@ -2420,10 +2423,10 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="17" t="s">
         <v>103</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>104</v>
       </c>
       <c r="E62" s="22">
         <v>45726</v>
@@ -2444,10 +2447,10 @@
         <v>10</v>
       </c>
       <c r="C63" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" t="s">
         <v>105</v>
-      </c>
-      <c r="D63" t="s">
-        <v>106</v>
       </c>
       <c r="E63" s="22">
         <v>45726</v>
@@ -2468,10 +2471,10 @@
         <v>10</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E64" s="22">
         <v>45723</v>
@@ -2492,10 +2495,10 @@
         <v>10</v>
       </c>
       <c r="C65" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>109</v>
       </c>
       <c r="E65" s="22">
         <v>45727</v>
@@ -2516,7 +2519,7 @@
         <v>10</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D66" s="17" t="s">
         <v>21</v>
@@ -2564,10 +2567,10 @@
         <v>10</v>
       </c>
       <c r="C68" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D68" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>111</v>
       </c>
       <c r="E68" s="22">
         <v>45726</v>
@@ -2591,7 +2594,7 @@
         <v>65</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E69" s="22">
         <v>45727</v>
@@ -2612,10 +2615,10 @@
         <v>10</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E70" s="22">
         <v>45727</v>
@@ -2636,10 +2639,10 @@
         <v>10</v>
       </c>
       <c r="C71" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D71" s="17" t="s">
         <v>115</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>116</v>
       </c>
       <c r="E71" s="22">
         <v>45728</v>
@@ -2663,7 +2666,7 @@
         <v>13</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E72" s="22">
         <v>45730</v>
@@ -2708,10 +2711,10 @@
         <v>10</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E74" s="22">
         <v>45735</v>
@@ -2732,10 +2735,10 @@
         <v>10</v>
       </c>
       <c r="C75" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D75" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>120</v>
       </c>
       <c r="E75" s="22">
         <v>45747</v>
@@ -2756,10 +2759,10 @@
         <v>10</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E76" s="22">
         <v>45748</v>
@@ -2777,10 +2780,10 @@
         <v>79</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G77" s="25">
         <v>0</v>
@@ -2791,10 +2794,10 @@
         <v>80</v>
       </c>
       <c r="B78" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" t="s">
         <v>121</v>
-      </c>
-      <c r="C78" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -2808,7 +2811,7 @@
         <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E79" s="22">
         <v>45749</v>
@@ -2817,7 +2820,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
       <c r="G79" s="6">
-        <f t="shared" ref="G79:G82" si="4">((E79+F79)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G79:G83" si="4">((E79+F79)-DATE(1970,1,1))*86400</f>
         <v>1743560399.9999998</v>
       </c>
     </row>
@@ -2829,10 +2832,10 @@
         <v>10</v>
       </c>
       <c r="C80" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D80" t="s">
         <v>128</v>
-      </c>
-      <c r="D80" t="s">
-        <v>129</v>
       </c>
       <c r="E80" s="41">
         <v>45750</v>
@@ -2856,7 +2859,7 @@
         <v>67</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E81" s="22">
         <v>45749</v>
@@ -2877,10 +2880,10 @@
         <v>10</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E82" s="22">
         <v>45751</v>
@@ -2891,6 +2894,113 @@
       <c r="G82" s="6">
         <f t="shared" si="4"/>
         <v>1743776760.0000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="21">
+        <v>84</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E83" s="22">
+        <v>45753</v>
+      </c>
+      <c r="F83" s="24">
+        <v>0.38124999999999998</v>
+      </c>
+      <c r="G83" s="6">
+        <f t="shared" si="4"/>
+        <v>1743930539.9999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>78</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D84" t="s">
+        <v>132</v>
+      </c>
+      <c r="E84" s="22">
+        <v>45748</v>
+      </c>
+      <c r="F84" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G84" s="6">
+        <f t="shared" ref="G84" si="5">((E84+F84)-DATE(1970,1,1))*86400</f>
+        <v>1743508800</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="21">
+        <v>79</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="G85" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="21">
+        <v>80</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="22">
+        <v>45727</v>
+      </c>
+      <c r="F86" s="24">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="G86" s="6">
+        <f t="shared" ref="G86:G87" si="6">((E86+F86)-DATE(1970,1,1))*86400</f>
+        <v>1741690259.9999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="21">
+        <v>85</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="21">
+        <v>628318530718</v>
+      </c>
+      <c r="E87" s="22">
+        <v>45753</v>
+      </c>
+      <c r="F87" s="24">
+        <v>0.38124999999999998</v>
+      </c>
+      <c r="G87" s="6">
+        <f t="shared" si="6"/>
+        <v>1743930539.9999998</v>
       </c>
     </row>
   </sheetData>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86A03E3-F88A-4C7C-85EB-213DCDF4E330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4CA378-A0E2-49EC-9B35-61DD65A8AC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="143">
   <si>
     <t>Action #</t>
   </si>
@@ -432,6 +432,36 @@
   </si>
   <si>
     <t>Sean Kerbrat</t>
+  </si>
+  <si>
+    <t>Daniel Park</t>
+  </si>
+  <si>
+    <t>Maisie St James</t>
+  </si>
+  <si>
+    <t>Ted Harrison</t>
+  </si>
+  <si>
+    <t>Anuree Johnston</t>
+  </si>
+  <si>
+    <t>Jocelyn Roberts</t>
+  </si>
+  <si>
+    <t>Analisa Festing</t>
+  </si>
+  <si>
+    <t>Samantha Crowder</t>
+  </si>
+  <si>
+    <t>Paris Pitt</t>
+  </si>
+  <si>
+    <t>Samantha Rego</t>
+  </si>
+  <si>
+    <t>Justin Tran</t>
   </si>
 </sst>
 </file>
@@ -641,8 +671,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G87" totalsRowShown="0">
-  <autoFilter ref="A1:G87" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G98" totalsRowShown="0">
+  <autoFilter ref="A1:G98" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
@@ -944,10 +974,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="111" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="111" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2786,11 +2816,12 @@
         <v>122</v>
       </c>
       <c r="G77" s="25">
-        <v>0</v>
+        <f>H77-1</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="21">
+      <c r="A78" s="5">
         <v>80</v>
       </c>
       <c r="B78" s="17" t="s">
@@ -2825,8 +2856,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="21">
-        <v>81</v>
+      <c r="A80" s="5">
+        <v>82</v>
       </c>
       <c r="B80" s="17" t="s">
         <v>10</v>
@@ -2850,7 +2881,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="21">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B81" s="17" t="s">
         <v>10</v>
@@ -2873,8 +2904,8 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="21">
-        <v>83</v>
+      <c r="A82" s="5">
+        <v>84</v>
       </c>
       <c r="B82" s="17" t="s">
         <v>10</v>
@@ -2898,7 +2929,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="21">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B83" s="17" t="s">
         <v>10</v>
@@ -2922,7 +2953,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>10</v>
@@ -2946,7 +2977,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="21">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B85" s="17" t="s">
         <v>123</v>
@@ -2955,12 +2986,12 @@
         <v>122</v>
       </c>
       <c r="G85" s="25">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="21">
-        <v>80</v>
+      <c r="A86" s="5">
+        <v>88</v>
       </c>
       <c r="B86" s="17" t="s">
         <v>10</v>
@@ -2978,13 +3009,13 @@
         <v>0.45208333333333334</v>
       </c>
       <c r="G86" s="6">
-        <f t="shared" ref="G86:G87" si="6">((E86+F86)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G86:G98" si="6">((E86+F86)-DATE(1970,1,1))*86400</f>
         <v>1741690259.9999998</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="21">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B87" s="17" t="s">
         <v>7</v>
@@ -3001,6 +3032,270 @@
       <c r="G87" s="6">
         <f t="shared" si="6"/>
         <v>1743930539.9999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
+        <v>90</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E88" s="22">
+        <v>45754</v>
+      </c>
+      <c r="F88" s="24">
+        <v>0.46388888888888891</v>
+      </c>
+      <c r="G88" s="6">
+        <f t="shared" si="6"/>
+        <v>1744024080</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="21">
+        <v>91</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E89" s="22">
+        <v>45754</v>
+      </c>
+      <c r="F89" s="24">
+        <v>0.46388888888888891</v>
+      </c>
+      <c r="G89" s="6">
+        <f t="shared" si="6"/>
+        <v>1744024080</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>92</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E90" s="22">
+        <v>45754</v>
+      </c>
+      <c r="F90" s="24">
+        <v>0.49791666666666667</v>
+      </c>
+      <c r="G90" s="6">
+        <f t="shared" si="6"/>
+        <v>1744027020</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="21">
+        <v>93</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E91" s="22">
+        <v>45754</v>
+      </c>
+      <c r="F91" s="24">
+        <v>0.49027777777777776</v>
+      </c>
+      <c r="G91" s="6">
+        <f t="shared" si="6"/>
+        <v>1744026359.9999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>94</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E92" s="22">
+        <v>45754</v>
+      </c>
+      <c r="F92" s="24">
+        <v>0.47361111111111109</v>
+      </c>
+      <c r="G92" s="6">
+        <f t="shared" si="6"/>
+        <v>1744024920</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="21">
+        <v>95</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E93" s="22">
+        <v>45754</v>
+      </c>
+      <c r="F93" s="24">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="G93" s="6">
+        <f t="shared" si="6"/>
+        <v>1744023479.9999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
+        <v>96</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E94" s="22">
+        <v>45754</v>
+      </c>
+      <c r="F94" s="24">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="G94" s="6">
+        <f t="shared" si="6"/>
+        <v>1744023000.0000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="21">
+        <v>97</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E95" s="22">
+        <v>45754</v>
+      </c>
+      <c r="F95" s="24">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="G95" s="6">
+        <f t="shared" si="6"/>
+        <v>1744018500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
+        <v>98</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E96" s="22">
+        <v>45754</v>
+      </c>
+      <c r="F96" s="24">
+        <v>0.39652777777777776</v>
+      </c>
+      <c r="G96" s="6">
+        <f t="shared" si="6"/>
+        <v>1744018259.9999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="21">
+        <v>99</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E97" s="22">
+        <v>45754</v>
+      </c>
+      <c r="F97" s="24">
+        <v>0.39652777777777776</v>
+      </c>
+      <c r="G97" s="6">
+        <f t="shared" si="6"/>
+        <v>1744018259.9999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="21">
+        <v>100</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E98" s="22">
+        <v>45754</v>
+      </c>
+      <c r="F98" s="24">
+        <v>1.5972222222222221E-2</v>
+      </c>
+      <c r="G98" s="6">
+        <f t="shared" si="6"/>
+        <v>1743985380</v>
       </c>
     </row>
   </sheetData>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4CA378-A0E2-49EC-9B35-61DD65A8AC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628579F5-B80C-4D9A-B4CF-F1BA224E083B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="145">
   <si>
     <t>Action #</t>
   </si>
@@ -462,6 +462,12 @@
   </si>
   <si>
     <t>Justin Tran</t>
+  </si>
+  <si>
+    <t>Mya Wiggins</t>
+  </si>
+  <si>
+    <t>Ellie Milligan</t>
   </si>
 </sst>
 </file>
@@ -671,8 +677,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G98" totalsRowShown="0">
-  <autoFilter ref="A1:G98" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G110" totalsRowShown="0">
+  <autoFilter ref="A1:G110" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
@@ -974,10 +980,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="111" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="111" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3009,7 +3015,7 @@
         <v>0.45208333333333334</v>
       </c>
       <c r="G86" s="6">
-        <f t="shared" ref="G86:G98" si="6">((E86+F86)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G86:G100" si="6">((E86+F86)-DATE(1970,1,1))*86400</f>
         <v>1741690259.9999998</v>
       </c>
     </row>
@@ -3296,6 +3302,54 @@
       <c r="G98" s="6">
         <f t="shared" si="6"/>
         <v>1743985380</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="21">
+        <v>101</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E99" s="22">
+        <v>45755</v>
+      </c>
+      <c r="F99" s="24">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="G99" s="6">
+        <f t="shared" si="6"/>
+        <v>1744112340.0000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="21">
+        <v>102</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E100" s="22">
+        <v>45756</v>
+      </c>
+      <c r="F100" s="24">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="G100" s="6">
+        <f t="shared" si="6"/>
+        <v>1744196760.0000002</v>
       </c>
     </row>
   </sheetData>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628579F5-B80C-4D9A-B4CF-F1BA224E083B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1403BD84-7ECD-4FF3-9F7C-4D500F9FE102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="146">
   <si>
     <t>Action #</t>
   </si>
@@ -468,6 +468,9 @@
   </si>
   <si>
     <t>Ellie Milligan</t>
+  </si>
+  <si>
+    <t>Connor Scott</t>
   </si>
 </sst>
 </file>
@@ -980,10 +983,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="111" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="111" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3015,7 +3018,7 @@
         <v>0.45208333333333334</v>
       </c>
       <c r="G86" s="6">
-        <f t="shared" ref="G86:G100" si="6">((E86+F86)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G86:G101" si="6">((E86+F86)-DATE(1970,1,1))*86400</f>
         <v>1741690259.9999998</v>
       </c>
     </row>
@@ -3318,14 +3321,14 @@
         <v>143</v>
       </c>
       <c r="E99" s="22">
-        <v>45755</v>
+        <v>45754</v>
       </c>
       <c r="F99" s="24">
         <v>0.48541666666666666</v>
       </c>
       <c r="G99" s="6">
         <f t="shared" si="6"/>
-        <v>1744112340.0000002</v>
+        <v>1744025940.0000002</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -3342,14 +3345,38 @@
         <v>144</v>
       </c>
       <c r="E100" s="22">
-        <v>45756</v>
+        <v>45754</v>
       </c>
       <c r="F100" s="24">
         <v>0.46250000000000002</v>
       </c>
       <c r="G100" s="6">
         <f t="shared" si="6"/>
-        <v>1744196760.0000002</v>
+        <v>1744023960.0000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="21">
+        <v>103</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E101" s="22">
+        <v>45754</v>
+      </c>
+      <c r="F101" s="24">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G101" s="6">
+        <f t="shared" si="6"/>
+        <v>1744023600.0000002</v>
       </c>
     </row>
   </sheetData>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1403BD84-7ECD-4FF3-9F7C-4D500F9FE102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A9CB31-307A-4E6F-95D9-29259EB72C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="165">
   <si>
     <t>Action #</t>
   </si>
@@ -437,40 +437,97 @@
     <t>Daniel Park</t>
   </si>
   <si>
+    <t>Ted Harrison</t>
+  </si>
+  <si>
+    <t>Anuree Johnston</t>
+  </si>
+  <si>
+    <t>Jocelyn Roberts</t>
+  </si>
+  <si>
+    <t>Analisa Festing</t>
+  </si>
+  <si>
+    <t>Samantha Crowder</t>
+  </si>
+  <si>
+    <t>Paris Pitt</t>
+  </si>
+  <si>
+    <t>Samantha Rego</t>
+  </si>
+  <si>
+    <t>Justin Tran</t>
+  </si>
+  <si>
+    <t>Mya Wiggins</t>
+  </si>
+  <si>
+    <t>Ellie Milligan</t>
+  </si>
+  <si>
+    <t>Connor Scott</t>
+  </si>
+  <si>
+    <t>Joanna Perreault</t>
+  </si>
+  <si>
+    <t>Amaan Ali</t>
+  </si>
+  <si>
+    <t>Josh Harris</t>
+  </si>
+  <si>
+    <t>Margeret Sanchez</t>
+  </si>
+  <si>
+    <t>Braelyn Patterson</t>
+  </si>
+  <si>
+    <t>Therese Nguyen</t>
+  </si>
+  <si>
+    <t>Nadine Fernandes</t>
+  </si>
+  <si>
+    <t>Jason Puchniak</t>
+  </si>
+  <si>
+    <t>Johnny Xing</t>
+  </si>
+  <si>
+    <t>Kyleigh Pope</t>
+  </si>
+  <si>
+    <t>Akshaj Arora</t>
+  </si>
+  <si>
+    <t>Devon Martinez</t>
+  </si>
+  <si>
+    <t>Bhargavi Aggarwal</t>
+  </si>
+  <si>
+    <t>Dylan Patrick</t>
+  </si>
+  <si>
+    <t>Aayan Chowdhury</t>
+  </si>
+  <si>
+    <t>Parinoor Bal</t>
+  </si>
+  <si>
+    <t>Sydney Marshall</t>
+  </si>
+  <si>
     <t>Maisie St James</t>
   </si>
   <si>
-    <t>Ted Harrison</t>
-  </si>
-  <si>
-    <t>Anuree Johnston</t>
-  </si>
-  <si>
-    <t>Jocelyn Roberts</t>
-  </si>
-  <si>
-    <t>Analisa Festing</t>
-  </si>
-  <si>
-    <t>Samantha Crowder</t>
-  </si>
-  <si>
-    <t>Paris Pitt</t>
-  </si>
-  <si>
-    <t>Samantha Rego</t>
-  </si>
-  <si>
-    <t>Justin Tran</t>
-  </si>
-  <si>
-    <t>Mya Wiggins</t>
-  </si>
-  <si>
-    <t>Ellie Milligan</t>
-  </si>
-  <si>
-    <t>Connor Scott</t>
+    <t>Sadie Swinimer</t>
+  </si>
+  <si>
+    <t>Lucia Bayne</t>
   </si>
 </sst>
 </file>
@@ -573,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -662,6 +719,7 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,8 +738,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G110" totalsRowShown="0">
-  <autoFilter ref="A1:G110" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G118" totalsRowShown="0">
+  <autoFilter ref="A1:G118" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
@@ -983,10 +1041,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="111" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:B101"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="111" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2913,7 +2971,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="5">
+      <c r="A82" s="21">
         <v>84</v>
       </c>
       <c r="B82" s="17" t="s">
@@ -2937,7 +2995,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="21">
+      <c r="A83" s="5">
         <v>85</v>
       </c>
       <c r="B83" s="17" t="s">
@@ -2961,7 +3019,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="5">
+      <c r="A84" s="21">
         <v>86</v>
       </c>
       <c r="B84" s="17" t="s">
@@ -3018,7 +3076,7 @@
         <v>0.45208333333333334</v>
       </c>
       <c r="G86" s="6">
-        <f t="shared" ref="G86:G101" si="6">((E86+F86)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G86:G118" si="6">((E86+F86)-DATE(1970,1,1))*86400</f>
         <v>1741690259.9999998</v>
       </c>
     </row>
@@ -3044,7 +3102,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="5">
+      <c r="A88" s="21">
         <v>90</v>
       </c>
       <c r="B88" s="17" t="s">
@@ -3068,7 +3126,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="21">
+      <c r="A89" s="5">
         <v>91</v>
       </c>
       <c r="B89" s="17" t="s">
@@ -3092,7 +3150,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="5">
+      <c r="A90" s="21">
         <v>92</v>
       </c>
       <c r="B90" s="17" t="s">
@@ -3126,7 +3184,7 @@
         <v>133</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="E91" s="22">
         <v>45754</v>
@@ -3147,7 +3205,7 @@
         <v>10</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D92" s="17" t="s">
         <v>84</v>
@@ -3188,7 +3246,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="5">
+      <c r="A94" s="21">
         <v>96</v>
       </c>
       <c r="B94" s="17" t="s">
@@ -3198,7 +3256,7 @@
         <v>45</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E94" s="22">
         <v>45754</v>
@@ -3212,17 +3270,17 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="21">
+      <c r="A95" s="5">
         <v>97</v>
       </c>
       <c r="B95" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C95" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D95" s="17" t="s">
         <v>137</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>138</v>
       </c>
       <c r="E95" s="22">
         <v>45754</v>
@@ -3236,14 +3294,14 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="5">
+      <c r="A96" s="21">
         <v>98</v>
       </c>
       <c r="B96" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D96" s="21" t="s">
         <v>102</v>
@@ -3270,7 +3328,7 @@
         <v>13</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E97" s="22">
         <v>45754</v>
@@ -3284,17 +3342,17 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="21">
+      <c r="A98" s="5">
         <v>100</v>
       </c>
       <c r="B98" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C98" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D98" s="17" t="s">
         <v>141</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>142</v>
       </c>
       <c r="E98" s="22">
         <v>45754</v>
@@ -3318,7 +3376,7 @@
         <v>34</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E99" s="22">
         <v>45754</v>
@@ -3342,7 +3400,7 @@
         <v>100</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E100" s="22">
         <v>45754</v>
@@ -3356,27 +3414,435 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="21">
+      <c r="A101" s="5">
         <v>103</v>
       </c>
       <c r="B101" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="E101" s="22">
         <v>45754</v>
       </c>
       <c r="F101" s="24">
-        <v>0.45833333333333331</v>
+        <v>0.4597222222222222</v>
       </c>
       <c r="G101" s="6">
         <f t="shared" si="6"/>
+        <v>1744023720</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="21">
+        <v>104</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E102" s="19">
+        <v>45754</v>
+      </c>
+      <c r="F102" s="42">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G102" s="6">
+        <f t="shared" si="6"/>
         <v>1744023600.0000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="21">
+        <v>105</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="22">
+        <v>45755</v>
+      </c>
+      <c r="F103" s="24">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="G103" s="34">
+        <f t="shared" si="6"/>
+        <v>1744114740</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="5">
+        <v>106</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E104" s="22">
+        <v>45755</v>
+      </c>
+      <c r="F104" s="24">
+        <v>0.67291666666666672</v>
+      </c>
+      <c r="G104" s="6">
+        <f t="shared" si="6"/>
+        <v>1744128540.0000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="21">
+        <v>107</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="22">
+        <v>45755</v>
+      </c>
+      <c r="F105" s="24">
+        <v>0.64513888888888893</v>
+      </c>
+      <c r="G105" s="6">
+        <f t="shared" si="6"/>
+        <v>1744126140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="21">
+        <v>108</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D106" t="s">
+        <v>148</v>
+      </c>
+      <c r="E106" s="22">
+        <v>45755</v>
+      </c>
+      <c r="F106" s="24">
+        <v>0.52013888888888893</v>
+      </c>
+      <c r="G106" s="6">
+        <f t="shared" si="6"/>
+        <v>1744115340</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="5">
+        <v>109</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" t="s">
+        <v>149</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E107" s="22">
+        <v>45755</v>
+      </c>
+      <c r="F107" s="24">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G107" s="6">
+        <f t="shared" si="6"/>
+        <v>1744117199.9999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="21">
+        <v>110</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E108" s="22">
+        <v>45755</v>
+      </c>
+      <c r="F108" s="24">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="G108" s="6">
+        <f t="shared" si="6"/>
+        <v>1744112100.0000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="21">
+        <v>111</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E109" s="22">
+        <v>45755</v>
+      </c>
+      <c r="F109" s="24">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="G109" s="6">
+        <f t="shared" si="6"/>
+        <v>1744121100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="5">
+        <v>112</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E110" s="22">
+        <v>45755</v>
+      </c>
+      <c r="F110" s="24">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="G110" s="6">
+        <f t="shared" si="6"/>
+        <v>1744122840</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="18">
+        <v>113</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E111" s="19">
+        <v>45755</v>
+      </c>
+      <c r="F111" s="42">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="G111" s="14">
+        <f t="shared" si="6"/>
+        <v>1744116780.0000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="21">
+        <v>114</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D112" t="s">
+        <v>52</v>
+      </c>
+      <c r="E112" s="22">
+        <v>45756</v>
+      </c>
+      <c r="F112" s="24">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="G112" s="6">
+        <f t="shared" si="6"/>
+        <v>1744201679.9999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="21">
+        <v>115</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D113" t="s">
+        <v>157</v>
+      </c>
+      <c r="E113" s="22">
+        <v>45756</v>
+      </c>
+      <c r="F113" s="24">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="G113" s="6">
+        <f t="shared" si="6"/>
+        <v>1744204379.9999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="21">
+        <v>116</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" t="s">
+        <v>104</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E114" s="22">
+        <v>45756</v>
+      </c>
+      <c r="F114" s="24">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="G114" s="6">
+        <f t="shared" si="6"/>
+        <v>1744205580</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="21">
+        <v>117</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D115" t="s">
+        <v>164</v>
+      </c>
+      <c r="E115" s="22">
+        <v>45756</v>
+      </c>
+      <c r="F115" s="24">
+        <v>0.47083333333333333</v>
+      </c>
+      <c r="G115" s="6">
+        <f t="shared" si="6"/>
+        <v>1744197480</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="21">
+        <v>118</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E116" s="22">
+        <v>45756</v>
+      </c>
+      <c r="F116" s="24">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="G116" s="6">
+        <f t="shared" si="6"/>
+        <v>1744206840.0000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="21">
+        <v>119</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" t="s">
+        <v>159</v>
+      </c>
+      <c r="D117" t="s">
+        <v>136</v>
+      </c>
+      <c r="E117" s="22">
+        <v>45756</v>
+      </c>
+      <c r="F117" s="24">
+        <v>0.46041666666666664</v>
+      </c>
+      <c r="G117" s="6">
+        <f t="shared" si="6"/>
+        <v>1744196580.0000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="21">
+        <v>120</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E118" s="22">
+        <v>45756</v>
+      </c>
+      <c r="F118" s="24">
+        <v>0.10555555555555556</v>
+      </c>
+      <c r="G118" s="6">
+        <f t="shared" si="6"/>
+        <v>1744165920.0000002</v>
       </c>
     </row>
   </sheetData>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A9CB31-307A-4E6F-95D9-29259EB72C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7A4782-6F9A-4A90-ADB5-F306041B7D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="174">
   <si>
     <t>Action #</t>
   </si>
@@ -528,6 +528,33 @@
   </si>
   <si>
     <t>Lucia Bayne</t>
+  </si>
+  <si>
+    <t>Eugune Lee</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Harrison Bartley</t>
+  </si>
+  <si>
+    <t>Wyatt Weir</t>
+  </si>
+  <si>
+    <t>Noelani Alegado</t>
+  </si>
+  <si>
+    <t>Carmella Dares</t>
+  </si>
+  <si>
+    <t>Carter Kons</t>
+  </si>
+  <si>
+    <t>Mia Ewasiuk</t>
+  </si>
+  <si>
+    <t>Ivanilson Lopes</t>
   </si>
 </sst>
 </file>
@@ -538,7 +565,7 @@
     <numFmt numFmtId="164" formatCode="h:mm:ss\ \t\t"/>
     <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,6 +590,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -630,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -720,6 +753,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,9 +772,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G118" totalsRowShown="0">
-  <autoFilter ref="A1:G118" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H128" totalsRowShown="0">
+  <autoFilter ref="A1:H128" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Para1"/>
@@ -748,6 +782,7 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Time"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Unix"/>
+    <tableColumn id="8" xr3:uid="{0F4BEB32-5145-4AB0-AD04-70A9B133DB45}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1041,10 +1076,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="111" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="111" workbookViewId="0">
+      <selection activeCell="G126" sqref="G126:G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1060,7 +1095,7 @@
     <col min="9" max="16384" width="8.7265625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,8 +1117,11 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1105,7 +1143,7 @@
         <v>1740321959.9999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1126,7 +1164,7 @@
         <v>1740392519.9999998</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1150,7 +1188,7 @@
         <v>1740393000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1174,7 +1212,7 @@
         <v>1740395160.0000002</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1198,7 +1236,7 @@
         <v>1740400020.0000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1222,7 +1260,7 @@
         <v>1740431040.0000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1246,7 +1284,7 @@
         <v>1740480600.0000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1270,7 +1308,7 @@
         <v>1740481619.9999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1294,7 +1332,7 @@
         <v>1740489600</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1318,7 +1356,7 @@
         <v>1740503340</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1342,7 +1380,7 @@
         <v>1740566040.0000002</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1366,7 +1404,7 @@
         <v>1740568019.9999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1390,7 +1428,7 @@
         <v>1740568500</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1414,7 +1452,7 @@
         <v>1740572640.0000002</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -3076,7 +3114,7 @@
         <v>0.45208333333333334</v>
       </c>
       <c r="G86" s="6">
-        <f t="shared" ref="G86:G118" si="6">((E86+F86)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G86:G128" si="6">((E86+F86)-DATE(1970,1,1))*86400</f>
         <v>1741690259.9999998</v>
       </c>
     </row>
@@ -3843,6 +3881,246 @@
       <c r="G118" s="6">
         <f t="shared" si="6"/>
         <v>1744165920.0000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="21">
+        <v>121</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E119" s="22">
+        <v>45757</v>
+      </c>
+      <c r="F119" s="24">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="G119" s="6">
+        <f t="shared" si="6"/>
+        <v>1744315560.0000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="21">
+        <v>122</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E120" s="22">
+        <v>45757</v>
+      </c>
+      <c r="F120" s="24">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="G120" s="6">
+        <f t="shared" si="6"/>
+        <v>1744290359.9999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="21">
+        <v>123</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E121" s="22">
+        <v>45728</v>
+      </c>
+      <c r="F121" s="24">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="G121" s="6">
+        <f t="shared" si="6"/>
+        <v>1741771560</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="21">
+        <v>124</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E122" s="22">
+        <v>45758</v>
+      </c>
+      <c r="F122" s="24">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="G122" s="6">
+        <f t="shared" si="6"/>
+        <v>1744378620</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="21">
+        <v>125</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E123" s="22">
+        <v>45758</v>
+      </c>
+      <c r="F123" s="24">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="G123" s="6">
+        <f t="shared" si="6"/>
+        <v>1744376640</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="21">
+        <v>126</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E124" s="22">
+        <v>45758</v>
+      </c>
+      <c r="F124" s="24">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="G124" s="6">
+        <f t="shared" si="6"/>
+        <v>1744380239.9999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="21">
+        <v>127</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E125" s="22">
+        <v>45757</v>
+      </c>
+      <c r="F125" s="24">
+        <v>0.46111111111111114</v>
+      </c>
+      <c r="G125" s="6">
+        <f t="shared" si="6"/>
+        <v>1744283039.9999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="21">
+        <v>128</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" t="s">
+        <v>41</v>
+      </c>
+      <c r="D126" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126" s="22">
+        <v>45756</v>
+      </c>
+      <c r="F126" s="24">
+        <v>0.49652777777777779</v>
+      </c>
+      <c r="G126" s="6">
+        <f t="shared" si="6"/>
+        <v>1744199700.0000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="21">
+        <v>129</v>
+      </c>
+      <c r="B127" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E127" s="22">
+        <v>45756</v>
+      </c>
+      <c r="F127" s="24">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="G127" s="6">
+        <f t="shared" si="6"/>
+        <v>1744204379.9999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="21">
+        <v>130</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E128" s="22">
+        <v>45758</v>
+      </c>
+      <c r="F128" s="24">
+        <v>0.87361111111111112</v>
+      </c>
+      <c r="G128" s="6">
+        <f t="shared" si="6"/>
+        <v>1744405080.0000002</v>
       </c>
     </row>
   </sheetData>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7A4782-6F9A-4A90-ADB5-F306041B7D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1589AFF1-46F6-4E45-A948-40C783E80FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,9 +530,6 @@
     <t>Lucia Bayne</t>
   </si>
   <si>
-    <t>Eugune Lee</t>
-  </si>
-  <si>
     <t>Column1</t>
   </si>
   <si>
@@ -555,6 +552,9 @@
   </si>
   <si>
     <t>Ivanilson Lopes</t>
+  </si>
+  <si>
+    <t>Eugene Lee</t>
   </si>
 </sst>
 </file>
@@ -1078,8 +1078,8 @@
   </sheetPr>
   <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="111" workbookViewId="0">
-      <selection activeCell="G126" sqref="G126:G128"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="111" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1118,7 +1118,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3894,7 +3894,7 @@
         <v>127</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E119" s="22">
         <v>45757</v>
@@ -3915,10 +3915,10 @@
         <v>10</v>
       </c>
       <c r="C120" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="D120" s="17" t="s">
         <v>167</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>168</v>
       </c>
       <c r="E120" s="22">
         <v>45757</v>
@@ -3942,7 +3942,7 @@
         <v>39</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E121" s="22">
         <v>45728</v>
@@ -3966,7 +3966,7 @@
         <v>133</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E122" s="22">
         <v>45758</v>
@@ -3990,7 +3990,7 @@
         <v>15</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E123" s="22">
         <v>45758</v>
@@ -4107,10 +4107,10 @@
         <v>10</v>
       </c>
       <c r="C128" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D128" s="17" t="s">
         <v>172</v>
-      </c>
-      <c r="D128" s="17" t="s">
-        <v>173</v>
       </c>
       <c r="E128" s="22">
         <v>45758</v>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1589AFF1-46F6-4E45-A948-40C783E80FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EAF26E-F473-42F8-8645-7A27FC797A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A111" zoomScale="111" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EAF26E-F473-42F8-8645-7A27FC797A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE832E13-FB53-4210-9C63-063A3456E36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="180">
   <si>
     <t>Action #</t>
   </si>
@@ -555,6 +555,24 @@
   </si>
   <si>
     <t>Eugene Lee</t>
+  </si>
+  <si>
+    <t>Evan Subbings</t>
+  </si>
+  <si>
+    <t>Simran Rayat</t>
+  </si>
+  <si>
+    <t>Keira Watkins</t>
+  </si>
+  <si>
+    <t>Caleb Crooks</t>
+  </si>
+  <si>
+    <t>Jino Yoon</t>
+  </si>
+  <si>
+    <t>Ayaan Chowdhury</t>
   </si>
 </sst>
 </file>
@@ -772,8 +790,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H128" totalsRowShown="0">
-  <autoFilter ref="A1:H128" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H142" totalsRowShown="0">
+  <autoFilter ref="A1:H142" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
@@ -1076,10 +1094,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="111" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="111" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3114,7 +3132,7 @@
         <v>0.45208333333333334</v>
       </c>
       <c r="G86" s="6">
-        <f t="shared" ref="G86:G128" si="6">((E86+F86)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G86:G140" si="6">((E86+F86)-DATE(1970,1,1))*86400</f>
         <v>1741690259.9999998</v>
       </c>
     </row>
@@ -4122,6 +4140,297 @@
         <f t="shared" si="6"/>
         <v>1744405080.0000002</v>
       </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="21">
+        <v>131</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E129" s="22">
+        <v>45762</v>
+      </c>
+      <c r="F129" s="24">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G129" s="6">
+        <f t="shared" si="6"/>
+        <v>1744703279.9999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="21">
+        <v>132</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E130" s="22">
+        <v>45758</v>
+      </c>
+      <c r="F130" s="24">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="G130" s="6">
+        <f t="shared" si="6"/>
+        <v>1744381799.9999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="21">
+        <v>133</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E131" s="22">
+        <v>45763</v>
+      </c>
+      <c r="F131" s="24">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="G131" s="6">
+        <f t="shared" si="6"/>
+        <v>1744799040</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="21">
+        <v>134</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E132" s="22">
+        <v>45763</v>
+      </c>
+      <c r="F132" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="G132" s="6">
+        <f t="shared" si="6"/>
+        <v>1744815600</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="21">
+        <v>135</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E133" s="22">
+        <v>45762</v>
+      </c>
+      <c r="F133" s="24">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="G133" s="6">
+        <f t="shared" si="6"/>
+        <v>1744716959.9999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="21">
+        <v>136</v>
+      </c>
+      <c r="B134" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D134" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E134" s="22">
+        <v>45764</v>
+      </c>
+      <c r="F134" s="24">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G134" s="6">
+        <f t="shared" si="6"/>
+        <v>1744893000.0000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="21">
+        <v>137</v>
+      </c>
+      <c r="B135" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E135" s="22">
+        <v>45764</v>
+      </c>
+      <c r="F135" s="24">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="G135" s="6">
+        <f t="shared" si="6"/>
+        <v>1744881840.0000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="21">
+        <v>138</v>
+      </c>
+      <c r="B136" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E136" s="22">
+        <v>45758</v>
+      </c>
+      <c r="F136" s="24">
+        <v>0.46388888888888891</v>
+      </c>
+      <c r="G136" s="6">
+        <f t="shared" si="6"/>
+        <v>1744369680</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" s="21">
+        <v>139</v>
+      </c>
+      <c r="B137" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E137" s="22">
+        <v>45769</v>
+      </c>
+      <c r="F137" s="24">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="G137" s="6">
+        <f t="shared" si="6"/>
+        <v>1745313960</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" s="21">
+        <v>140</v>
+      </c>
+      <c r="B138" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E138" s="22">
+        <v>45769</v>
+      </c>
+      <c r="F138" s="24">
+        <v>0.59444444444444444</v>
+      </c>
+      <c r="G138" s="6">
+        <f t="shared" si="6"/>
+        <v>1745331360.0000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" s="21">
+        <v>141</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E139" s="22">
+        <v>45769</v>
+      </c>
+      <c r="F139" s="24">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="G139" s="6">
+        <f t="shared" si="6"/>
+        <v>1745314020.0000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" s="21">
+        <v>142</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E140" s="22">
+        <v>45770</v>
+      </c>
+      <c r="F140" s="24">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="G140" s="6">
+        <f t="shared" si="6"/>
+        <v>1745411040.0000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C142" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE832E13-FB53-4210-9C63-063A3456E36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985A7C8B-909B-4E5A-A911-44B1EE72ADBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="178">
   <si>
     <t>Action #</t>
   </si>
@@ -557,9 +557,6 @@
     <t>Eugene Lee</t>
   </si>
   <si>
-    <t>Evan Subbings</t>
-  </si>
-  <si>
     <t>Simran Rayat</t>
   </si>
   <si>
@@ -570,9 +567,6 @@
   </si>
   <si>
     <t>Jino Yoon</t>
-  </si>
-  <si>
-    <t>Ayaan Chowdhury</t>
   </si>
 </sst>
 </file>
@@ -1096,8 +1090,8 @@
   </sheetPr>
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="111" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="111" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4152,7 +4146,7 @@
         <v>67</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="E129" s="22">
         <v>45762</v>
@@ -4176,7 +4170,7 @@
         <v>147</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E130" s="22">
         <v>45758</v>
@@ -4269,7 +4263,7 @@
         <v>10</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D134" s="21" t="s">
         <v>160</v>
@@ -4296,7 +4290,7 @@
         <v>147</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E135" s="22">
         <v>45764</v>
@@ -4344,7 +4338,7 @@
         <v>36</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E137" s="22">
         <v>45769</v>
@@ -4368,7 +4362,7 @@
         <v>155</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="E138" s="22">
         <v>45769</v>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985A7C8B-909B-4E5A-A911-44B1EE72ADBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA645853-486E-4AFF-8A7F-F4F5F9F5E6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="180">
   <si>
     <t>Action #</t>
   </si>
@@ -567,6 +567,12 @@
   </si>
   <si>
     <t>Jino Yoon</t>
+  </si>
+  <si>
+    <t>Roxana Peredes</t>
+  </si>
+  <si>
+    <t>Aman Ali</t>
   </si>
 </sst>
 </file>
@@ -784,8 +790,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H142" totalsRowShown="0">
-  <autoFilter ref="A1:H142" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H157" totalsRowShown="0">
+  <autoFilter ref="A1:H157" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
@@ -1088,10 +1094,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="111" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="111" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4423,8 +4429,124 @@
         <v>1745411040.0000002</v>
       </c>
     </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" s="21">
+        <v>143</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G141" s="25">
+        <v>0</v>
+      </c>
+    </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C142" s="17"/>
+      <c r="A142" s="21">
+        <v>144</v>
+      </c>
+      <c r="B142" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G142" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" s="21">
+        <v>145</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G143" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" s="21">
+        <v>146</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G144" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" s="21">
+        <v>147</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G145" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" s="21">
+        <v>148</v>
+      </c>
+      <c r="B146" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D146" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G146" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" s="21">
+        <v>149</v>
+      </c>
+      <c r="B147" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D147" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G147" s="25">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA645853-486E-4AFF-8A7F-F4F5F9F5E6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCED8A7-B81A-4E03-826F-EFCC2E2B841E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="179">
   <si>
     <t>Action #</t>
   </si>
@@ -569,10 +569,7 @@
     <t>Jino Yoon</t>
   </si>
   <si>
-    <t>Roxana Peredes</t>
-  </si>
-  <si>
-    <t>Aman Ali</t>
+    <t>Roxana Paredes</t>
   </si>
 </sst>
 </file>
@@ -1096,8 +1093,8 @@
   </sheetPr>
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="111" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="111" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4454,7 +4451,7 @@
         <v>10</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="D142" s="17" t="s">
         <v>65</v>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCED8A7-B81A-4E03-826F-EFCC2E2B841E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70F59B9-66D6-49E5-93D9-2C7FFA80D043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="180">
   <si>
     <t>Action #</t>
   </si>
@@ -570,6 +570,9 @@
   </si>
   <si>
     <t>Roxana Paredes</t>
+  </si>
+  <si>
+    <t>Katie Stubbings</t>
   </si>
 </sst>
 </file>
@@ -1091,13 +1094,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="111" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="119" workbookViewId="0">
+      <selection activeCell="G150" sqref="G150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.81640625" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.26953125" style="17" bestFit="1" customWidth="1"/>
@@ -1110,7 +1113,7 @@
     <col min="9" max="16384" width="8.7265625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1158,7 +1161,7 @@
         <v>1740321959.9999998</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1179,7 +1182,7 @@
         <v>1740392519.9999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>1740393000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1227,7 +1230,7 @@
         <v>1740395160.0000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1251,7 +1254,7 @@
         <v>1740400020.0000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1275,7 +1278,7 @@
         <v>1740431040.0000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1299,7 +1302,7 @@
         <v>1740480600.0000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>1740481619.9999998</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1347,7 +1350,7 @@
         <v>1740489600</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1371,7 +1374,7 @@
         <v>1740503340</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1395,7 +1398,7 @@
         <v>1740566040.0000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1419,7 +1422,7 @@
         <v>1740568019.9999998</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v>1740568500</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1467,7 +1470,7 @@
         <v>1740572640.0000002</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1491,7 +1494,7 @@
         <v>1740654000.0000002</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1515,7 +1518,7 @@
         <v>1740654900</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1539,7 +1542,7 @@
         <v>1740657600</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1563,7 +1566,7 @@
         <v>1740664800.0000002</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>1740739859.9999998</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -1611,7 +1614,7 @@
         <v>1740739859.9999998</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1635,7 +1638,7 @@
         <v>1740739920</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>1740742320.0000002</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1683,7 +1686,7 @@
         <v>1740750180</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>1740752580.0000002</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="35" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1731,7 +1734,7 @@
         <v>1740739920</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>1741044599.9999998</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1776,7 +1779,7 @@
         <v>1741001399.9999998</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -1800,7 +1803,7 @@
         <v>1741005000.0000002</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1824,7 +1827,7 @@
         <v>1741084200</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>1741119839.9999998</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -1872,7 +1875,7 @@
         <v>1741107479.9999998</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -1896,7 +1899,7 @@
         <v>1741188780.0000002</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1920,7 +1923,7 @@
         <v>1741258020.0000002</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -1944,7 +1947,7 @@
         <v>1741258980.0000002</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -1968,7 +1971,7 @@
         <v>1741259039.9999998</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -1992,7 +1995,7 @@
         <v>1741260840</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2016,7 +2019,7 @@
         <v>1741260720.0000002</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>1741263659.9999998</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2064,7 +2067,7 @@
         <v>1741264259.9999998</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -2088,7 +2091,7 @@
         <v>1741272660.0000002</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2112,7 +2115,7 @@
         <v>1741278660.0000002</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -2136,7 +2139,7 @@
         <v>1741343159.9999998</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2160,7 +2163,7 @@
         <v>1741340459.9999998</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -2184,7 +2187,7 @@
         <v>1741347120.0000002</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>47</v>
       </c>
@@ -2208,7 +2211,7 @@
         <v>1741318800.0000002</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>48</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>1741352820</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>49</v>
       </c>
@@ -2256,7 +2259,7 @@
         <v>1741352820</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>50</v>
       </c>
@@ -2280,7 +2283,7 @@
         <v>1741352340.0000002</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>51</v>
       </c>
@@ -2304,7 +2307,7 @@
         <v>1741350180</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
         <v>52</v>
       </c>
@@ -2328,7 +2331,7 @@
         <v>1741348980</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>53</v>
       </c>
@@ -2352,7 +2355,7 @@
         <v>1741336379.9999998</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7">
         <v>54</v>
       </c>
@@ -2376,7 +2379,7 @@
         <v>1741353240</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>55</v>
       </c>
@@ -2400,7 +2403,7 @@
         <v>1741375440</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7">
         <v>56</v>
       </c>
@@ -2424,7 +2427,7 @@
         <v>1741346160.0000002</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>57</v>
       </c>
@@ -2448,7 +2451,7 @@
         <v>1741350780.0000002</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>59</v>
       </c>
@@ -2472,7 +2475,7 @@
         <v>1741348080.0000002</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7">
         <v>60</v>
       </c>
@@ -2493,7 +2496,7 @@
         <v>1741561200.0000002</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="21">
         <v>61</v>
       </c>
@@ -2517,7 +2520,7 @@
         <v>1741353420</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="21">
         <v>62</v>
       </c>
@@ -2541,7 +2544,7 @@
         <v>1741353480.0000002</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>63</v>
       </c>
@@ -2565,7 +2568,7 @@
         <v>1741599239.9999998</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7">
         <v>64</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>1741598580</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>65</v>
       </c>
@@ -2613,7 +2616,7 @@
         <v>1741598820.0000002</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7">
         <v>66</v>
       </c>
@@ -2637,7 +2640,7 @@
         <v>1741357740.0000002</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>67</v>
       </c>
@@ -2661,7 +2664,7 @@
         <v>1741694400</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7">
         <v>68</v>
       </c>
@@ -2685,7 +2688,7 @@
         <v>1741702439.9999998</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7">
         <v>69</v>
       </c>
@@ -2709,7 +2712,7 @@
         <v>1741311180</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>70</v>
       </c>
@@ -2733,7 +2736,7 @@
         <v>1741574700.0000002</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>71</v>
       </c>
@@ -2757,7 +2760,7 @@
         <v>1741688519.9999998</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>72</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>1741694400</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="21">
         <v>73</v>
       </c>
@@ -2805,7 +2808,7 @@
         <v>1741775100.0000002</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>74</v>
       </c>
@@ -2829,7 +2832,7 @@
         <v>1741940580.0000002</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="21">
         <v>75</v>
       </c>
@@ -2853,7 +2856,7 @@
         <v>1741849740.0000002</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>76</v>
       </c>
@@ -2877,7 +2880,7 @@
         <v>1742359080.0000002</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="21">
         <v>77</v>
       </c>
@@ -2901,7 +2904,7 @@
         <v>1743426420</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>78</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>1743508800</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="21">
         <v>79</v>
       </c>
@@ -2940,7 +2943,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>80</v>
       </c>
@@ -2951,7 +2954,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="21">
         <v>81</v>
       </c>
@@ -2975,7 +2978,7 @@
         <v>1743560399.9999998</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>82</v>
       </c>
@@ -2999,7 +3002,7 @@
         <v>1743673320</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="21">
         <v>83</v>
       </c>
@@ -3023,7 +3026,7 @@
         <v>1743589919.9999998</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="21">
         <v>84</v>
       </c>
@@ -3047,7 +3050,7 @@
         <v>1743776760.0000002</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>85</v>
       </c>
@@ -3071,7 +3074,7 @@
         <v>1743930539.9999998</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="21">
         <v>86</v>
       </c>
@@ -3095,7 +3098,7 @@
         <v>1743508800</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="21">
         <v>87</v>
       </c>
@@ -3109,7 +3112,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>88</v>
       </c>
@@ -3129,11 +3132,11 @@
         <v>0.45208333333333334</v>
       </c>
       <c r="G86" s="6">
-        <f t="shared" ref="G86:G140" si="6">((E86+F86)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G86:G149" si="6">((E86+F86)-DATE(1970,1,1))*86400</f>
         <v>1741690259.9999998</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="21">
         <v>89</v>
       </c>
@@ -3154,7 +3157,7 @@
         <v>1743930539.9999998</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="21">
         <v>90</v>
       </c>
@@ -3178,7 +3181,7 @@
         <v>1744024080</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>91</v>
       </c>
@@ -3202,7 +3205,7 @@
         <v>1744024080</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="21">
         <v>92</v>
       </c>
@@ -3226,7 +3229,7 @@
         <v>1744027020</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="21">
         <v>93</v>
       </c>
@@ -3250,7 +3253,7 @@
         <v>1744026359.9999998</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>94</v>
       </c>
@@ -3274,7 +3277,7 @@
         <v>1744024920</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="21">
         <v>95</v>
       </c>
@@ -3298,7 +3301,7 @@
         <v>1744023479.9999998</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="21">
         <v>96</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>1744023000.0000002</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>97</v>
       </c>
@@ -3346,7 +3349,7 @@
         <v>1744018500</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="21">
         <v>98</v>
       </c>
@@ -3370,7 +3373,7 @@
         <v>1744018259.9999998</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="21">
         <v>99</v>
       </c>
@@ -3394,7 +3397,7 @@
         <v>1744018259.9999998</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>100</v>
       </c>
@@ -3418,7 +3421,7 @@
         <v>1743985380</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="21">
         <v>101</v>
       </c>
@@ -3442,7 +3445,7 @@
         <v>1744025940.0000002</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="21">
         <v>102</v>
       </c>
@@ -3466,7 +3469,7 @@
         <v>1744023960.0000002</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>103</v>
       </c>
@@ -3490,7 +3493,7 @@
         <v>1744023720</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="21">
         <v>104</v>
       </c>
@@ -3514,7 +3517,7 @@
         <v>1744023600.0000002</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="21">
         <v>105</v>
       </c>
@@ -3538,7 +3541,7 @@
         <v>1744114740</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>106</v>
       </c>
@@ -3562,7 +3565,7 @@
         <v>1744128540.0000002</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="21">
         <v>107</v>
       </c>
@@ -3586,7 +3589,7 @@
         <v>1744126140</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="21">
         <v>108</v>
       </c>
@@ -3610,7 +3613,7 @@
         <v>1744115340</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
         <v>109</v>
       </c>
@@ -3634,7 +3637,7 @@
         <v>1744117199.9999998</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="21">
         <v>110</v>
       </c>
@@ -3658,7 +3661,7 @@
         <v>1744112100.0000002</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="21">
         <v>111</v>
       </c>
@@ -3682,7 +3685,7 @@
         <v>1744121100</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
         <v>112</v>
       </c>
@@ -3706,7 +3709,7 @@
         <v>1744122840</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="18">
         <v>113</v>
       </c>
@@ -3730,7 +3733,7 @@
         <v>1744116780.0000002</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="21">
         <v>114</v>
       </c>
@@ -3754,7 +3757,7 @@
         <v>1744201679.9999998</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="21">
         <v>115</v>
       </c>
@@ -3778,7 +3781,7 @@
         <v>1744204379.9999998</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="21">
         <v>116</v>
       </c>
@@ -3802,7 +3805,7 @@
         <v>1744205580</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="21">
         <v>117</v>
       </c>
@@ -3826,7 +3829,7 @@
         <v>1744197480</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="21">
         <v>118</v>
       </c>
@@ -3850,7 +3853,7 @@
         <v>1744206840.0000002</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="21">
         <v>119</v>
       </c>
@@ -3874,7 +3877,7 @@
         <v>1744196580.0000002</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="21">
         <v>120</v>
       </c>
@@ -3898,7 +3901,7 @@
         <v>1744165920.0000002</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="21">
         <v>121</v>
       </c>
@@ -3922,7 +3925,7 @@
         <v>1744315560.0000002</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="21">
         <v>122</v>
       </c>
@@ -3946,7 +3949,7 @@
         <v>1744290359.9999998</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="21">
         <v>123</v>
       </c>
@@ -3970,7 +3973,7 @@
         <v>1741771560</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="21">
         <v>124</v>
       </c>
@@ -3994,7 +3997,7 @@
         <v>1744378620</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="21">
         <v>125</v>
       </c>
@@ -4018,7 +4021,7 @@
         <v>1744376640</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="21">
         <v>126</v>
       </c>
@@ -4042,7 +4045,7 @@
         <v>1744380239.9999998</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="21">
         <v>127</v>
       </c>
@@ -4066,7 +4069,7 @@
         <v>1744283039.9999998</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="21">
         <v>128</v>
       </c>
@@ -4090,7 +4093,7 @@
         <v>1744199700.0000002</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="21">
         <v>129</v>
       </c>
@@ -4114,7 +4117,7 @@
         <v>1744204379.9999998</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="21">
         <v>130</v>
       </c>
@@ -4138,7 +4141,7 @@
         <v>1744405080.0000002</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="21">
         <v>131</v>
       </c>
@@ -4162,7 +4165,7 @@
         <v>1744703279.9999998</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="21">
         <v>132</v>
       </c>
@@ -4186,7 +4189,7 @@
         <v>1744381799.9999998</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="21">
         <v>133</v>
       </c>
@@ -4210,7 +4213,7 @@
         <v>1744799040</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="21">
         <v>134</v>
       </c>
@@ -4234,7 +4237,7 @@
         <v>1744815600</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="21">
         <v>135</v>
       </c>
@@ -4258,7 +4261,7 @@
         <v>1744716959.9999998</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="21">
         <v>136</v>
       </c>
@@ -4282,7 +4285,7 @@
         <v>1744893000.0000002</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="21">
         <v>137</v>
       </c>
@@ -4306,7 +4309,7 @@
         <v>1744881840.0000002</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="21">
         <v>138</v>
       </c>
@@ -4330,7 +4333,7 @@
         <v>1744369680</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="21">
         <v>139</v>
       </c>
@@ -4354,7 +4357,7 @@
         <v>1745313960</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="21">
         <v>140</v>
       </c>
@@ -4378,7 +4381,7 @@
         <v>1745331360.0000002</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="21">
         <v>141</v>
       </c>
@@ -4402,7 +4405,7 @@
         <v>1745314020.0000002</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="21">
         <v>142</v>
       </c>
@@ -4422,11 +4425,11 @@
         <v>0.51666666666666672</v>
       </c>
       <c r="G140" s="6">
-        <f t="shared" si="6"/>
+        <f>((E140+F140)-DATE(1970,1,1))*86400</f>
         <v>1745411040.0000002</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="21">
         <v>143</v>
       </c>
@@ -4439,11 +4442,11 @@
       <c r="D141" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="G141" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G141" s="6">
+        <v>1745411040.0000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="21">
         <v>144</v>
       </c>
@@ -4456,11 +4459,11 @@
       <c r="D142" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G142" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G142" s="6">
+        <v>1745411040.0000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="21">
         <v>145</v>
       </c>
@@ -4473,11 +4476,11 @@
       <c r="D143" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="G143" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G143" s="6">
+        <v>1745411040.0000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="21">
         <v>146</v>
       </c>
@@ -4490,11 +4493,11 @@
       <c r="D144" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="G144" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G144" s="6">
+        <v>1745411040.0000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="21">
         <v>147</v>
       </c>
@@ -4507,11 +4510,11 @@
       <c r="D145" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G145" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G145" s="6">
+        <v>1745411040.0000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="21">
         <v>148</v>
       </c>
@@ -4524,11 +4527,11 @@
       <c r="D146" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="G146" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G146" s="6">
+        <v>1745411040.0000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="21">
         <v>149</v>
       </c>
@@ -4541,8 +4544,93 @@
       <c r="D147" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="G147" s="25">
-        <v>0</v>
+      <c r="G147" s="6">
+        <v>1745411040.0000002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="21">
+        <v>150</v>
+      </c>
+      <c r="B148" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G148" s="6">
+        <v>1745411040.0000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="21">
+        <v>151</v>
+      </c>
+      <c r="B149" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D149" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G149" s="6">
+        <v>1745411040.0000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="21">
+        <v>152</v>
+      </c>
+      <c r="B150" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G150" s="6">
+        <v>1745411040.0000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="21">
+        <v>153</v>
+      </c>
+      <c r="B151" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G151" s="6">
+        <v>1745411040</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="21">
+        <v>154</v>
+      </c>
+      <c r="B152" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G152" s="6">
+        <v>1745411040</v>
       </c>
     </row>
   </sheetData>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70F59B9-66D6-49E5-93D9-2C7FFA80D043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE05BDD-FE46-4BC2-8862-0AA5DFAB225D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="181">
   <si>
     <t>Action #</t>
   </si>
@@ -573,6 +573,9 @@
   </si>
   <si>
     <t>Katie Stubbings</t>
+  </si>
+  <si>
+    <t>Madelyn Vuilleumier</t>
   </si>
 </sst>
 </file>
@@ -1094,10 +1097,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="119" workbookViewId="0">
-      <selection activeCell="G150" sqref="G150"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="119" workbookViewId="0">
+      <selection activeCell="H151" sqref="H151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3132,7 +3135,7 @@
         <v>0.45208333333333334</v>
       </c>
       <c r="G86" s="6">
-        <f t="shared" ref="G86:G149" si="6">((E86+F86)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G86:G139" si="6">((E86+F86)-DATE(1970,1,1))*86400</f>
         <v>1741690259.9999998</v>
       </c>
     </row>
@@ -4630,6 +4633,23 @@
         <v>151</v>
       </c>
       <c r="G152" s="6">
+        <v>1745411040</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="21">
+        <v>155</v>
+      </c>
+      <c r="B153" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G153" s="6">
         <v>1745411040</v>
       </c>
     </row>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE05BDD-FE46-4BC2-8862-0AA5DFAB225D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DE812C-A565-4E98-8F43-751A63D34E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="182">
   <si>
     <t>Action #</t>
   </si>
@@ -576,6 +576,9 @@
   </si>
   <si>
     <t>Madelyn Vuilleumier</t>
+  </si>
+  <si>
+    <t>Landon Mills</t>
   </si>
 </sst>
 </file>
@@ -1097,10 +1100,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" zoomScale="119" workbookViewId="0">
-      <selection activeCell="H151" sqref="H151"/>
+      <selection activeCell="H152" sqref="H152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4653,6 +4656,40 @@
         <v>1745411040</v>
       </c>
     </row>
+    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="21">
+        <v>156</v>
+      </c>
+      <c r="B154" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D154" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G154" s="6">
+        <v>1745411040</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="21">
+        <v>157</v>
+      </c>
+      <c r="B155" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D155" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G155" s="6">
+        <v>1745411040</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DE812C-A565-4E98-8F43-751A63D34E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A84443C-8AB2-4A0D-BF82-556131F7B1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="186">
   <si>
     <t>Action #</t>
   </si>
@@ -579,6 +579,18 @@
   </si>
   <si>
     <t>Landon Mills</t>
+  </si>
+  <si>
+    <t>Christian Che</t>
+  </si>
+  <si>
+    <t>Sienna Church</t>
+  </si>
+  <si>
+    <t>Sadie Barrell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag </t>
   </si>
 </sst>
 </file>
@@ -796,8 +808,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H157" totalsRowShown="0">
-  <autoFilter ref="A1:H157" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H172" totalsRowShown="0">
+  <autoFilter ref="A1:H172" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
@@ -1100,10 +1112,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="119" workbookViewId="0">
-      <selection activeCell="H152" sqref="H152"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="119" workbookViewId="0">
+      <selection activeCell="E168" activeCellId="1" sqref="A170:XFD170 E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3138,7 +3150,7 @@
         <v>0.45208333333333334</v>
       </c>
       <c r="G86" s="6">
-        <f t="shared" ref="G86:G139" si="6">((E86+F86)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G86:G149" si="6">((E86+F86)-DATE(1970,1,1))*86400</f>
         <v>1741690259.9999998</v>
       </c>
     </row>
@@ -3524,7 +3536,7 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="21">
+      <c r="A103" s="5">
         <v>105</v>
       </c>
       <c r="B103" s="17" t="s">
@@ -3548,7 +3560,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="5">
+      <c r="A104" s="21">
         <v>106</v>
       </c>
       <c r="B104" s="17" t="s">
@@ -3596,7 +3608,7 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="21">
+      <c r="A106" s="5">
         <v>108</v>
       </c>
       <c r="B106" s="17" t="s">
@@ -3620,7 +3632,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="5">
+      <c r="A107" s="21">
         <v>109</v>
       </c>
       <c r="B107" s="17" t="s">
@@ -3644,7 +3656,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="21">
+      <c r="A108" s="5">
         <v>110</v>
       </c>
       <c r="B108" s="17" t="s">
@@ -3692,7 +3704,7 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="5">
+      <c r="A110" s="21">
         <v>112</v>
       </c>
       <c r="B110" s="17" t="s">
@@ -3716,7 +3728,7 @@
       </c>
     </row>
     <row r="111" spans="1:7" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="18">
+      <c r="A111" s="5">
         <v>113</v>
       </c>
       <c r="B111" s="11" t="s">
@@ -3764,7 +3776,7 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="21">
+      <c r="A113" s="5">
         <v>115</v>
       </c>
       <c r="B113" s="17" t="s">
@@ -3836,7 +3848,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="21">
+      <c r="A116" s="5">
         <v>118</v>
       </c>
       <c r="B116" s="17" t="s">
@@ -3884,7 +3896,7 @@
       </c>
     </row>
     <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="21">
+      <c r="A118" s="5">
         <v>120</v>
       </c>
       <c r="B118" s="17" t="s">
@@ -3915,20 +3927,19 @@
         <v>10</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E119" s="22">
         <v>45757</v>
       </c>
       <c r="F119" s="24">
-        <v>0.83750000000000002</v>
+        <v>0.47638888888888886</v>
       </c>
       <c r="G119" s="6">
-        <f t="shared" si="6"/>
-        <v>1744315560.0000002</v>
+        <v>1745411040</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3938,45 +3949,45 @@
       <c r="B120" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C120" s="43" t="s">
-        <v>166</v>
+      <c r="C120" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E120" s="22">
         <v>45757</v>
       </c>
       <c r="F120" s="24">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="G120" s="6">
+        <f t="shared" si="6"/>
+        <v>1744315560.0000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="5">
+        <v>123</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E121" s="22">
+        <v>45757</v>
+      </c>
+      <c r="F121" s="24">
         <v>0.54583333333333328</v>
       </c>
-      <c r="G120" s="6">
+      <c r="G121" s="6">
         <f t="shared" si="6"/>
         <v>1744290359.9999998</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="21">
-        <v>123</v>
-      </c>
-      <c r="B121" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C121" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E121" s="22">
-        <v>45728</v>
-      </c>
-      <c r="F121" s="24">
-        <v>0.39305555555555555</v>
-      </c>
-      <c r="G121" s="6">
-        <f t="shared" si="6"/>
-        <v>1741771560</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3987,44 +3998,44 @@
         <v>10</v>
       </c>
       <c r="C122" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E122" s="22">
+        <v>45728</v>
+      </c>
+      <c r="F122" s="24">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="G122" s="6">
+        <f t="shared" si="6"/>
+        <v>1741771560</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="5">
+        <v>125</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D122" s="17" t="s">
+      <c r="D123" s="17" t="s">
         <v>169</v>
-      </c>
-      <c r="E122" s="22">
-        <v>45758</v>
-      </c>
-      <c r="F122" s="24">
-        <v>0.56736111111111109</v>
-      </c>
-      <c r="G122" s="6">
-        <f t="shared" si="6"/>
-        <v>1744378620</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="21">
-        <v>125</v>
-      </c>
-      <c r="B123" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" s="17" t="s">
-        <v>170</v>
       </c>
       <c r="E123" s="22">
         <v>45758</v>
       </c>
       <c r="F123" s="24">
-        <v>0.5444444444444444</v>
+        <v>0.56736111111111109</v>
       </c>
       <c r="G123" s="6">
         <f t="shared" si="6"/>
-        <v>1744376640</v>
+        <v>1744378620</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4038,17 +4049,17 @@
         <v>15</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E124" s="22">
         <v>45758</v>
       </c>
       <c r="F124" s="24">
-        <v>0.58611111111111114</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="G124" s="6">
         <f t="shared" si="6"/>
-        <v>1744380239.9999998</v>
+        <v>1744376640</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4058,45 +4069,44 @@
       <c r="B125" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C125" s="21" t="s">
-        <v>27</v>
+      <c r="C125" s="17" t="s">
+        <v>176</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="E125" s="22">
-        <v>45757</v>
+        <v>45758</v>
       </c>
       <c r="F125" s="24">
-        <v>0.46111111111111114</v>
+        <v>0.2951388888888889</v>
       </c>
       <c r="G125" s="6">
-        <f t="shared" si="6"/>
-        <v>1744283039.9999998</v>
+        <v>1745411040.0000002</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="21">
+      <c r="A126" s="5">
         <v>128</v>
       </c>
       <c r="B126" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C126" t="s">
-        <v>41</v>
-      </c>
-      <c r="D126" s="21" t="s">
-        <v>17</v>
+      <c r="C126" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="E126" s="22">
-        <v>45756</v>
+        <v>45758</v>
       </c>
       <c r="F126" s="24">
-        <v>0.49652777777777779</v>
+        <v>0.58611111111111114</v>
       </c>
       <c r="G126" s="6">
         <f t="shared" si="6"/>
-        <v>1744199700.0000002</v>
+        <v>1744380239.9999998</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4107,44 +4117,44 @@
         <v>10</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="E127" s="22">
+        <v>45757</v>
+      </c>
+      <c r="F127" s="24">
+        <v>0.46111111111111114</v>
+      </c>
+      <c r="G127" s="6">
+        <f t="shared" si="6"/>
+        <v>1744283039.9999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="5">
+        <v>130</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" t="s">
+        <v>41</v>
+      </c>
+      <c r="D128" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" s="22">
         <v>45756</v>
       </c>
-      <c r="F127" s="24">
-        <v>0.55069444444444449</v>
-      </c>
-      <c r="G127" s="6">
-        <f t="shared" si="6"/>
-        <v>1744204379.9999998</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="21">
-        <v>130</v>
-      </c>
-      <c r="B128" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C128" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D128" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E128" s="22">
-        <v>45758</v>
-      </c>
       <c r="F128" s="24">
-        <v>0.87361111111111112</v>
+        <v>0.49652777777777779</v>
       </c>
       <c r="G128" s="6">
         <f t="shared" si="6"/>
-        <v>1744405080.0000002</v>
+        <v>1744199700.0000002</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4155,20 +4165,20 @@
         <v>10</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="E129" s="22">
-        <v>45762</v>
+        <v>45756</v>
       </c>
       <c r="F129" s="24">
-        <v>0.32500000000000001</v>
+        <v>0.55069444444444449</v>
       </c>
       <c r="G129" s="6">
         <f t="shared" si="6"/>
-        <v>1744703279.9999998</v>
+        <v>1744204379.9999998</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4179,44 +4189,44 @@
         <v>10</v>
       </c>
       <c r="C130" s="21" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E130" s="22">
         <v>45758</v>
       </c>
       <c r="F130" s="24">
-        <v>0.60416666666666663</v>
+        <v>0.87361111111111112</v>
       </c>
       <c r="G130" s="6">
         <f t="shared" si="6"/>
-        <v>1744381799.9999998</v>
+        <v>1744405080.0000002</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="21">
+      <c r="A131" s="5">
         <v>133</v>
       </c>
       <c r="B131" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C131" s="21" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="E131" s="22">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="F131" s="24">
-        <v>0.43333333333333335</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="G131" s="6">
         <f t="shared" si="6"/>
-        <v>1744799040</v>
+        <v>1744703279.9999998</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4227,44 +4237,44 @@
         <v>10</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="E132" s="22">
+        <v>45758</v>
+      </c>
+      <c r="F132" s="24">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="G132" s="6">
+        <f t="shared" si="6"/>
+        <v>1744381799.9999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="5">
+        <v>135</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E133" s="22">
         <v>45763</v>
       </c>
-      <c r="F132" s="24">
-        <v>0.625</v>
-      </c>
-      <c r="G132" s="6">
-        <f t="shared" si="6"/>
-        <v>1744815600</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="21">
-        <v>135</v>
-      </c>
-      <c r="B133" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C133" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D133" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E133" s="22">
-        <v>45762</v>
-      </c>
       <c r="F133" s="24">
-        <v>0.48333333333333334</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="G133" s="6">
         <f t="shared" si="6"/>
-        <v>1744716959.9999998</v>
+        <v>1744799040</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4274,21 +4284,21 @@
       <c r="B134" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C134" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="D134" s="21" t="s">
-        <v>160</v>
+      <c r="C134" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="E134" s="22">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="F134" s="24">
-        <v>0.52083333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="G134" s="6">
         <f t="shared" si="6"/>
-        <v>1744893000.0000002</v>
+        <v>1744815600</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4299,44 +4309,44 @@
         <v>10</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>176</v>
+        <v>67</v>
       </c>
       <c r="E135" s="22">
+        <v>45762</v>
+      </c>
+      <c r="F135" s="24">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="G135" s="6">
+        <f t="shared" si="6"/>
+        <v>1744716959.9999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="5">
+        <v>138</v>
+      </c>
+      <c r="B136" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D136" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E136" s="22">
         <v>45764</v>
       </c>
-      <c r="F135" s="24">
-        <v>0.39166666666666666</v>
-      </c>
-      <c r="G135" s="6">
-        <f t="shared" si="6"/>
-        <v>1744881840.0000002</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="21">
-        <v>138</v>
-      </c>
-      <c r="B136" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C136" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E136" s="22">
-        <v>45758</v>
-      </c>
       <c r="F136" s="24">
-        <v>0.46388888888888891</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="G136" s="6">
         <f t="shared" si="6"/>
-        <v>1744369680</v>
+        <v>1744893000.0000002</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4347,44 +4357,44 @@
         <v>10</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E137" s="22">
-        <v>45769</v>
+        <v>45764</v>
       </c>
       <c r="F137" s="24">
-        <v>0.39305555555555555</v>
+        <v>0.39166666666666666</v>
       </c>
       <c r="G137" s="6">
         <f t="shared" si="6"/>
-        <v>1745313960</v>
+        <v>1744881840.0000002</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="21">
+      <c r="A138" s="5">
         <v>140</v>
       </c>
       <c r="B138" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="E138" s="22">
-        <v>45769</v>
+        <v>45758</v>
       </c>
       <c r="F138" s="24">
-        <v>0.59444444444444444</v>
+        <v>0.46388888888888891</v>
       </c>
       <c r="G138" s="6">
         <f t="shared" si="6"/>
-        <v>1745331360.0000002</v>
+        <v>1744369680</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4395,20 +4405,20 @@
         <v>10</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="E139" s="22">
         <v>45769</v>
       </c>
       <c r="F139" s="24">
-        <v>0.39374999999999999</v>
+        <v>0.39305555555555555</v>
       </c>
       <c r="G139" s="6">
         <f t="shared" si="6"/>
-        <v>1745314020.0000002</v>
+        <v>1745313960</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4419,37 +4429,44 @@
         <v>10</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="E140" s="22">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="F140" s="24">
-        <v>0.51666666666666672</v>
+        <v>0.59444444444444444</v>
       </c>
       <c r="G140" s="6">
-        <f>((E140+F140)-DATE(1970,1,1))*86400</f>
-        <v>1745411040.0000002</v>
+        <f t="shared" si="6"/>
+        <v>1745331360.0000002</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="21">
+      <c r="A141" s="5">
         <v>143</v>
       </c>
       <c r="B141" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>178</v>
+        <v>147</v>
+      </c>
+      <c r="E141" s="22">
+        <v>45769</v>
+      </c>
+      <c r="F141" s="24">
+        <v>0.39374999999999999</v>
       </c>
       <c r="G141" s="6">
-        <v>1745411040.0000002</v>
+        <f t="shared" si="6"/>
+        <v>1745314020.0000002</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4465,25 +4482,39 @@
       <c r="D142" s="17" t="s">
         <v>65</v>
       </c>
+      <c r="E142" s="22">
+        <v>45770</v>
+      </c>
+      <c r="F142" s="24">
+        <v>0.51666666666666672</v>
+      </c>
       <c r="G142" s="6">
+        <f t="shared" si="6"/>
         <v>1745411040.0000002</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="21">
+      <c r="A143" s="5">
         <v>145</v>
       </c>
       <c r="B143" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C143" s="17" t="s">
-        <v>90</v>
+      <c r="C143" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>149</v>
+        <v>178</v>
+      </c>
+      <c r="E143" s="22">
+        <v>45778</v>
+      </c>
+      <c r="F143" s="24">
+        <v>0.49236111111111114</v>
       </c>
       <c r="G143" s="6">
-        <v>1745411040.0000002</v>
+        <f t="shared" si="6"/>
+        <v>1746100139.9999998</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4493,13 +4524,20 @@
       <c r="B144" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C144" s="17" t="s">
-        <v>81</v>
+      <c r="C144" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>146</v>
+        <v>65</v>
+      </c>
+      <c r="E144" s="22">
+        <v>45770</v>
+      </c>
+      <c r="F144" s="24">
+        <v>0.51666666666666672</v>
       </c>
       <c r="G144" s="6">
+        <f t="shared" si="6"/>
         <v>1745411040.0000002</v>
       </c>
     </row>
@@ -4510,31 +4548,45 @@
       <c r="B145" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C145" s="21" t="s">
-        <v>155</v>
+      <c r="C145" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>90</v>
+        <v>149</v>
+      </c>
+      <c r="E145" s="22">
+        <v>45775</v>
+      </c>
+      <c r="F145" s="24">
+        <v>0.31944444444444442</v>
       </c>
       <c r="G145" s="6">
-        <v>1745411040.0000002</v>
+        <f t="shared" si="6"/>
+        <v>1745826000</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="21">
+      <c r="A146" s="5">
         <v>148</v>
       </c>
       <c r="B146" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C146" s="21" t="s">
-        <v>155</v>
+      <c r="C146" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>100</v>
+        <v>146</v>
+      </c>
+      <c r="E146" s="22">
+        <v>45778</v>
+      </c>
+      <c r="F146" s="24">
+        <v>0.26597222222222222</v>
       </c>
       <c r="G146" s="6">
-        <v>1745411040.0000002</v>
+        <f t="shared" si="6"/>
+        <v>1746080580</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4545,30 +4597,44 @@
         <v>10</v>
       </c>
       <c r="C147" s="21" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>147</v>
+        <v>90</v>
+      </c>
+      <c r="E147" s="22">
+        <v>45777</v>
+      </c>
+      <c r="F147" s="24">
+        <v>0.45208333333333334</v>
       </c>
       <c r="G147" s="6">
-        <v>1745411040.0000002</v>
+        <f t="shared" si="6"/>
+        <v>1746010259.9999998</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="21">
+      <c r="A148" s="5">
         <v>150</v>
       </c>
       <c r="B148" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>179</v>
+        <v>100</v>
+      </c>
+      <c r="E148" s="22">
+        <v>45778</v>
+      </c>
+      <c r="F148" s="24">
+        <v>0.45</v>
       </c>
       <c r="G148" s="6">
-        <v>1745411040.0000002</v>
+        <f t="shared" si="6"/>
+        <v>1746096479.9999998</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4579,13 +4645,20 @@
         <v>10</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D149" s="21" t="s">
-        <v>58</v>
+        <v>39</v>
+      </c>
+      <c r="D149" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E149" s="22">
+        <v>45769</v>
+      </c>
+      <c r="F149" s="24">
+        <v>0.39374999999999999</v>
       </c>
       <c r="G149" s="6">
-        <v>1745411040.0000002</v>
+        <f t="shared" si="6"/>
+        <v>1745314020.0000002</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4596,30 +4669,44 @@
         <v>10</v>
       </c>
       <c r="C150" s="21" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>171</v>
+        <v>179</v>
+      </c>
+      <c r="E150" s="22">
+        <v>45757</v>
+      </c>
+      <c r="F150" s="24">
+        <v>0.60624999999999996</v>
       </c>
       <c r="G150" s="6">
-        <v>1745411040.0000002</v>
+        <f t="shared" ref="G150:G169" si="7">((E150+F150)-DATE(1970,1,1))*86400</f>
+        <v>1744295579.9999998</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="21">
+      <c r="A151" s="5">
         <v>153</v>
       </c>
       <c r="B151" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C151" s="21" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="D151" s="21" t="s">
-        <v>41</v>
+        <v>58</v>
+      </c>
+      <c r="E151" s="22">
+        <v>45782</v>
+      </c>
+      <c r="F151" s="24">
+        <v>0.50624999999999998</v>
       </c>
       <c r="G151" s="6">
-        <v>1745411040</v>
+        <f t="shared" si="7"/>
+        <v>1746446939.9999998</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4630,30 +4717,44 @@
         <v>10</v>
       </c>
       <c r="C152" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D152" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E152" s="22">
+        <v>45778</v>
+      </c>
+      <c r="F152" s="24">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="G152" s="6">
+        <f t="shared" si="7"/>
+        <v>1746099420</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="5">
+        <v>155</v>
+      </c>
+      <c r="B153" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D152" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G152" s="6">
-        <v>1745411040</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="21">
-        <v>155</v>
-      </c>
-      <c r="B153" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C153" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D153" s="17" t="s">
-        <v>180</v>
+      <c r="D153" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E153" s="22">
+        <v>45778</v>
+      </c>
+      <c r="F153" s="24">
+        <v>0.45763888888888887</v>
       </c>
       <c r="G153" s="6">
-        <v>1745411040</v>
+        <f t="shared" si="7"/>
+        <v>1746097140</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4664,13 +4765,20 @@
         <v>10</v>
       </c>
       <c r="C154" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D154" s="17" t="s">
-        <v>181</v>
+        <v>28</v>
+      </c>
+      <c r="D154" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E154" s="22">
+        <v>45778</v>
+      </c>
+      <c r="F154" s="24">
+        <v>0.45763888888888887</v>
       </c>
       <c r="G154" s="6">
-        <v>1745411040</v>
+        <f t="shared" si="7"/>
+        <v>1746097140</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4681,14 +4789,378 @@
         <v>10</v>
       </c>
       <c r="C155" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D155" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E155" s="22">
+        <v>45755</v>
+      </c>
+      <c r="F155" s="24">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="G155" s="6">
+        <f t="shared" si="7"/>
+        <v>1744116780.0000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="5">
+        <v>158</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D155" s="21" t="s">
+      <c r="D156" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="G155" s="6">
-        <v>1745411040</v>
-      </c>
+      <c r="E156" s="22">
+        <v>45783</v>
+      </c>
+      <c r="F156" s="24">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="G156" s="6">
+        <f t="shared" si="7"/>
+        <v>1746524819.9999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="21">
+        <v>159</v>
+      </c>
+      <c r="B157" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D157" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E157" s="22">
+        <v>45791</v>
+      </c>
+      <c r="F157" s="24">
+        <v>0.46388888888888891</v>
+      </c>
+      <c r="G157" s="6">
+        <f t="shared" si="7"/>
+        <v>1747220880</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="5">
+        <v>160</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D158" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E158" s="22">
+        <v>45790</v>
+      </c>
+      <c r="F158" s="24">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="G158" s="6">
+        <f t="shared" si="7"/>
+        <v>1747137960</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="21">
+        <v>161</v>
+      </c>
+      <c r="B159" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D159" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E159" s="22">
+        <v>45791</v>
+      </c>
+      <c r="F159" s="24">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="G159" s="6">
+        <f t="shared" si="7"/>
+        <v>1747218719.9999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="21">
+        <v>162</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D160" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E160" s="22">
+        <v>45794</v>
+      </c>
+      <c r="F160" s="24">
+        <v>0.74305555555555558</v>
+      </c>
+      <c r="G160" s="6">
+        <f t="shared" si="7"/>
+        <v>1747504200</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="5">
+        <v>163</v>
+      </c>
+      <c r="B161" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D161" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E161" s="22">
+        <v>45792</v>
+      </c>
+      <c r="F161" s="24">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G161" s="6">
+        <f t="shared" si="7"/>
+        <v>1747306800.0000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="21">
+        <v>164</v>
+      </c>
+      <c r="B162" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E162" s="22">
+        <v>45792</v>
+      </c>
+      <c r="F162" s="24">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="G162" s="6">
+        <f t="shared" si="7"/>
+        <v>1747308840</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="5">
+        <v>165</v>
+      </c>
+      <c r="B163" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E163" s="22">
+        <v>45797</v>
+      </c>
+      <c r="F163" s="24">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="G163" s="6">
+        <f t="shared" si="7"/>
+        <v>1747744980.0000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="21">
+        <v>166</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D164" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E164" s="22">
+        <v>45792</v>
+      </c>
+      <c r="F164" s="24">
+        <v>0.59375</v>
+      </c>
+      <c r="G164" s="6">
+        <f t="shared" si="7"/>
+        <v>1747318500</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="21">
+        <v>167</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D165" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E165" s="22">
+        <v>45791</v>
+      </c>
+      <c r="F165" s="24">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="G165" s="6">
+        <f t="shared" si="7"/>
+        <v>1747214580</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="5">
+        <v>168</v>
+      </c>
+      <c r="B166" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E166" s="22">
+        <v>45791</v>
+      </c>
+      <c r="F166" s="24">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="G166" s="6">
+        <f t="shared" si="7"/>
+        <v>1747220819.9999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="21">
+        <v>169</v>
+      </c>
+      <c r="B167" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E167" s="22">
+        <v>45793</v>
+      </c>
+      <c r="F167" s="24">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="G167" s="6">
+        <f t="shared" si="7"/>
+        <v>1747399080</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="5">
+        <v>170</v>
+      </c>
+      <c r="B168" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E168" s="22">
+        <v>45798</v>
+      </c>
+      <c r="F168" s="24">
+        <v>0.58125000000000004</v>
+      </c>
+      <c r="G168" s="6">
+        <f t="shared" si="7"/>
+        <v>1747835820.0000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="5">
+        <v>171</v>
+      </c>
+      <c r="B169" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D169" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E169" s="22">
+        <v>45797</v>
+      </c>
+      <c r="F169" s="24">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="G169" s="6">
+        <f t="shared" si="7"/>
+        <v>1747738740</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="21">
+        <v>172</v>
+      </c>
+      <c r="B170" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C170" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D170" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E170" s="22">
+        <v>45798</v>
+      </c>
+      <c r="F170" s="24">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G170" s="6">
+        <f t="shared" ref="G170" si="8">((E170+F170)-DATE(1970,1,1))*86400</f>
+        <v>1747825200.0000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A84443C-8AB2-4A0D-BF82-556131F7B1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AC8B0E-F904-4956-9680-DD4630F5D092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="186">
   <si>
     <t>Action #</t>
   </si>
@@ -808,9 +808,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H172" totalsRowShown="0">
-  <autoFilter ref="A1:H172" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G173" totalsRowShown="0">
+  <autoFilter ref="A1:G173" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Para1"/>
@@ -818,7 +818,6 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Time"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Unix"/>
-    <tableColumn id="8" xr3:uid="{0F4BEB32-5145-4AB0-AD04-70A9B133DB45}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1112,10 +1111,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H171"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="119" workbookViewId="0">
-      <selection activeCell="E168" activeCellId="1" sqref="A170:XFD170 E168"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="119" workbookViewId="0">
+      <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4681,7 +4680,7 @@
         <v>0.60624999999999996</v>
       </c>
       <c r="G150" s="6">
-        <f t="shared" ref="G150:G169" si="7">((E150+F150)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G150:G173" si="7">((E150+F150)-DATE(1970,1,1))*86400</f>
         <v>1744295579.9999998</v>
       </c>
     </row>
@@ -5071,96 +5070,165 @@
         <v>169</v>
       </c>
       <c r="B167" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="D167" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="E167" s="22">
         <v>45793</v>
       </c>
       <c r="F167" s="24">
-        <v>0.52638888888888891</v>
+        <v>0.39097222222222222</v>
       </c>
       <c r="G167" s="6">
         <f t="shared" si="7"/>
-        <v>1747399080</v>
+        <v>1747387380</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="5">
-        <v>170</v>
+      <c r="A168" s="21">
+        <v>169</v>
       </c>
       <c r="B168" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C168" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E168" s="22">
-        <v>45798</v>
+        <v>45793</v>
       </c>
       <c r="F168" s="24">
-        <v>0.58125000000000004</v>
+        <v>0.52638888888888891</v>
       </c>
       <c r="G168" s="6">
         <f t="shared" si="7"/>
-        <v>1747835820.0000002</v>
+        <v>1747399080</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B169" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D169" s="17" t="s">
-        <v>152</v>
+        <v>155</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E169" s="22">
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="F169" s="24">
-        <v>0.45763888888888887</v>
+        <v>0.58125000000000004</v>
       </c>
       <c r="G169" s="6">
         <f t="shared" si="7"/>
+        <v>1747835820.0000002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="5">
+        <v>171</v>
+      </c>
+      <c r="B170" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C170" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D170" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E170" s="22">
+        <v>45797</v>
+      </c>
+      <c r="F170" s="24">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="G170" s="6">
+        <f t="shared" si="7"/>
         <v>1747738740</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="21">
+    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="21">
         <v>172</v>
       </c>
-      <c r="B170" s="17" t="s">
+      <c r="B171" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C170" s="21" t="s">
+      <c r="C171" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D170" s="17" t="s">
+      <c r="D171" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E170" s="22">
+      <c r="E171" s="22">
         <v>45798</v>
       </c>
-      <c r="F170" s="24">
+      <c r="F171" s="24">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G170" s="6">
-        <f t="shared" ref="G170" si="8">((E170+F170)-DATE(1970,1,1))*86400</f>
+      <c r="G171" s="6">
+        <f t="shared" ref="G171" si="8">((E171+F171)-DATE(1970,1,1))*86400</f>
         <v>1747825200.0000002</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="5"/>
+    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="5">
+        <v>173</v>
+      </c>
+      <c r="B172" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D172" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E172" s="22">
+        <v>45778</v>
+      </c>
+      <c r="F172" s="24">
+        <v>0.59444444444444444</v>
+      </c>
+      <c r="G172" s="6">
+        <f t="shared" si="7"/>
+        <v>1746108960.0000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="21">
+        <v>174</v>
+      </c>
+      <c r="B173" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D173" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E173" s="22">
+        <v>45792</v>
+      </c>
+      <c r="F173" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G173" s="6">
+        <f t="shared" si="7"/>
+        <v>1747310400</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AC8B0E-F904-4956-9680-DD4630F5D092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD07B544-5D9F-4E1D-A78A-F05B591A5AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="185">
   <si>
     <t>Action #</t>
   </si>
@@ -588,9 +588,6 @@
   </si>
   <si>
     <t>Sadie Barrell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tag </t>
   </si>
 </sst>
 </file>
@@ -1113,8 +1110,8 @@
   </sheetPr>
   <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="119" workbookViewId="0">
-      <selection activeCell="D174" sqref="D174"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="119" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5163,7 +5160,7 @@
         <v>172</v>
       </c>
       <c r="B171" s="17" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="C171" s="21" t="s">
         <v>130</v>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD07B544-5D9F-4E1D-A78A-F05B591A5AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C4F87C-0924-426B-9C3B-0DE1BBF04DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="187">
   <si>
     <t>Action #</t>
   </si>
@@ -588,6 +588,12 @@
   </si>
   <si>
     <t>Sadie Barrell</t>
+  </si>
+  <si>
+    <t>Harbeen Sidhu</t>
+  </si>
+  <si>
+    <t>The time is wrong</t>
   </si>
 </sst>
 </file>
@@ -805,8 +811,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G173" totalsRowShown="0">
-  <autoFilter ref="A1:G173" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G180" totalsRowShown="0">
+  <autoFilter ref="A1:G180" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
@@ -1108,10 +1114,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="119" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="119" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3146,7 +3152,7 @@
         <v>0.45208333333333334</v>
       </c>
       <c r="G86" s="6">
-        <f t="shared" ref="G86:G149" si="6">((E86+F86)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G86:G150" si="6">((E86+F86)-DATE(1970,1,1))*86400</f>
         <v>1741690259.9999998</v>
       </c>
     </row>
@@ -4658,103 +4664,103 @@
       </c>
     </row>
     <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="21">
+      <c r="A150" s="5">
         <v>152</v>
       </c>
       <c r="B150" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C150" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E150" s="22">
+        <v>45793</v>
+      </c>
+      <c r="F150" s="24">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="G150" s="6">
+        <f t="shared" si="6"/>
+        <v>1747393320</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="21">
+        <v>153</v>
+      </c>
+      <c r="B151" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D150" s="17" t="s">
+      <c r="D151" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E150" s="22">
+      <c r="E151" s="22">
         <v>45757</v>
       </c>
-      <c r="F150" s="24">
+      <c r="F151" s="24">
         <v>0.60624999999999996</v>
       </c>
-      <c r="G150" s="6">
-        <f t="shared" ref="G150:G173" si="7">((E150+F150)-DATE(1970,1,1))*86400</f>
+      <c r="G151" s="6">
+        <f t="shared" ref="G151:G175" si="7">((E151+F151)-DATE(1970,1,1))*86400</f>
         <v>1744295579.9999998</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="5">
-        <v>153</v>
-      </c>
-      <c r="B151" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C151" s="21" t="s">
+    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="5">
+        <v>154</v>
+      </c>
+      <c r="B152" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D151" s="21" t="s">
+      <c r="D152" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E151" s="22">
+      <c r="E152" s="22">
         <v>45782</v>
       </c>
-      <c r="F151" s="24">
+      <c r="F152" s="24">
         <v>0.50624999999999998</v>
       </c>
-      <c r="G151" s="6">
+      <c r="G152" s="6">
         <f t="shared" si="7"/>
         <v>1746446939.9999998</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="21">
-        <v>154</v>
-      </c>
-      <c r="B152" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C152" s="21" t="s">
+    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="21">
+        <v>155</v>
+      </c>
+      <c r="B153" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D152" s="17" t="s">
+      <c r="D153" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="E152" s="22">
+      <c r="E153" s="22">
         <v>45778</v>
       </c>
-      <c r="F152" s="24">
+      <c r="F153" s="24">
         <v>0.48402777777777778</v>
       </c>
-      <c r="G152" s="6">
+      <c r="G153" s="6">
         <f t="shared" si="7"/>
         <v>1746099420</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="5">
-        <v>155</v>
-      </c>
-      <c r="B153" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C153" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D153" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E153" s="22">
-        <v>45778</v>
-      </c>
-      <c r="F153" s="24">
-        <v>0.45763888888888887</v>
-      </c>
-      <c r="G153" s="6">
-        <f t="shared" si="7"/>
-        <v>1746097140</v>
-      </c>
-    </row>
     <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="21">
+      <c r="A154" s="5">
         <v>156</v>
       </c>
       <c r="B154" s="17" t="s">
@@ -4764,7 +4770,7 @@
         <v>28</v>
       </c>
       <c r="D154" s="21" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="E154" s="22">
         <v>45778</v>
@@ -4785,20 +4791,20 @@
         <v>10</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D155" s="17" t="s">
-        <v>181</v>
+        <v>28</v>
+      </c>
+      <c r="D155" s="21" t="s">
+        <v>151</v>
       </c>
       <c r="E155" s="22">
-        <v>45755</v>
+        <v>45778</v>
       </c>
       <c r="F155" s="24">
-        <v>0.53680555555555554</v>
+        <v>0.45763888888888887</v>
       </c>
       <c r="G155" s="6">
         <f t="shared" si="7"/>
-        <v>1744116780.0000002</v>
+        <v>1746097140</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4808,21 +4814,21 @@
       <c r="B156" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D156" s="21" t="s">
-        <v>94</v>
+      <c r="C156" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D156" s="17" t="s">
+        <v>181</v>
       </c>
       <c r="E156" s="22">
-        <v>45783</v>
+        <v>45755</v>
       </c>
       <c r="F156" s="24">
-        <v>0.40763888888888888</v>
+        <v>0.53680555555555554</v>
       </c>
       <c r="G156" s="6">
         <f t="shared" si="7"/>
-        <v>1746524819.9999998</v>
+        <v>1744116780.0000002</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4832,21 +4838,21 @@
       <c r="B157" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C157" s="21" t="s">
-        <v>158</v>
+      <c r="C157" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D157" s="21" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="E157" s="22">
-        <v>45791</v>
+        <v>45783</v>
       </c>
       <c r="F157" s="24">
-        <v>0.46388888888888891</v>
+        <v>0.40763888888888888</v>
       </c>
       <c r="G157" s="6">
         <f t="shared" si="7"/>
-        <v>1747220880</v>
+        <v>1746524819.9999998</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4857,20 +4863,20 @@
         <v>10</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D158" s="17" t="s">
-        <v>182</v>
+        <v>158</v>
+      </c>
+      <c r="D158" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="E158" s="22">
-        <v>45790</v>
+        <v>45791</v>
       </c>
       <c r="F158" s="24">
-        <v>0.50416666666666665</v>
+        <v>0.46388888888888891</v>
       </c>
       <c r="G158" s="6">
         <f t="shared" si="7"/>
-        <v>1747137960</v>
+        <v>1747220880</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4883,162 +4889,162 @@
       <c r="C159" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D159" s="21" t="s">
-        <v>131</v>
+      <c r="D159" s="17" t="s">
+        <v>182</v>
       </c>
       <c r="E159" s="22">
-        <v>45791</v>
+        <v>45790</v>
       </c>
       <c r="F159" s="24">
-        <v>0.43888888888888888</v>
+        <v>0.50416666666666665</v>
       </c>
       <c r="G159" s="6">
         <f t="shared" si="7"/>
-        <v>1747218719.9999998</v>
+        <v>1747137960</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="21">
+      <c r="A160" s="5">
         <v>162</v>
       </c>
       <c r="B160" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D160" s="17" t="s">
-        <v>158</v>
+        <v>112</v>
+      </c>
+      <c r="D160" s="21" t="s">
+        <v>131</v>
       </c>
       <c r="E160" s="22">
-        <v>45794</v>
+        <v>45791</v>
       </c>
       <c r="F160" s="24">
-        <v>0.74305555555555558</v>
+        <v>0.43888888888888888</v>
       </c>
       <c r="G160" s="6">
         <f t="shared" si="7"/>
-        <v>1747504200</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="5">
+        <v>1747218719.9999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="21">
         <v>163</v>
       </c>
       <c r="B161" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C161" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D161" s="21" t="s">
-        <v>175</v>
+        <v>163</v>
+      </c>
+      <c r="D161" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="E161" s="22">
-        <v>45792</v>
+        <v>45794</v>
       </c>
       <c r="F161" s="24">
-        <v>0.45833333333333331</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="G161" s="6">
         <f t="shared" si="7"/>
-        <v>1747306800.0000002</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="21">
+        <v>1747504200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="5">
         <v>164</v>
       </c>
       <c r="B162" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C162" s="21" t="s">
         <v>112</v>
       </c>
+      <c r="D162" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="E162" s="22">
         <v>45792</v>
       </c>
       <c r="F162" s="24">
-        <v>0.48194444444444445</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="G162" s="6">
         <f t="shared" si="7"/>
-        <v>1747308840</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="5">
+        <v>1747306800.0000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="21">
         <v>165</v>
       </c>
       <c r="B163" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C163" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D163" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="21" t="s">
         <v>112</v>
       </c>
       <c r="E163" s="22">
-        <v>45797</v>
+        <v>45792</v>
       </c>
       <c r="F163" s="24">
-        <v>0.52986111111111112</v>
+        <v>0.48194444444444445</v>
       </c>
       <c r="G163" s="6">
         <f t="shared" si="7"/>
-        <v>1747744980.0000002</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="21">
+        <v>1747308840</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="5">
         <v>166</v>
       </c>
       <c r="B164" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C164" s="21" t="s">
-        <v>156</v>
+      <c r="C164" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="E164" s="22">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="F164" s="24">
-        <v>0.59375</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="G164" s="6">
         <f t="shared" si="7"/>
-        <v>1747318500</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1747744980.0000002</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="21">
         <v>167</v>
       </c>
       <c r="B165" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>39</v>
+      <c r="C165" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="E165" s="22">
-        <v>45791</v>
+        <v>45792</v>
       </c>
       <c r="F165" s="24">
-        <v>0.39097222222222222</v>
+        <v>0.59375</v>
       </c>
       <c r="G165" s="6">
         <f t="shared" si="7"/>
-        <v>1747214580</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1747318500</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
         <v>168</v>
       </c>
@@ -5049,20 +5055,20 @@
         <v>39</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="E166" s="22">
         <v>45791</v>
       </c>
       <c r="F166" s="24">
-        <v>0.46319444444444446</v>
+        <v>0.39097222222222222</v>
       </c>
       <c r="G166" s="6">
         <f t="shared" si="7"/>
-        <v>1747220819.9999998</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1747214580</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="21">
         <v>169</v>
       </c>
@@ -5072,159 +5078,207 @@
       <c r="C167" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D167" s="21" t="s">
-        <v>127</v>
+      <c r="D167" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="E167" s="22">
-        <v>45793</v>
+        <v>45791</v>
       </c>
       <c r="F167" s="24">
-        <v>0.39097222222222222</v>
+        <v>0.46319444444444446</v>
       </c>
       <c r="G167" s="6">
         <f t="shared" si="7"/>
-        <v>1747387380</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="21">
-        <v>169</v>
+        <v>1747220819.9999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="5">
+        <v>170</v>
       </c>
       <c r="B168" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="D168" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="E168" s="22">
         <v>45793</v>
       </c>
       <c r="F168" s="24">
-        <v>0.52638888888888891</v>
+        <v>0.39097222222222222</v>
       </c>
       <c r="G168" s="6">
         <f t="shared" si="7"/>
-        <v>1747399080</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="5">
-        <v>170</v>
+        <v>1747387380</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="21">
+        <v>171</v>
       </c>
       <c r="B169" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C169" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E169" s="22">
-        <v>45798</v>
+        <v>45793</v>
       </c>
       <c r="F169" s="24">
-        <v>0.58125000000000004</v>
+        <v>0.52638888888888891</v>
       </c>
       <c r="G169" s="6">
         <f t="shared" si="7"/>
-        <v>1747835820.0000002</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1747399080</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B170" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C170" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D170" s="17" t="s">
-        <v>152</v>
+        <v>155</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E170" s="22">
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="F170" s="24">
-        <v>0.45763888888888887</v>
+        <v>0.58125000000000004</v>
       </c>
       <c r="G170" s="6">
         <f t="shared" si="7"/>
+        <v>1747835820.0000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="21">
+        <v>173</v>
+      </c>
+      <c r="B171" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D171" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E171" s="22">
+        <v>45797</v>
+      </c>
+      <c r="F171" s="24">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="G171" s="6">
+        <f t="shared" si="7"/>
         <v>1747738740</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="21">
-        <v>172</v>
-      </c>
-      <c r="B171" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C171" s="21" t="s">
+    <row r="172" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="5">
+        <v>174</v>
+      </c>
+      <c r="B172" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D171" s="17" t="s">
+      <c r="D172" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E171" s="22">
+      <c r="E172" s="22">
         <v>45798</v>
       </c>
-      <c r="F171" s="24">
+      <c r="F172" s="24">
         <v>0.45833333333333331</v>
-      </c>
-      <c r="G171" s="6">
-        <f t="shared" ref="G171" si="8">((E171+F171)-DATE(1970,1,1))*86400</f>
-        <v>1747825200.0000002</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="5">
-        <v>173</v>
-      </c>
-      <c r="B172" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C172" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D172" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E172" s="22">
-        <v>45778</v>
-      </c>
-      <c r="F172" s="24">
-        <v>0.59444444444444444</v>
       </c>
       <c r="G172" s="6">
         <f t="shared" si="7"/>
-        <v>1746108960.0000002</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1747825200.0000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="21">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B173" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="E173" s="22">
-        <v>45792</v>
+        <v>45778</v>
       </c>
       <c r="F173" s="24">
-        <v>0.5</v>
+        <v>0.59444444444444444</v>
       </c>
       <c r="G173" s="6">
         <f t="shared" si="7"/>
+        <v>1746108960.0000002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="5">
+        <v>176</v>
+      </c>
+      <c r="B174" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D174" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E174" s="22">
+        <v>45792</v>
+      </c>
+      <c r="F174" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G174" s="6">
+        <f t="shared" si="7"/>
         <v>1747310400</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="21">
+        <v>177</v>
+      </c>
+      <c r="B175" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="E175" s="22">
+        <v>45798</v>
+      </c>
+      <c r="F175" s="24">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G175" s="6">
+        <f t="shared" si="7"/>
+        <v>1747825200.0000002</v>
+      </c>
+      <c r="H175" s="17" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C4F87C-0924-426B-9C3B-0DE1BBF04DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEABCFD9-54D8-460E-9CD3-8ACC93F8BABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="187">
   <si>
     <t>Action #</t>
   </si>
@@ -593,7 +593,7 @@
     <t>Harbeen Sidhu</t>
   </si>
   <si>
-    <t>The time is wrong</t>
+    <t>Dominic De Leon</t>
   </si>
 </sst>
 </file>
@@ -1114,10 +1114,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H175"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="119" workbookViewId="0">
-      <selection activeCell="B176" sqref="B176"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="119" workbookViewId="0">
+      <selection activeCell="E181" sqref="E181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4707,7 +4707,7 @@
         <v>0.60624999999999996</v>
       </c>
       <c r="G151" s="6">
-        <f t="shared" ref="G151:G175" si="7">((E151+F151)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G151:G180" si="7">((E151+F151)-DATE(1970,1,1))*86400</f>
         <v>1744295579.9999998</v>
       </c>
     </row>
@@ -4927,7 +4927,7 @@
         <v>1747218719.9999998</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="21">
         <v>163</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>1747504200</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="5">
         <v>164</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>1747306800.0000002</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="21">
         <v>165</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>1747308840</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="5">
         <v>166</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>1747744980.0000002</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="21">
         <v>167</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>1747318500</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
         <v>168</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>1747214580</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="21">
         <v>169</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>1747220819.9999998</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
         <v>170</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>1747387380</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="21">
         <v>171</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>1747399080</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
         <v>172</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>1747835820.0000002</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="21">
         <v>173</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>1747738740</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="5">
         <v>174</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>1747825200.0000002</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="21">
         <v>175</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>1746108960.0000002</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="5">
         <v>176</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>1747310400</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="21">
         <v>177</v>
       </c>
@@ -5277,8 +5277,125 @@
         <f t="shared" si="7"/>
         <v>1747825200.0000002</v>
       </c>
-      <c r="H175" s="17" t="s">
+    </row>
+    <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="21">
+        <v>178</v>
+      </c>
+      <c r="B176" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C176" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D176" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E176" s="22">
+        <v>45804</v>
+      </c>
+      <c r="F176" s="24">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="G176" s="6">
+        <f t="shared" si="7"/>
+        <v>1748334180.0000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="21">
+        <v>179</v>
+      </c>
+      <c r="B177" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D177" s="17" t="s">
         <v>186</v>
+      </c>
+      <c r="E177" s="22">
+        <v>45803</v>
+      </c>
+      <c r="F177" s="24">
+        <v>0.88055555555555554</v>
+      </c>
+      <c r="G177" s="6">
+        <f t="shared" si="7"/>
+        <v>1748293680.0000002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="21">
+        <v>180</v>
+      </c>
+      <c r="B178" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D178" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E178" s="22">
+        <v>45804</v>
+      </c>
+      <c r="F178" s="24">
+        <v>0.33888888888888891</v>
+      </c>
+      <c r="G178" s="6">
+        <f t="shared" si="7"/>
+        <v>1748333280</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="21">
+        <v>181</v>
+      </c>
+      <c r="B179" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C179" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D179" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E179" s="22">
+        <v>45804</v>
+      </c>
+      <c r="F179" s="24">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="G179" s="6">
+        <f t="shared" si="7"/>
+        <v>1748341559.9999998</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="21">
+        <v>182</v>
+      </c>
+      <c r="B180" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C180" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D180" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E180" s="22">
+        <v>45804</v>
+      </c>
+      <c r="F180" s="24">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="G180" s="6">
+        <f t="shared" si="7"/>
+        <v>1748336760</v>
       </c>
     </row>
   </sheetData>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEABCFD9-54D8-460E-9CD3-8ACC93F8BABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7E1113-4B52-4A1A-B5AF-8BEF69E07D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="187">
   <si>
     <t>Action #</t>
   </si>
@@ -811,8 +811,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G180" totalsRowShown="0">
-  <autoFilter ref="A1:G180" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G182" totalsRowShown="0">
+  <autoFilter ref="A1:G182" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
@@ -1114,10 +1114,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H180"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="119" workbookViewId="0">
-      <selection activeCell="E181" sqref="E181"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="120" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4707,7 +4707,7 @@
         <v>0.60624999999999996</v>
       </c>
       <c r="G151" s="6">
-        <f t="shared" ref="G151:G180" si="7">((E151+F151)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G151:G181" si="7">((E151+F151)-DATE(1970,1,1))*86400</f>
         <v>1744295579.9999998</v>
       </c>
     </row>
@@ -5397,6 +5397,33 @@
         <f t="shared" si="7"/>
         <v>1748336760</v>
       </c>
+    </row>
+    <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="21">
+        <v>183</v>
+      </c>
+      <c r="B181" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D181" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E181" s="22">
+        <v>45804</v>
+      </c>
+      <c r="F181" s="24">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="G181" s="6">
+        <f t="shared" si="7"/>
+        <v>1748342160</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D182" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7E1113-4B52-4A1A-B5AF-8BEF69E07D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4289A4BB-5C10-4445-B6C7-2A50390D752D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="187">
   <si>
     <t>Action #</t>
   </si>
@@ -811,8 +811,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G182" totalsRowShown="0">
-  <autoFilter ref="A1:G182" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G184" totalsRowShown="0">
+  <autoFilter ref="A1:G184" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
@@ -1114,10 +1114,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="120" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181"/>
+    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="120" workbookViewId="0">
+      <selection activeCell="G183" sqref="G183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4707,7 +4707,7 @@
         <v>0.60624999999999996</v>
       </c>
       <c r="G151" s="6">
-        <f t="shared" ref="G151:G181" si="7">((E151+F151)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G151:G184" si="7">((E151+F151)-DATE(1970,1,1))*86400</f>
         <v>1744295579.9999998</v>
       </c>
     </row>
@@ -5423,7 +5423,67 @@
       </c>
     </row>
     <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="21">
+        <v>184</v>
+      </c>
+      <c r="B182" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="21" t="s">
+        <v>104</v>
+      </c>
       <c r="D182" s="21"/>
+      <c r="G182" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="21">
+        <v>185</v>
+      </c>
+      <c r="B183" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D183" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E183" s="22">
+        <v>45805</v>
+      </c>
+      <c r="F183" s="24">
+        <v>0.44513888888888886</v>
+      </c>
+      <c r="G183" s="6">
+        <f t="shared" si="7"/>
+        <v>1748428860.0000002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="21">
+        <v>186</v>
+      </c>
+      <c r="B184" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D184" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="E184" s="22">
+        <v>45805</v>
+      </c>
+      <c r="F184" s="24">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="G184" s="6">
+        <f t="shared" si="7"/>
+        <v>1748424720</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4289A4BB-5C10-4445-B6C7-2A50390D752D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63664455-E9EA-48A0-986C-C7A304923EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="187">
   <si>
     <t>Action #</t>
   </si>
@@ -811,8 +811,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G184" totalsRowShown="0">
-  <autoFilter ref="A1:G184" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G185" totalsRowShown="0">
+  <autoFilter ref="A1:G185" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
@@ -1114,10 +1114,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H184"/>
+  <dimension ref="A1:H185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A170" zoomScale="120" workbookViewId="0">
-      <selection activeCell="G183" sqref="G183"/>
+      <selection activeCell="F185" sqref="F185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4707,7 +4707,7 @@
         <v>0.60624999999999996</v>
       </c>
       <c r="G151" s="6">
-        <f t="shared" ref="G151:G184" si="7">((E151+F151)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G151:G185" si="7">((E151+F151)-DATE(1970,1,1))*86400</f>
         <v>1744295579.9999998</v>
       </c>
     </row>
@@ -5483,6 +5483,30 @@
       <c r="G184" s="6">
         <f t="shared" si="7"/>
         <v>1748424720</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="21">
+        <v>187</v>
+      </c>
+      <c r="B185" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E185" s="22">
+        <v>45805</v>
+      </c>
+      <c r="F185" s="24">
+        <v>0.43819444444444444</v>
+      </c>
+      <c r="G185" s="6">
+        <f t="shared" si="7"/>
+        <v>1748428260.0000002</v>
       </c>
     </row>
   </sheetData>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63664455-E9EA-48A0-986C-C7A304923EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB875B7B-A87E-407C-87B4-387E3C046CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="187">
   <si>
     <t>Action #</t>
   </si>
@@ -811,8 +811,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G185" totalsRowShown="0">
-  <autoFilter ref="A1:G185" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G187" totalsRowShown="0">
+  <autoFilter ref="A1:G187" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
@@ -1114,10 +1114,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H185"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A170" zoomScale="120" workbookViewId="0">
-      <selection activeCell="F185" sqref="F185"/>
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4707,7 +4707,7 @@
         <v>0.60624999999999996</v>
       </c>
       <c r="G151" s="6">
-        <f t="shared" ref="G151:G185" si="7">((E151+F151)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G151:G187" si="7">((E151+F151)-DATE(1970,1,1))*86400</f>
         <v>1744295579.9999998</v>
       </c>
     </row>
@@ -5507,6 +5507,54 @@
       <c r="G185" s="6">
         <f t="shared" si="7"/>
         <v>1748428260.0000002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="21">
+        <v>188</v>
+      </c>
+      <c r="B186" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D186" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E186" s="22">
+        <v>45807</v>
+      </c>
+      <c r="F186" s="24">
+        <v>0.65555555555555556</v>
+      </c>
+      <c r="G186" s="6">
+        <f t="shared" si="7"/>
+        <v>1748619839.9999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="21">
+        <v>189</v>
+      </c>
+      <c r="B187" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D187" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E187" s="22">
+        <v>45807</v>
+      </c>
+      <c r="F187" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="G187" s="6">
+        <f t="shared" si="7"/>
+        <v>1748615039.9999998</v>
       </c>
     </row>
   </sheetData>

--- a/src/game_log.xlsx
+++ b/src/game_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB875B7B-A87E-407C-87B4-387E3C046CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151A5733-CB15-4DC7-99C7-25652FD48B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="187">
   <si>
     <t>Action #</t>
   </si>
@@ -811,8 +811,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G187" totalsRowShown="0">
-  <autoFilter ref="A1:G187" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G190" totalsRowShown="0">
+  <autoFilter ref="A1:G190" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Action #"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Command"/>
@@ -1114,10 +1114,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H187"/>
+  <dimension ref="A1:H190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="120" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="120" workbookViewId="0">
+      <selection activeCell="F191" sqref="F191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4707,7 +4707,7 @@
         <v>0.60624999999999996</v>
       </c>
       <c r="G151" s="6">
-        <f t="shared" ref="G151:G187" si="7">((E151+F151)-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="G151:G190" si="7">((E151+F151)-DATE(1970,1,1))*86400</f>
         <v>1744295579.9999998</v>
       </c>
     </row>
@@ -5526,11 +5526,11 @@
         <v>45807</v>
       </c>
       <c r="F186" s="24">
-        <v>0.65555555555555556</v>
+        <v>0</v>
       </c>
       <c r="G186" s="6">
-        <f t="shared" si="7"/>
-        <v>1748619839.9999998</v>
+        <f>((E186+F186)-DATE(1970,1,1))*86400</f>
+        <v>1748563200</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5555,6 +5555,78 @@
       <c r="G187" s="6">
         <f t="shared" si="7"/>
         <v>1748615039.9999998</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="21">
+        <v>190</v>
+      </c>
+      <c r="B188" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D188" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E188" s="22">
+        <v>45812</v>
+      </c>
+      <c r="F188" s="24">
+        <v>5.6944444444444443E-2</v>
+      </c>
+      <c r="G188" s="6">
+        <f t="shared" si="7"/>
+        <v>1749000119.9999998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="21">
+        <v>191</v>
+      </c>
+      <c r="B189" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C189" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D189" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="E189" s="22">
+        <v>45812</v>
+      </c>
+      <c r="F189" s="24">
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="G189" s="6">
+        <f t="shared" si="7"/>
+        <v>1749013439.9999998</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="21">
+        <v>192</v>
+      </c>
+      <c r="B190" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C190" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D190" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E190" s="22">
+        <v>45813</v>
+      </c>
+      <c r="F190" s="24">
+        <v>0.99998842592592596</v>
+      </c>
+      <c r="G190" s="6">
+        <f t="shared" si="7"/>
+        <v>1749167998.9999998</v>
       </c>
     </row>
   </sheetData>
